--- a/Code/Results/Cases/Case_1_3/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_3/res_line/loading_percent.xlsx
@@ -412,31 +412,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.15077313628307</v>
+        <v>15.15077313628313</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.956796747008016</v>
+        <v>2.956796747008076</v>
       </c>
       <c r="E2">
-        <v>5.27952986819654</v>
+        <v>5.279529868196475</v>
       </c>
       <c r="F2">
-        <v>36.27274663777072</v>
+        <v>36.27274663777074</v>
       </c>
       <c r="G2">
-        <v>27.91942251778094</v>
+        <v>27.91942251778096</v>
       </c>
       <c r="H2">
-        <v>10.18099933010538</v>
+        <v>10.18099933010525</v>
       </c>
       <c r="I2">
-        <v>4.73551637140883</v>
+        <v>4.735516371408763</v>
       </c>
       <c r="J2">
-        <v>40.51481888882903</v>
+        <v>40.51481888882905</v>
       </c>
       <c r="K2">
         <v>31.32357261434191</v>
@@ -450,34 +450,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.12520748140122</v>
+        <v>14.12520748140123</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.721576559814219</v>
+        <v>2.721576559814204</v>
       </c>
       <c r="E3">
-        <v>5.307216974255092</v>
+        <v>5.30721697425496</v>
       </c>
       <c r="F3">
-        <v>33.88566552775346</v>
+        <v>33.88566552775342</v>
       </c>
       <c r="G3">
-        <v>26.14215141831857</v>
+        <v>26.14215141831853</v>
       </c>
       <c r="H3">
-        <v>10.90731211547766</v>
+        <v>10.90731211547763</v>
       </c>
       <c r="I3">
-        <v>4.876296795555664</v>
+        <v>4.876296795555562</v>
       </c>
       <c r="J3">
-        <v>37.69102066499691</v>
+        <v>37.69102066499688</v>
       </c>
       <c r="K3">
-        <v>29.07742063144614</v>
+        <v>29.07742063144615</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -494,28 +494,28 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.575305836916868</v>
+        <v>2.575305836916976</v>
       </c>
       <c r="E4">
-        <v>5.326842001030436</v>
+        <v>5.32684200103037</v>
       </c>
       <c r="F4">
-        <v>32.41557041371674</v>
+        <v>32.41557041371673</v>
       </c>
       <c r="G4">
-        <v>25.0605960644183</v>
+        <v>25.06059606441829</v>
       </c>
       <c r="H4">
-        <v>11.35915008661971</v>
+        <v>11.35915008661978</v>
       </c>
       <c r="I4">
-        <v>4.964689618770316</v>
+        <v>4.964689618770215</v>
       </c>
       <c r="J4">
-        <v>35.87111022314296</v>
+        <v>35.87111022314286</v>
       </c>
       <c r="K4">
-        <v>27.63326345893578</v>
+        <v>27.6332634589357</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,31 +526,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.18201757601116</v>
+        <v>13.18201757601115</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.515127381594542</v>
+        <v>2.515127381594463</v>
       </c>
       <c r="E5">
-        <v>5.335472831977453</v>
+        <v>5.335472831977387</v>
       </c>
       <c r="F5">
-        <v>31.81548188589619</v>
+        <v>31.81548188589616</v>
       </c>
       <c r="G5">
-        <v>24.62105740489448</v>
+        <v>24.62105740489446</v>
       </c>
       <c r="H5">
         <v>11.54496379898374</v>
       </c>
       <c r="I5">
-        <v>5.001232670982962</v>
+        <v>5.001232670982961</v>
       </c>
       <c r="J5">
-        <v>35.10736406417128</v>
+        <v>35.10736406417126</v>
       </c>
       <c r="K5">
         <v>27.02795686477516</v>
@@ -564,34 +564,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.13511609016826</v>
+        <v>13.13511609016823</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.505097364383952</v>
+        <v>2.505097364383942</v>
       </c>
       <c r="E6">
-        <v>5.336943538962547</v>
+        <v>5.336943538962482</v>
       </c>
       <c r="F6">
-        <v>31.71578363455152</v>
+        <v>31.71578363455147</v>
       </c>
       <c r="G6">
-        <v>24.54815062115808</v>
+        <v>24.54815062115804</v>
       </c>
       <c r="H6">
-        <v>11.57592567445984</v>
+        <v>11.57592567445988</v>
       </c>
       <c r="I6">
-        <v>5.007333025382799</v>
+        <v>5.007333025382766</v>
       </c>
       <c r="J6">
         <v>34.97919592743516</v>
       </c>
       <c r="K6">
-        <v>26.92641900346116</v>
+        <v>26.92641900346119</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,34 +602,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.45755445465678</v>
+        <v>13.45755445465687</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.574496697400472</v>
+        <v>2.574496697400467</v>
       </c>
       <c r="E7">
-        <v>5.326955866512706</v>
+        <v>5.326955866512773</v>
       </c>
       <c r="F7">
-        <v>32.40748121832467</v>
+        <v>32.40748121832472</v>
       </c>
       <c r="G7">
-        <v>25.05466318839825</v>
+        <v>25.05466318839829</v>
       </c>
       <c r="H7">
-        <v>11.36164894362385</v>
+        <v>11.36164894362371</v>
       </c>
       <c r="I7">
-        <v>4.965180297095106</v>
+        <v>4.96518029709514</v>
       </c>
       <c r="J7">
-        <v>35.86090021597025</v>
+        <v>35.86090021597033</v>
       </c>
       <c r="K7">
-        <v>27.62516867663533</v>
+        <v>27.62516867663532</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,34 +640,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.80419134268701</v>
+        <v>14.80419134268703</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.87600579203765</v>
+        <v>2.876005792037695</v>
       </c>
       <c r="E8">
-        <v>5.28851406749847</v>
+        <v>5.28851406749841</v>
       </c>
       <c r="F8">
-        <v>35.4505849992208</v>
+        <v>35.45058499922078</v>
       </c>
       <c r="G8">
-        <v>27.30009851722617</v>
+        <v>27.30009851722615</v>
       </c>
       <c r="H8">
-        <v>10.43034108562831</v>
+        <v>10.43034108562822</v>
       </c>
       <c r="I8">
-        <v>4.783671641284567</v>
+        <v>4.783671641284532</v>
       </c>
       <c r="J8">
-        <v>39.55874053072615</v>
+        <v>39.55874053072619</v>
       </c>
       <c r="K8">
-        <v>30.56230490222661</v>
+        <v>30.5623049022266</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,34 +678,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.17899112127321</v>
+        <v>17.17899112127325</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.458413967304921</v>
+        <v>3.45841396730493</v>
       </c>
       <c r="E9">
-        <v>5.235451426489893</v>
+        <v>5.235451426490089</v>
       </c>
       <c r="F9">
-        <v>41.78866198405301</v>
+        <v>41.78866198405306</v>
       </c>
       <c r="G9">
-        <v>32.35390348512781</v>
+        <v>32.35390348512788</v>
       </c>
       <c r="H9">
-        <v>8.640686382024827</v>
+        <v>8.640686382024722</v>
       </c>
       <c r="I9">
-        <v>4.441680695206195</v>
+        <v>4.441680695206296</v>
       </c>
       <c r="J9">
-        <v>46.15150848256452</v>
+        <v>46.15150848256454</v>
       </c>
       <c r="K9">
-        <v>35.82941697324091</v>
+        <v>35.82941697324086</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,34 +716,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.77054447344941</v>
+        <v>18.7705444734494</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.890718742305269</v>
+        <v>3.890718742305274</v>
       </c>
       <c r="E10">
-        <v>5.212774756760953</v>
+        <v>5.212774756761022</v>
       </c>
       <c r="F10">
-        <v>46.47198843795384</v>
+        <v>46.47198843795369</v>
       </c>
       <c r="G10">
-        <v>36.07525175880084</v>
+        <v>36.07525175880073</v>
       </c>
       <c r="H10">
-        <v>7.33393226776914</v>
+        <v>7.333932267769237</v>
       </c>
       <c r="I10">
-        <v>4.19651371977701</v>
+        <v>4.196513719777008</v>
       </c>
       <c r="J10">
-        <v>50.63359590715771</v>
+        <v>50.63359590715761</v>
       </c>
       <c r="K10">
-        <v>39.43667481753209</v>
+        <v>39.43667481753197</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,34 +754,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.46369588914119</v>
+        <v>19.46369588914116</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.09117698727681</v>
+        <v>4.091176987276731</v>
       </c>
       <c r="E11">
-        <v>5.20685332826001</v>
+        <v>5.206853328260038</v>
       </c>
       <c r="F11">
-        <v>48.60355596293065</v>
+        <v>48.60355596293078</v>
       </c>
       <c r="G11">
-        <v>37.76715604263888</v>
+        <v>37.76715604263897</v>
       </c>
       <c r="H11">
-        <v>6.738479954726634</v>
+        <v>6.738479954726656</v>
       </c>
       <c r="I11">
-        <v>4.085689023192916</v>
+        <v>4.085689023192984</v>
       </c>
       <c r="J11">
-        <v>52.60517775137497</v>
+        <v>52.60517775137501</v>
       </c>
       <c r="K11">
-        <v>41.03117457772944</v>
+        <v>41.03117457772952</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,31 +792,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.72197543924626</v>
+        <v>19.72197543924628</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.167935474954279</v>
+        <v>4.167935474954351</v>
       </c>
       <c r="E12">
-        <v>5.205341646615351</v>
+        <v>5.205341646615615</v>
       </c>
       <c r="F12">
-        <v>49.41277970937729</v>
+        <v>49.41277970937742</v>
       </c>
       <c r="G12">
-        <v>38.40927767368825</v>
+        <v>38.40927767368838</v>
       </c>
       <c r="H12">
-        <v>6.512740291042264</v>
+        <v>6.512740291042246</v>
       </c>
       <c r="I12">
-        <v>4.043765105417139</v>
+        <v>4.043765105417272</v>
       </c>
       <c r="J12">
-        <v>53.34323210711008</v>
+        <v>53.34323210711016</v>
       </c>
       <c r="K12">
         <v>41.62937565199339</v>
@@ -830,34 +830,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.66653299660227</v>
+        <v>19.66653299660225</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.151360807842805</v>
+        <v>4.151360807842852</v>
       </c>
       <c r="E13">
-        <v>5.205632827902384</v>
+        <v>5.205632827902316</v>
       </c>
       <c r="F13">
-        <v>49.23837229913367</v>
+        <v>49.23837229913342</v>
       </c>
       <c r="G13">
-        <v>38.27089205602984</v>
+        <v>38.27089205602964</v>
       </c>
       <c r="H13">
-        <v>6.561368311531708</v>
+        <v>6.561368311531818</v>
       </c>
       <c r="I13">
-        <v>4.052793263228478</v>
+        <v>4.052793263228378</v>
       </c>
       <c r="J13">
-        <v>53.18463795610822</v>
+        <v>53.18463795610807</v>
       </c>
       <c r="K13">
-        <v>41.50077182948524</v>
+        <v>41.50077182948515</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,34 +868,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.48502741788204</v>
+        <v>19.48502741788203</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.09747294856612</v>
+        <v>4.097472948566105</v>
       </c>
       <c r="E14">
-        <v>5.206713647851802</v>
+        <v>5.206713647851899</v>
       </c>
       <c r="F14">
-        <v>48.67007764337254</v>
+        <v>48.67007764337247</v>
       </c>
       <c r="G14">
-        <v>37.81994456999934</v>
+        <v>37.81994456999927</v>
       </c>
       <c r="H14">
-        <v>6.719913268597464</v>
+        <v>6.719913268597627</v>
       </c>
       <c r="I14">
-        <v>4.082239414591236</v>
+        <v>4.082239414591336</v>
       </c>
       <c r="J14">
-        <v>52.66606169672619</v>
+        <v>52.66606169672615</v>
       </c>
       <c r="K14">
-        <v>41.08049420910051</v>
+        <v>41.08049420910048</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,34 +906,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.37331049302079</v>
+        <v>19.37331049302078</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.064585852914427</v>
+        <v>4.064585852914488</v>
       </c>
       <c r="E15">
-        <v>5.207474257275993</v>
+        <v>5.207474257276056</v>
       </c>
       <c r="F15">
-        <v>48.32231187592099</v>
+        <v>48.32231187592105</v>
       </c>
       <c r="G15">
-        <v>37.54396655721641</v>
+        <v>37.54396655721649</v>
       </c>
       <c r="H15">
-        <v>6.816993330534743</v>
+        <v>6.816993330534732</v>
       </c>
       <c r="I15">
-        <v>4.100279782261833</v>
+        <v>4.100279782261765</v>
       </c>
       <c r="J15">
-        <v>52.34734446213737</v>
+        <v>52.34734446213739</v>
       </c>
       <c r="K15">
-        <v>40.822368428567</v>
+        <v>40.82236842856705</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,34 +944,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.72464369763192</v>
+        <v>18.72464369763188</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.877719166154044</v>
+        <v>3.877719166153914</v>
       </c>
       <c r="E16">
-        <v>5.213257969749305</v>
+        <v>5.213257969749206</v>
       </c>
       <c r="F16">
-        <v>46.33285765429972</v>
+        <v>46.33285765429963</v>
       </c>
       <c r="G16">
-        <v>35.96478801614447</v>
+        <v>35.96478801614437</v>
       </c>
       <c r="H16">
-        <v>7.372813109923587</v>
+        <v>7.372813109923679</v>
       </c>
       <c r="I16">
-        <v>4.203765716331666</v>
+        <v>4.203765716331667</v>
       </c>
       <c r="J16">
-        <v>50.50348578423363</v>
+        <v>50.50348578423349</v>
       </c>
       <c r="K16">
-        <v>39.33162298745083</v>
+        <v>39.33162298745075</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,34 +982,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.31895992882606</v>
+        <v>18.31895992882597</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.7642509828169</v>
+        <v>3.764250982816914</v>
       </c>
       <c r="E17">
-        <v>5.217993400004269</v>
+        <v>5.217993400004402</v>
       </c>
       <c r="F17">
-        <v>45.1138638813952</v>
+        <v>45.11386388139514</v>
       </c>
       <c r="G17">
-        <v>34.99676604046771</v>
+        <v>34.99676604046766</v>
       </c>
       <c r="H17">
-        <v>7.71340822032308</v>
+        <v>7.713408220323243</v>
       </c>
       <c r="I17">
-        <v>4.267391912634977</v>
+        <v>4.267391912635044</v>
       </c>
       <c r="J17">
-        <v>49.35583347133667</v>
+        <v>49.35583347133663</v>
       </c>
       <c r="K17">
-        <v>38.40590164390741</v>
+        <v>38.40590164390737</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,34 +1020,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.08270103378262</v>
+        <v>18.08270103378264</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.699323248210076</v>
+        <v>3.699323248210179</v>
       </c>
       <c r="E18">
-        <v>5.221123405785722</v>
+        <v>5.221123405785815</v>
       </c>
       <c r="F18">
-        <v>44.4126947147293</v>
+        <v>44.41269471472926</v>
       </c>
       <c r="G18">
-        <v>34.43978041016656</v>
+        <v>34.43978041016653</v>
       </c>
       <c r="H18">
-        <v>7.909216385795356</v>
+        <v>7.909216385795379</v>
       </c>
       <c r="I18">
-        <v>4.304058063727894</v>
+        <v>4.304058063727892</v>
       </c>
       <c r="J18">
-        <v>48.68931539763749</v>
+        <v>48.68931539763742</v>
       </c>
       <c r="K18">
-        <v>37.8690024178052</v>
+        <v>37.86900241780511</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,34 +1058,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.00219974915509</v>
+        <v>18.00219974915511</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.677389406135209</v>
+        <v>3.6773894061352</v>
       </c>
       <c r="E19">
         <v>5.222250387565241</v>
       </c>
       <c r="F19">
-        <v>44.17523508220385</v>
+        <v>44.17523508220374</v>
       </c>
       <c r="G19">
-        <v>34.25111782129037</v>
+        <v>34.25111782129029</v>
       </c>
       <c r="H19">
-        <v>7.975503481189017</v>
+        <v>7.975503481189024</v>
       </c>
       <c r="I19">
-        <v>4.316486278129839</v>
+        <v>4.316486278129804</v>
       </c>
       <c r="J19">
-        <v>48.46251021445526</v>
+        <v>48.46251021445522</v>
       </c>
       <c r="K19">
-        <v>37.68642402196799</v>
+        <v>37.68642402196793</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,34 +1096,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.3624463274259</v>
+        <v>18.36244632742589</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.776293092419962</v>
+        <v>3.776293092420027</v>
       </c>
       <c r="E20">
-        <v>5.217446626836082</v>
+        <v>5.217446626836209</v>
       </c>
       <c r="F20">
-        <v>45.24361950010346</v>
+        <v>45.24361950010343</v>
       </c>
       <c r="G20">
-        <v>35.09982471281727</v>
+        <v>35.09982471281729</v>
       </c>
       <c r="H20">
-        <v>7.677162244934048</v>
+        <v>7.677162244934023</v>
       </c>
       <c r="I20">
-        <v>4.26061194405257</v>
+        <v>4.260611944052605</v>
       </c>
       <c r="J20">
-        <v>49.47865979293065</v>
+        <v>49.47865979293067</v>
       </c>
       <c r="K20">
-        <v>38.50489956177319</v>
+        <v>38.5048995617732</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,34 +1134,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.53845196027143</v>
+        <v>19.53845196027145</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.113275307479081</v>
+        <v>4.113275307479148</v>
       </c>
       <c r="E21">
-        <v>5.206375422465214</v>
+        <v>5.206375422465189</v>
       </c>
       <c r="F21">
-        <v>48.83692643956081</v>
+        <v>48.83692643956095</v>
       </c>
       <c r="G21">
-        <v>37.95234529280261</v>
+        <v>37.95234529280273</v>
       </c>
       <c r="H21">
-        <v>6.673351608988569</v>
+        <v>6.67335160898848</v>
       </c>
       <c r="I21">
-        <v>4.073589698892678</v>
+        <v>4.073589698892645</v>
       </c>
       <c r="J21">
-        <v>52.8186016091273</v>
+        <v>52.81860160912741</v>
       </c>
       <c r="K21">
-        <v>41.20408222414571</v>
+        <v>41.20408222414584</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,34 +1172,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.28268993447403</v>
+        <v>20.28268993447405</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.338658430382925</v>
+        <v>4.338658430382876</v>
       </c>
       <c r="E22">
-        <v>5.203467610138427</v>
+        <v>5.203467610138562</v>
       </c>
       <c r="F22">
-        <v>51.1985560018886</v>
+        <v>51.19855600188868</v>
       </c>
       <c r="G22">
-        <v>39.82603764150672</v>
+        <v>39.82603764150677</v>
       </c>
       <c r="H22">
-        <v>6.01594926754909</v>
+        <v>6.015949267549097</v>
       </c>
       <c r="I22">
-        <v>3.951577978870763</v>
+        <v>3.951577978870931</v>
       </c>
       <c r="J22">
-        <v>54.95238187915648</v>
+        <v>54.95238187915654</v>
       </c>
       <c r="K22">
-        <v>42.93618295932469</v>
+        <v>42.93618295932472</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,34 +1210,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.887614851149</v>
+        <v>19.88761485114902</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.217776943796156</v>
+        <v>4.21777694379609</v>
       </c>
       <c r="E23">
-        <v>5.204582730236051</v>
+        <v>5.204582730235989</v>
       </c>
       <c r="F23">
-        <v>49.93613749981795</v>
+        <v>49.93613749981801</v>
       </c>
       <c r="G23">
-        <v>38.82452062920528</v>
+        <v>38.82452062920529</v>
       </c>
       <c r="H23">
-        <v>6.366916381088918</v>
+        <v>6.366916381088841</v>
       </c>
       <c r="I23">
-        <v>4.016699134333219</v>
+        <v>4.016699134333185</v>
       </c>
       <c r="J23">
-        <v>53.81758863872269</v>
+        <v>53.8175886387227</v>
       </c>
       <c r="K23">
-        <v>42.01423431658936</v>
+        <v>42.01423431658933</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1254,28 +1254,28 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.770847921470143</v>
+        <v>3.770847921470096</v>
       </c>
       <c r="E24">
-        <v>5.217692560616316</v>
+        <v>5.217692560616351</v>
       </c>
       <c r="F24">
-        <v>45.1849582212594</v>
+        <v>45.18495822125938</v>
       </c>
       <c r="G24">
-        <v>35.05323342336138</v>
+        <v>35.05323342336133</v>
       </c>
       <c r="H24">
-        <v>7.693549052710566</v>
+        <v>7.693549052710619</v>
       </c>
       <c r="I24">
-        <v>4.263676893800239</v>
+        <v>4.263676893800272</v>
       </c>
       <c r="J24">
-        <v>49.42315101939816</v>
+        <v>49.42315101939808</v>
       </c>
       <c r="K24">
-        <v>38.46015728889709</v>
+        <v>38.46015728889704</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.56416746776426</v>
+        <v>16.56416746776424</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.300901373704476</v>
+        <v>3.300901373704582</v>
       </c>
       <c r="E25">
-        <v>5.24717707799169</v>
+        <v>5.247177077991693</v>
       </c>
       <c r="F25">
         <v>40.05493247521601</v>
@@ -1304,16 +1304,16 @@
         <v>30.97417537785422</v>
       </c>
       <c r="H25">
-        <v>9.12237650545408</v>
+        <v>9.122376505454071</v>
       </c>
       <c r="I25">
-        <v>4.532938242268799</v>
+        <v>4.532938242268767</v>
       </c>
       <c r="J25">
-        <v>44.43476097548289</v>
+        <v>44.43476097548283</v>
       </c>
       <c r="K25">
-        <v>34.45370526705583</v>
+        <v>34.45370526705577</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_3/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_3/res_line/loading_percent.xlsx
@@ -412,31 +412,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.15077313628313</v>
+        <v>15.15077313628307</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.956796747008076</v>
+        <v>2.956796747008016</v>
       </c>
       <c r="E2">
-        <v>5.279529868196475</v>
+        <v>5.27952986819654</v>
       </c>
       <c r="F2">
-        <v>36.27274663777074</v>
+        <v>36.27274663777072</v>
       </c>
       <c r="G2">
-        <v>27.91942251778096</v>
+        <v>27.91942251778094</v>
       </c>
       <c r="H2">
-        <v>10.18099933010525</v>
+        <v>10.18099933010538</v>
       </c>
       <c r="I2">
-        <v>4.735516371408763</v>
+        <v>4.73551637140883</v>
       </c>
       <c r="J2">
-        <v>40.51481888882905</v>
+        <v>40.51481888882903</v>
       </c>
       <c r="K2">
         <v>31.32357261434191</v>
@@ -450,34 +450,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.12520748140123</v>
+        <v>14.12520748140122</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.721576559814204</v>
+        <v>2.721576559814219</v>
       </c>
       <c r="E3">
-        <v>5.30721697425496</v>
+        <v>5.307216974255092</v>
       </c>
       <c r="F3">
-        <v>33.88566552775342</v>
+        <v>33.88566552775346</v>
       </c>
       <c r="G3">
-        <v>26.14215141831853</v>
+        <v>26.14215141831857</v>
       </c>
       <c r="H3">
-        <v>10.90731211547763</v>
+        <v>10.90731211547766</v>
       </c>
       <c r="I3">
-        <v>4.876296795555562</v>
+        <v>4.876296795555664</v>
       </c>
       <c r="J3">
-        <v>37.69102066499688</v>
+        <v>37.69102066499691</v>
       </c>
       <c r="K3">
-        <v>29.07742063144615</v>
+        <v>29.07742063144614</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -494,28 +494,28 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.575305836916976</v>
+        <v>2.575305836916868</v>
       </c>
       <c r="E4">
-        <v>5.32684200103037</v>
+        <v>5.326842001030436</v>
       </c>
       <c r="F4">
-        <v>32.41557041371673</v>
+        <v>32.41557041371674</v>
       </c>
       <c r="G4">
-        <v>25.06059606441829</v>
+        <v>25.0605960644183</v>
       </c>
       <c r="H4">
-        <v>11.35915008661978</v>
+        <v>11.35915008661971</v>
       </c>
       <c r="I4">
-        <v>4.964689618770215</v>
+        <v>4.964689618770316</v>
       </c>
       <c r="J4">
-        <v>35.87111022314286</v>
+        <v>35.87111022314296</v>
       </c>
       <c r="K4">
-        <v>27.6332634589357</v>
+        <v>27.63326345893578</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,31 +526,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.18201757601115</v>
+        <v>13.18201757601116</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.515127381594463</v>
+        <v>2.515127381594542</v>
       </c>
       <c r="E5">
-        <v>5.335472831977387</v>
+        <v>5.335472831977453</v>
       </c>
       <c r="F5">
-        <v>31.81548188589616</v>
+        <v>31.81548188589619</v>
       </c>
       <c r="G5">
-        <v>24.62105740489446</v>
+        <v>24.62105740489448</v>
       </c>
       <c r="H5">
         <v>11.54496379898374</v>
       </c>
       <c r="I5">
-        <v>5.001232670982961</v>
+        <v>5.001232670982962</v>
       </c>
       <c r="J5">
-        <v>35.10736406417126</v>
+        <v>35.10736406417128</v>
       </c>
       <c r="K5">
         <v>27.02795686477516</v>
@@ -564,34 +564,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.13511609016823</v>
+        <v>13.13511609016826</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.505097364383942</v>
+        <v>2.505097364383952</v>
       </c>
       <c r="E6">
-        <v>5.336943538962482</v>
+        <v>5.336943538962547</v>
       </c>
       <c r="F6">
-        <v>31.71578363455147</v>
+        <v>31.71578363455152</v>
       </c>
       <c r="G6">
-        <v>24.54815062115804</v>
+        <v>24.54815062115808</v>
       </c>
       <c r="H6">
-        <v>11.57592567445988</v>
+        <v>11.57592567445984</v>
       </c>
       <c r="I6">
-        <v>5.007333025382766</v>
+        <v>5.007333025382799</v>
       </c>
       <c r="J6">
         <v>34.97919592743516</v>
       </c>
       <c r="K6">
-        <v>26.92641900346119</v>
+        <v>26.92641900346116</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,34 +602,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.45755445465687</v>
+        <v>13.45755445465678</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.574496697400467</v>
+        <v>2.574496697400472</v>
       </c>
       <c r="E7">
-        <v>5.326955866512773</v>
+        <v>5.326955866512706</v>
       </c>
       <c r="F7">
-        <v>32.40748121832472</v>
+        <v>32.40748121832467</v>
       </c>
       <c r="G7">
-        <v>25.05466318839829</v>
+        <v>25.05466318839825</v>
       </c>
       <c r="H7">
-        <v>11.36164894362371</v>
+        <v>11.36164894362385</v>
       </c>
       <c r="I7">
-        <v>4.96518029709514</v>
+        <v>4.965180297095106</v>
       </c>
       <c r="J7">
-        <v>35.86090021597033</v>
+        <v>35.86090021597025</v>
       </c>
       <c r="K7">
-        <v>27.62516867663532</v>
+        <v>27.62516867663533</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,34 +640,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.80419134268703</v>
+        <v>14.80419134268701</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.876005792037695</v>
+        <v>2.87600579203765</v>
       </c>
       <c r="E8">
-        <v>5.28851406749841</v>
+        <v>5.28851406749847</v>
       </c>
       <c r="F8">
-        <v>35.45058499922078</v>
+        <v>35.4505849992208</v>
       </c>
       <c r="G8">
-        <v>27.30009851722615</v>
+        <v>27.30009851722617</v>
       </c>
       <c r="H8">
-        <v>10.43034108562822</v>
+        <v>10.43034108562831</v>
       </c>
       <c r="I8">
-        <v>4.783671641284532</v>
+        <v>4.783671641284567</v>
       </c>
       <c r="J8">
-        <v>39.55874053072619</v>
+        <v>39.55874053072615</v>
       </c>
       <c r="K8">
-        <v>30.5623049022266</v>
+        <v>30.56230490222661</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,34 +678,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.17899112127325</v>
+        <v>17.17899112127321</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.45841396730493</v>
+        <v>3.458413967304921</v>
       </c>
       <c r="E9">
-        <v>5.235451426490089</v>
+        <v>5.235451426489893</v>
       </c>
       <c r="F9">
-        <v>41.78866198405306</v>
+        <v>41.78866198405301</v>
       </c>
       <c r="G9">
-        <v>32.35390348512788</v>
+        <v>32.35390348512781</v>
       </c>
       <c r="H9">
-        <v>8.640686382024722</v>
+        <v>8.640686382024827</v>
       </c>
       <c r="I9">
-        <v>4.441680695206296</v>
+        <v>4.441680695206195</v>
       </c>
       <c r="J9">
-        <v>46.15150848256454</v>
+        <v>46.15150848256452</v>
       </c>
       <c r="K9">
-        <v>35.82941697324086</v>
+        <v>35.82941697324091</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,34 +716,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.7705444734494</v>
+        <v>18.77054447344941</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.890718742305274</v>
+        <v>3.890718742305269</v>
       </c>
       <c r="E10">
-        <v>5.212774756761022</v>
+        <v>5.212774756760953</v>
       </c>
       <c r="F10">
-        <v>46.47198843795369</v>
+        <v>46.47198843795384</v>
       </c>
       <c r="G10">
-        <v>36.07525175880073</v>
+        <v>36.07525175880084</v>
       </c>
       <c r="H10">
-        <v>7.333932267769237</v>
+        <v>7.33393226776914</v>
       </c>
       <c r="I10">
-        <v>4.196513719777008</v>
+        <v>4.19651371977701</v>
       </c>
       <c r="J10">
-        <v>50.63359590715761</v>
+        <v>50.63359590715771</v>
       </c>
       <c r="K10">
-        <v>39.43667481753197</v>
+        <v>39.43667481753209</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,34 +754,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.46369588914116</v>
+        <v>19.46369588914119</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.091176987276731</v>
+        <v>4.09117698727681</v>
       </c>
       <c r="E11">
-        <v>5.206853328260038</v>
+        <v>5.20685332826001</v>
       </c>
       <c r="F11">
-        <v>48.60355596293078</v>
+        <v>48.60355596293065</v>
       </c>
       <c r="G11">
-        <v>37.76715604263897</v>
+        <v>37.76715604263888</v>
       </c>
       <c r="H11">
-        <v>6.738479954726656</v>
+        <v>6.738479954726634</v>
       </c>
       <c r="I11">
-        <v>4.085689023192984</v>
+        <v>4.085689023192916</v>
       </c>
       <c r="J11">
-        <v>52.60517775137501</v>
+        <v>52.60517775137497</v>
       </c>
       <c r="K11">
-        <v>41.03117457772952</v>
+        <v>41.03117457772944</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,31 +792,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.72197543924628</v>
+        <v>19.72197543924626</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.167935474954351</v>
+        <v>4.167935474954279</v>
       </c>
       <c r="E12">
-        <v>5.205341646615615</v>
+        <v>5.205341646615351</v>
       </c>
       <c r="F12">
-        <v>49.41277970937742</v>
+        <v>49.41277970937729</v>
       </c>
       <c r="G12">
-        <v>38.40927767368838</v>
+        <v>38.40927767368825</v>
       </c>
       <c r="H12">
-        <v>6.512740291042246</v>
+        <v>6.512740291042264</v>
       </c>
       <c r="I12">
-        <v>4.043765105417272</v>
+        <v>4.043765105417139</v>
       </c>
       <c r="J12">
-        <v>53.34323210711016</v>
+        <v>53.34323210711008</v>
       </c>
       <c r="K12">
         <v>41.62937565199339</v>
@@ -830,34 +830,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.66653299660225</v>
+        <v>19.66653299660227</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.151360807842852</v>
+        <v>4.151360807842805</v>
       </c>
       <c r="E13">
-        <v>5.205632827902316</v>
+        <v>5.205632827902384</v>
       </c>
       <c r="F13">
-        <v>49.23837229913342</v>
+        <v>49.23837229913367</v>
       </c>
       <c r="G13">
-        <v>38.27089205602964</v>
+        <v>38.27089205602984</v>
       </c>
       <c r="H13">
-        <v>6.561368311531818</v>
+        <v>6.561368311531708</v>
       </c>
       <c r="I13">
-        <v>4.052793263228378</v>
+        <v>4.052793263228478</v>
       </c>
       <c r="J13">
-        <v>53.18463795610807</v>
+        <v>53.18463795610822</v>
       </c>
       <c r="K13">
-        <v>41.50077182948515</v>
+        <v>41.50077182948524</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,34 +868,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.48502741788203</v>
+        <v>19.48502741788204</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.097472948566105</v>
+        <v>4.09747294856612</v>
       </c>
       <c r="E14">
-        <v>5.206713647851899</v>
+        <v>5.206713647851802</v>
       </c>
       <c r="F14">
-        <v>48.67007764337247</v>
+        <v>48.67007764337254</v>
       </c>
       <c r="G14">
-        <v>37.81994456999927</v>
+        <v>37.81994456999934</v>
       </c>
       <c r="H14">
-        <v>6.719913268597627</v>
+        <v>6.719913268597464</v>
       </c>
       <c r="I14">
-        <v>4.082239414591336</v>
+        <v>4.082239414591236</v>
       </c>
       <c r="J14">
-        <v>52.66606169672615</v>
+        <v>52.66606169672619</v>
       </c>
       <c r="K14">
-        <v>41.08049420910048</v>
+        <v>41.08049420910051</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,34 +906,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.37331049302078</v>
+        <v>19.37331049302079</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.064585852914488</v>
+        <v>4.064585852914427</v>
       </c>
       <c r="E15">
-        <v>5.207474257276056</v>
+        <v>5.207474257275993</v>
       </c>
       <c r="F15">
-        <v>48.32231187592105</v>
+        <v>48.32231187592099</v>
       </c>
       <c r="G15">
-        <v>37.54396655721649</v>
+        <v>37.54396655721641</v>
       </c>
       <c r="H15">
-        <v>6.816993330534732</v>
+        <v>6.816993330534743</v>
       </c>
       <c r="I15">
-        <v>4.100279782261765</v>
+        <v>4.100279782261833</v>
       </c>
       <c r="J15">
-        <v>52.34734446213739</v>
+        <v>52.34734446213737</v>
       </c>
       <c r="K15">
-        <v>40.82236842856705</v>
+        <v>40.822368428567</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,34 +944,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.72464369763188</v>
+        <v>18.72464369763192</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.877719166153914</v>
+        <v>3.877719166154044</v>
       </c>
       <c r="E16">
-        <v>5.213257969749206</v>
+        <v>5.213257969749305</v>
       </c>
       <c r="F16">
-        <v>46.33285765429963</v>
+        <v>46.33285765429972</v>
       </c>
       <c r="G16">
-        <v>35.96478801614437</v>
+        <v>35.96478801614447</v>
       </c>
       <c r="H16">
-        <v>7.372813109923679</v>
+        <v>7.372813109923587</v>
       </c>
       <c r="I16">
-        <v>4.203765716331667</v>
+        <v>4.203765716331666</v>
       </c>
       <c r="J16">
-        <v>50.50348578423349</v>
+        <v>50.50348578423363</v>
       </c>
       <c r="K16">
-        <v>39.33162298745075</v>
+        <v>39.33162298745083</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,34 +982,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.31895992882597</v>
+        <v>18.31895992882606</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.764250982816914</v>
+        <v>3.7642509828169</v>
       </c>
       <c r="E17">
-        <v>5.217993400004402</v>
+        <v>5.217993400004269</v>
       </c>
       <c r="F17">
-        <v>45.11386388139514</v>
+        <v>45.1138638813952</v>
       </c>
       <c r="G17">
-        <v>34.99676604046766</v>
+        <v>34.99676604046771</v>
       </c>
       <c r="H17">
-        <v>7.713408220323243</v>
+        <v>7.71340822032308</v>
       </c>
       <c r="I17">
-        <v>4.267391912635044</v>
+        <v>4.267391912634977</v>
       </c>
       <c r="J17">
-        <v>49.35583347133663</v>
+        <v>49.35583347133667</v>
       </c>
       <c r="K17">
-        <v>38.40590164390737</v>
+        <v>38.40590164390741</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,34 +1020,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.08270103378264</v>
+        <v>18.08270103378262</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.699323248210179</v>
+        <v>3.699323248210076</v>
       </c>
       <c r="E18">
-        <v>5.221123405785815</v>
+        <v>5.221123405785722</v>
       </c>
       <c r="F18">
-        <v>44.41269471472926</v>
+        <v>44.4126947147293</v>
       </c>
       <c r="G18">
-        <v>34.43978041016653</v>
+        <v>34.43978041016656</v>
       </c>
       <c r="H18">
-        <v>7.909216385795379</v>
+        <v>7.909216385795356</v>
       </c>
       <c r="I18">
-        <v>4.304058063727892</v>
+        <v>4.304058063727894</v>
       </c>
       <c r="J18">
-        <v>48.68931539763742</v>
+        <v>48.68931539763749</v>
       </c>
       <c r="K18">
-        <v>37.86900241780511</v>
+        <v>37.8690024178052</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,34 +1058,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.00219974915511</v>
+        <v>18.00219974915509</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.6773894061352</v>
+        <v>3.677389406135209</v>
       </c>
       <c r="E19">
         <v>5.222250387565241</v>
       </c>
       <c r="F19">
-        <v>44.17523508220374</v>
+        <v>44.17523508220385</v>
       </c>
       <c r="G19">
-        <v>34.25111782129029</v>
+        <v>34.25111782129037</v>
       </c>
       <c r="H19">
-        <v>7.975503481189024</v>
+        <v>7.975503481189017</v>
       </c>
       <c r="I19">
-        <v>4.316486278129804</v>
+        <v>4.316486278129839</v>
       </c>
       <c r="J19">
-        <v>48.46251021445522</v>
+        <v>48.46251021445526</v>
       </c>
       <c r="K19">
-        <v>37.68642402196793</v>
+        <v>37.68642402196799</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,34 +1096,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.36244632742589</v>
+        <v>18.3624463274259</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.776293092420027</v>
+        <v>3.776293092419962</v>
       </c>
       <c r="E20">
-        <v>5.217446626836209</v>
+        <v>5.217446626836082</v>
       </c>
       <c r="F20">
-        <v>45.24361950010343</v>
+        <v>45.24361950010346</v>
       </c>
       <c r="G20">
-        <v>35.09982471281729</v>
+        <v>35.09982471281727</v>
       </c>
       <c r="H20">
-        <v>7.677162244934023</v>
+        <v>7.677162244934048</v>
       </c>
       <c r="I20">
-        <v>4.260611944052605</v>
+        <v>4.26061194405257</v>
       </c>
       <c r="J20">
-        <v>49.47865979293067</v>
+        <v>49.47865979293065</v>
       </c>
       <c r="K20">
-        <v>38.5048995617732</v>
+        <v>38.50489956177319</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,34 +1134,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.53845196027145</v>
+        <v>19.53845196027143</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.113275307479148</v>
+        <v>4.113275307479081</v>
       </c>
       <c r="E21">
-        <v>5.206375422465189</v>
+        <v>5.206375422465214</v>
       </c>
       <c r="F21">
-        <v>48.83692643956095</v>
+        <v>48.83692643956081</v>
       </c>
       <c r="G21">
-        <v>37.95234529280273</v>
+        <v>37.95234529280261</v>
       </c>
       <c r="H21">
-        <v>6.67335160898848</v>
+        <v>6.673351608988569</v>
       </c>
       <c r="I21">
-        <v>4.073589698892645</v>
+        <v>4.073589698892678</v>
       </c>
       <c r="J21">
-        <v>52.81860160912741</v>
+        <v>52.8186016091273</v>
       </c>
       <c r="K21">
-        <v>41.20408222414584</v>
+        <v>41.20408222414571</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,34 +1172,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.28268993447405</v>
+        <v>20.28268993447403</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.338658430382876</v>
+        <v>4.338658430382925</v>
       </c>
       <c r="E22">
-        <v>5.203467610138562</v>
+        <v>5.203467610138427</v>
       </c>
       <c r="F22">
-        <v>51.19855600188868</v>
+        <v>51.1985560018886</v>
       </c>
       <c r="G22">
-        <v>39.82603764150677</v>
+        <v>39.82603764150672</v>
       </c>
       <c r="H22">
-        <v>6.015949267549097</v>
+        <v>6.01594926754909</v>
       </c>
       <c r="I22">
-        <v>3.951577978870931</v>
+        <v>3.951577978870763</v>
       </c>
       <c r="J22">
-        <v>54.95238187915654</v>
+        <v>54.95238187915648</v>
       </c>
       <c r="K22">
-        <v>42.93618295932472</v>
+        <v>42.93618295932469</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,34 +1210,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.88761485114902</v>
+        <v>19.887614851149</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.21777694379609</v>
+        <v>4.217776943796156</v>
       </c>
       <c r="E23">
-        <v>5.204582730235989</v>
+        <v>5.204582730236051</v>
       </c>
       <c r="F23">
-        <v>49.93613749981801</v>
+        <v>49.93613749981795</v>
       </c>
       <c r="G23">
-        <v>38.82452062920529</v>
+        <v>38.82452062920528</v>
       </c>
       <c r="H23">
-        <v>6.366916381088841</v>
+        <v>6.366916381088918</v>
       </c>
       <c r="I23">
-        <v>4.016699134333185</v>
+        <v>4.016699134333219</v>
       </c>
       <c r="J23">
-        <v>53.8175886387227</v>
+        <v>53.81758863872269</v>
       </c>
       <c r="K23">
-        <v>42.01423431658933</v>
+        <v>42.01423431658936</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1254,28 +1254,28 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.770847921470096</v>
+        <v>3.770847921470143</v>
       </c>
       <c r="E24">
-        <v>5.217692560616351</v>
+        <v>5.217692560616316</v>
       </c>
       <c r="F24">
-        <v>45.18495822125938</v>
+        <v>45.1849582212594</v>
       </c>
       <c r="G24">
-        <v>35.05323342336133</v>
+        <v>35.05323342336138</v>
       </c>
       <c r="H24">
-        <v>7.693549052710619</v>
+        <v>7.693549052710566</v>
       </c>
       <c r="I24">
-        <v>4.263676893800272</v>
+        <v>4.263676893800239</v>
       </c>
       <c r="J24">
-        <v>49.42315101939808</v>
+        <v>49.42315101939816</v>
       </c>
       <c r="K24">
-        <v>38.46015728889704</v>
+        <v>38.46015728889709</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.56416746776424</v>
+        <v>16.56416746776426</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.300901373704582</v>
+        <v>3.300901373704476</v>
       </c>
       <c r="E25">
-        <v>5.247177077991693</v>
+        <v>5.24717707799169</v>
       </c>
       <c r="F25">
         <v>40.05493247521601</v>
@@ -1304,16 +1304,16 @@
         <v>30.97417537785422</v>
       </c>
       <c r="H25">
-        <v>9.122376505454071</v>
+        <v>9.12237650545408</v>
       </c>
       <c r="I25">
-        <v>4.532938242268767</v>
+        <v>4.532938242268799</v>
       </c>
       <c r="J25">
-        <v>44.43476097548283</v>
+        <v>44.43476097548289</v>
       </c>
       <c r="K25">
-        <v>34.45370526705577</v>
+        <v>34.45370526705583</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_3/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_3/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.15077313628307</v>
+        <v>15.15229001285598</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.956796747008016</v>
+        <v>2.951020568562408</v>
       </c>
       <c r="E2">
-        <v>5.27952986819654</v>
+        <v>5.275807167191758</v>
       </c>
       <c r="F2">
-        <v>36.27274663777072</v>
+        <v>36.24352899695094</v>
       </c>
       <c r="G2">
-        <v>27.91942251778094</v>
+        <v>27.96185960602423</v>
       </c>
       <c r="H2">
-        <v>10.18099933010538</v>
+        <v>27.95300869611356</v>
       </c>
       <c r="I2">
-        <v>4.73551637140883</v>
+        <v>10.18337788041545</v>
       </c>
       <c r="J2">
-        <v>40.51481888882903</v>
+        <v>4.734531895897575</v>
       </c>
       <c r="K2">
-        <v>31.32357261434191</v>
+        <v>40.50401550012417</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>31.31568667005351</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.12520748140122</v>
+        <v>14.12669143414529</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.721576559814219</v>
+        <v>2.71644030033774</v>
       </c>
       <c r="E3">
-        <v>5.307216974255092</v>
+        <v>5.304204113230621</v>
       </c>
       <c r="F3">
-        <v>33.88566552775346</v>
+        <v>33.85891233373142</v>
       </c>
       <c r="G3">
-        <v>26.14215141831857</v>
+        <v>25.87233090127363</v>
       </c>
       <c r="H3">
-        <v>10.90731211547766</v>
+        <v>26.1817719720786</v>
       </c>
       <c r="I3">
-        <v>4.876296795555664</v>
+        <v>10.90896659021185</v>
       </c>
       <c r="J3">
-        <v>37.69102066499691</v>
+        <v>4.875504580954789</v>
       </c>
       <c r="K3">
-        <v>29.07742063144614</v>
+        <v>37.68137604253393</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>29.07040429009446</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.46128533792288</v>
+        <v>13.46274144498391</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.575305836916868</v>
+        <v>2.570574771839735</v>
       </c>
       <c r="E4">
-        <v>5.326842001030436</v>
+        <v>5.324270528061565</v>
       </c>
       <c r="F4">
-        <v>32.41557041371674</v>
+        <v>32.39032611391522</v>
       </c>
       <c r="G4">
-        <v>25.0605960644183</v>
+        <v>24.61590223424043</v>
       </c>
       <c r="H4">
-        <v>11.35915008661971</v>
+        <v>25.0986715761437</v>
       </c>
       <c r="I4">
-        <v>4.964689618770316</v>
+        <v>11.36038945880406</v>
       </c>
       <c r="J4">
-        <v>35.87111022314296</v>
+        <v>4.96401798625396</v>
       </c>
       <c r="K4">
-        <v>27.63326345893578</v>
+        <v>35.8621753653596</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>27.62677292198573</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.18201757601116</v>
+        <v>13.18346057959631</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.515127381594542</v>
+        <v>2.510564967043875</v>
       </c>
       <c r="E5">
-        <v>5.335472831977453</v>
+        <v>5.333082849900591</v>
       </c>
       <c r="F5">
-        <v>31.81548188589619</v>
+        <v>31.79085290267375</v>
       </c>
       <c r="G5">
-        <v>24.62105740489448</v>
+        <v>24.09986990270298</v>
       </c>
       <c r="H5">
-        <v>11.54496379898374</v>
+        <v>24.65850271038933</v>
       </c>
       <c r="I5">
-        <v>5.001232670982962</v>
+        <v>11.54603967549815</v>
       </c>
       <c r="J5">
-        <v>35.10736406417128</v>
+        <v>5.000610864148747</v>
       </c>
       <c r="K5">
-        <v>27.02795686477516</v>
+        <v>35.09871930376933</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>27.02167958741393</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.13511609016826</v>
+        <v>13.13655681618742</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.505097364383952</v>
+        <v>2.500563179557078</v>
       </c>
       <c r="E6">
-        <v>5.336943538962547</v>
+        <v>5.334583797261294</v>
       </c>
       <c r="F6">
-        <v>31.71578363455152</v>
+        <v>31.69125688595367</v>
       </c>
       <c r="G6">
-        <v>24.54815062115808</v>
+        <v>24.01394156631924</v>
       </c>
       <c r="H6">
-        <v>11.57592567445984</v>
+        <v>24.58549128828666</v>
       </c>
       <c r="I6">
-        <v>5.007333025382799</v>
+        <v>11.5769747005024</v>
       </c>
       <c r="J6">
-        <v>34.97919592743516</v>
+        <v>5.006719534976041</v>
       </c>
       <c r="K6">
-        <v>26.92641900346116</v>
+        <v>34.97059942469451</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>26.9201771041755</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.45755445465678</v>
+        <v>13.45901039191221</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.574496697400472</v>
+        <v>2.569767891952447</v>
       </c>
       <c r="E7">
-        <v>5.326955866512706</v>
+        <v>5.324386834351764</v>
       </c>
       <c r="F7">
-        <v>32.40748121832467</v>
+        <v>32.38224521348037</v>
       </c>
       <c r="G7">
-        <v>25.05466318839825</v>
+        <v>24.60895909931648</v>
       </c>
       <c r="H7">
-        <v>11.36164894362385</v>
+        <v>25.0927302014219</v>
       </c>
       <c r="I7">
-        <v>4.965180297095106</v>
+        <v>11.3628860899621</v>
       </c>
       <c r="J7">
-        <v>35.86090021597025</v>
+        <v>4.964509333698395</v>
       </c>
       <c r="K7">
-        <v>27.62516867663533</v>
+        <v>35.85196926544478</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>27.61868101860764</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.80419134268701</v>
+        <v>14.80569855654669</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.87600579203765</v>
+        <v>2.870447988638936</v>
       </c>
       <c r="E8">
-        <v>5.28851406749847</v>
+        <v>5.285035117789329</v>
       </c>
       <c r="F8">
-        <v>35.4505849992208</v>
+        <v>35.42221903914783</v>
       </c>
       <c r="G8">
-        <v>27.30009851722617</v>
+        <v>27.23638225738707</v>
       </c>
       <c r="H8">
-        <v>10.43034108562831</v>
+        <v>27.34136181225687</v>
       </c>
       <c r="I8">
-        <v>4.783671641284567</v>
+        <v>10.43246266877307</v>
       </c>
       <c r="J8">
-        <v>39.55874053072615</v>
+        <v>4.782752963606912</v>
       </c>
       <c r="K8">
-        <v>30.56230490222661</v>
+        <v>39.54833787360491</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>30.55472115982371</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.17899112127321</v>
+        <v>17.18052940879657</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.458413967304921</v>
+        <v>3.451305128539537</v>
       </c>
       <c r="E9">
-        <v>5.235451426489893</v>
+        <v>5.230219419055834</v>
       </c>
       <c r="F9">
-        <v>41.78866198405301</v>
+        <v>41.75299148301476</v>
       </c>
       <c r="G9">
-        <v>32.35390348512781</v>
+        <v>32.40225134506468</v>
       </c>
       <c r="H9">
-        <v>8.640686382024827</v>
+        <v>32.16767645015567</v>
       </c>
       <c r="I9">
-        <v>4.441680695206195</v>
+        <v>8.644883630370137</v>
       </c>
       <c r="J9">
-        <v>46.15150848256452</v>
+        <v>4.440293766597132</v>
       </c>
       <c r="K9">
-        <v>35.82941697324091</v>
+        <v>46.13813708949586</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>35.81956230575042</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.77054447344941</v>
+        <v>18.77204722504339</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.890718742305269</v>
+        <v>3.882477259102272</v>
       </c>
       <c r="E10">
-        <v>5.212774756760953</v>
+        <v>5.206250898933182</v>
       </c>
       <c r="F10">
-        <v>46.47198843795384</v>
+        <v>46.43144066843888</v>
       </c>
       <c r="G10">
-        <v>36.07525175880084</v>
+        <v>36.12835512842125</v>
       </c>
       <c r="H10">
-        <v>7.33393226776914</v>
+        <v>35.78467802608066</v>
       </c>
       <c r="I10">
-        <v>4.19651371977701</v>
+        <v>7.340082804888899</v>
       </c>
       <c r="J10">
-        <v>50.63359590715771</v>
+        <v>4.194789266060262</v>
       </c>
       <c r="K10">
-        <v>39.43667481753209</v>
+        <v>50.61787256387004</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>39.42497592456383</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.46369588914119</v>
+        <v>19.46516473857398</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.09117698727681</v>
+        <v>4.082410183568626</v>
       </c>
       <c r="E11">
-        <v>5.20685332826001</v>
+        <v>5.199733642547018</v>
       </c>
       <c r="F11">
-        <v>48.60355596293065</v>
+        <v>48.56066755199816</v>
       </c>
       <c r="G11">
-        <v>37.76715604263888</v>
+        <v>37.8223362736619</v>
       </c>
       <c r="H11">
-        <v>6.738479954726634</v>
+        <v>37.43578325787888</v>
       </c>
       <c r="I11">
-        <v>4.085689023192916</v>
+        <v>6.745695186881205</v>
       </c>
       <c r="J11">
-        <v>52.60517775137497</v>
+        <v>4.083811288197746</v>
       </c>
       <c r="K11">
-        <v>41.03117457772944</v>
+        <v>52.58831027309244</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>41.01856656464072</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.72197543924626</v>
+        <v>19.7234283093634</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.167935474954279</v>
+        <v>4.158966990370213</v>
       </c>
       <c r="E12">
-        <v>5.205341646615351</v>
+        <v>5.197994312380256</v>
       </c>
       <c r="F12">
-        <v>49.41277970937729</v>
+        <v>49.36898001901086</v>
       </c>
       <c r="G12">
-        <v>38.40927767368825</v>
+        <v>38.46522957382909</v>
       </c>
       <c r="H12">
-        <v>6.512740291042264</v>
+        <v>38.06333754183053</v>
       </c>
       <c r="I12">
-        <v>4.043765105417139</v>
+        <v>6.520395306917432</v>
       </c>
       <c r="J12">
-        <v>53.34323210711008</v>
+        <v>4.041829246578243</v>
       </c>
       <c r="K12">
-        <v>41.62937565199339</v>
+        <v>53.32591644149718</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>41.6164095765958</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.66653299660227</v>
+        <v>19.66798945927023</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.151360807842805</v>
+        <v>4.142435906212</v>
       </c>
       <c r="E13">
-        <v>5.205632827902384</v>
+        <v>5.198334628169564</v>
       </c>
       <c r="F13">
-        <v>49.23837229913367</v>
+        <v>49.19477012114579</v>
       </c>
       <c r="G13">
-        <v>38.27089205602984</v>
+        <v>38.32667846875945</v>
       </c>
       <c r="H13">
-        <v>6.561368311531708</v>
+        <v>37.92805115491709</v>
       </c>
       <c r="I13">
-        <v>4.052793263228478</v>
+        <v>6.568926747133036</v>
       </c>
       <c r="J13">
-        <v>53.18463795610822</v>
+        <v>4.050869928060749</v>
       </c>
       <c r="K13">
-        <v>41.50077182948524</v>
+        <v>53.16741956126286</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>41.48788355434077</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.48502741788204</v>
+        <v>19.48649501968445</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.09747294856612</v>
+        <v>4.088689616464046</v>
       </c>
       <c r="E14">
-        <v>5.206713647851802</v>
+        <v>5.199575279684635</v>
       </c>
       <c r="F14">
-        <v>48.67007764337254</v>
+        <v>48.62711481130854</v>
       </c>
       <c r="G14">
-        <v>37.81994456999934</v>
+        <v>37.87518859996297</v>
       </c>
       <c r="H14">
-        <v>6.719913268597464</v>
+        <v>37.48735604709502</v>
       </c>
       <c r="I14">
-        <v>4.082239414591236</v>
+        <v>6.72716386505095</v>
       </c>
       <c r="J14">
-        <v>52.66606169672619</v>
+        <v>4.080356900062844</v>
       </c>
       <c r="K14">
-        <v>41.08049420910051</v>
+        <v>52.64915767392952</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>41.06785703986048</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.37331049302079</v>
+        <v>19.37478448814059</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.064585852914427</v>
+        <v>4.055888832536729</v>
       </c>
       <c r="E15">
-        <v>5.207474257275993</v>
+        <v>5.200433497625274</v>
       </c>
       <c r="F15">
-        <v>48.32231187592099</v>
+        <v>48.2797371560585</v>
       </c>
       <c r="G15">
-        <v>37.54396655721641</v>
+        <v>37.59887635011921</v>
       </c>
       <c r="H15">
-        <v>6.816993330534743</v>
+        <v>37.21777068753753</v>
       </c>
       <c r="I15">
-        <v>4.100279782261833</v>
+        <v>6.824060556438893</v>
       </c>
       <c r="J15">
-        <v>52.34734446213737</v>
+        <v>4.098422257315185</v>
       </c>
       <c r="K15">
-        <v>40.822368428567</v>
+        <v>52.3306309093522</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>40.80988314273753</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.72464369763192</v>
+        <v>18.72614826134003</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.877719166154044</v>
+        <v>3.869511707752883</v>
       </c>
       <c r="E16">
-        <v>5.213257969749305</v>
+        <v>5.206772819717214</v>
       </c>
       <c r="F16">
-        <v>46.33285765429972</v>
+        <v>46.292459815745</v>
       </c>
       <c r="G16">
-        <v>35.96478801614447</v>
+        <v>36.0177537355608</v>
       </c>
       <c r="H16">
-        <v>7.372813109923587</v>
+        <v>35.67700805167534</v>
       </c>
       <c r="I16">
-        <v>4.203765716331666</v>
+        <v>7.378898465443459</v>
       </c>
       <c r="J16">
-        <v>50.50348578423363</v>
+        <v>4.202051275666097</v>
       </c>
       <c r="K16">
-        <v>39.33162298745083</v>
+        <v>50.48783538296033</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>39.31998180307</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.31895992882606</v>
+        <v>18.32047833465571</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.7642509828169</v>
+        <v>3.756340454277703</v>
       </c>
       <c r="E17">
-        <v>5.217993400004269</v>
+        <v>5.211846481515127</v>
       </c>
       <c r="F17">
-        <v>45.1138638813952</v>
+        <v>45.07476566709492</v>
       </c>
       <c r="G17">
-        <v>34.99676604046771</v>
+        <v>35.04851556177346</v>
       </c>
       <c r="H17">
-        <v>7.71340822032308</v>
+        <v>34.73420379602841</v>
       </c>
       <c r="I17">
-        <v>4.267391912634977</v>
+        <v>7.718942926658853</v>
       </c>
       <c r="J17">
-        <v>49.35583347133667</v>
+        <v>4.26576523997503</v>
       </c>
       <c r="K17">
-        <v>38.40590164390741</v>
+        <v>49.34081360604405</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>38.39475800287648</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.08270103378262</v>
+        <v>18.08422577566394</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.699323248210076</v>
+        <v>3.691582653182479</v>
       </c>
       <c r="E18">
-        <v>5.221123405785722</v>
+        <v>5.215170324354781</v>
       </c>
       <c r="F18">
-        <v>44.4126947147293</v>
+        <v>44.37433308416804</v>
       </c>
       <c r="G18">
-        <v>34.43978041016656</v>
+        <v>34.49082244882411</v>
       </c>
       <c r="H18">
-        <v>7.909216385795356</v>
+        <v>34.19235439815069</v>
       </c>
       <c r="I18">
-        <v>4.304058063727894</v>
+        <v>7.914450058232761</v>
       </c>
       <c r="J18">
-        <v>48.68931539763749</v>
+        <v>4.302481905603116</v>
       </c>
       <c r="K18">
-        <v>37.8690024178052</v>
+        <v>48.67465152790366</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>37.85813862042031</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.00219974915509</v>
+        <v>18.0037263723867</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.677389406135209</v>
+        <v>3.669706235332345</v>
       </c>
       <c r="E19">
-        <v>5.222250387565241</v>
+        <v>5.216362836854257</v>
       </c>
       <c r="F19">
-        <v>44.17523508220385</v>
+        <v>44.1371211599389</v>
       </c>
       <c r="G19">
-        <v>34.25111782129037</v>
+        <v>34.30191901067374</v>
       </c>
       <c r="H19">
-        <v>7.975503481189017</v>
+        <v>34.00892764009667</v>
       </c>
       <c r="I19">
-        <v>4.316486278129839</v>
+        <v>7.980637654259678</v>
       </c>
       <c r="J19">
-        <v>48.46251021445526</v>
+        <v>4.314927232178078</v>
       </c>
       <c r="K19">
-        <v>37.68642402196799</v>
+        <v>48.44796584340695</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>37.67565398362032</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.3624463274259</v>
+        <v>18.36396343170682</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.776293092419962</v>
+        <v>3.768351051752911</v>
       </c>
       <c r="E20">
-        <v>5.217446626836082</v>
+        <v>5.211263781307088</v>
       </c>
       <c r="F20">
-        <v>45.24361950010346</v>
+        <v>45.20438411585418</v>
       </c>
       <c r="G20">
-        <v>35.09982471281727</v>
+        <v>35.15170453852609</v>
       </c>
       <c r="H20">
-        <v>7.677162244934048</v>
+        <v>34.83451320512648</v>
       </c>
       <c r="I20">
-        <v>4.26061194405257</v>
+        <v>7.682753879119828</v>
       </c>
       <c r="J20">
-        <v>49.47865979293065</v>
+        <v>4.258975925729538</v>
       </c>
       <c r="K20">
-        <v>38.50489956177319</v>
+        <v>49.4635735235317</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>38.49370363498429</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.53845196027143</v>
+        <v>19.53991638111884</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.113275307479081</v>
+        <v>4.104450479992218</v>
       </c>
       <c r="E21">
-        <v>5.206375422465214</v>
+        <v>5.199190170846306</v>
       </c>
       <c r="F21">
-        <v>48.83692643956081</v>
+        <v>48.79377656331965</v>
       </c>
       <c r="G21">
-        <v>37.95234529280261</v>
+        <v>38.00774905857906</v>
       </c>
       <c r="H21">
-        <v>6.673351608988569</v>
+        <v>37.61672202138048</v>
       </c>
       <c r="I21">
-        <v>4.073589698892678</v>
+        <v>6.680691515783304</v>
       </c>
       <c r="J21">
-        <v>52.8186016091273</v>
+        <v>4.071695197563944</v>
       </c>
       <c r="K21">
-        <v>41.20408222414571</v>
+        <v>52.80160569307125</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>41.19137170872664</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.28268993447403</v>
+        <v>20.28410119202842</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.338658430382925</v>
+        <v>4.329239690855513</v>
       </c>
       <c r="E22">
-        <v>5.203467610138427</v>
+        <v>5.195614837418315</v>
       </c>
       <c r="F22">
-        <v>51.1985560018886</v>
+        <v>51.15269715741307</v>
       </c>
       <c r="G22">
-        <v>39.82603764150672</v>
+        <v>39.88365642735893</v>
       </c>
       <c r="H22">
-        <v>6.01594926754909</v>
+        <v>39.44957433611756</v>
       </c>
       <c r="I22">
-        <v>3.951577978870763</v>
+        <v>6.02465473436866</v>
       </c>
       <c r="J22">
-        <v>54.95238187915648</v>
+        <v>3.949514007058187</v>
       </c>
       <c r="K22">
-        <v>42.93618295932469</v>
+        <v>54.93404788496215</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>42.92239951031775</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.887614851149</v>
+        <v>19.88905644386845</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.217776943796156</v>
+        <v>4.208677276304021</v>
       </c>
       <c r="E23">
-        <v>5.204582730236051</v>
+        <v>5.197087715420546</v>
       </c>
       <c r="F23">
-        <v>49.93613749981795</v>
+        <v>49.8917413686765</v>
       </c>
       <c r="G23">
-        <v>38.82452062920528</v>
+        <v>38.88096631919702</v>
       </c>
       <c r="H23">
-        <v>6.366916381088918</v>
+        <v>38.4694099405522</v>
       </c>
       <c r="I23">
-        <v>4.016699134333219</v>
+        <v>6.374867383468478</v>
       </c>
       <c r="J23">
-        <v>53.81758863872269</v>
+        <v>4.014725706571476</v>
       </c>
       <c r="K23">
-        <v>42.01423431658936</v>
+        <v>53.79997880416347</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>42.00103265873568</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.34279556877792</v>
+        <v>18.34431326649907</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.770847921470143</v>
+        <v>3.762920129758438</v>
       </c>
       <c r="E24">
-        <v>5.217692560616316</v>
+        <v>5.211525959562921</v>
       </c>
       <c r="F24">
-        <v>45.1849582212594</v>
+        <v>45.14578488399739</v>
       </c>
       <c r="G24">
-        <v>35.05323342336138</v>
+        <v>35.10505436405725</v>
       </c>
       <c r="H24">
-        <v>7.693549052710566</v>
+        <v>34.78916286376224</v>
       </c>
       <c r="I24">
-        <v>4.263676893800239</v>
+        <v>7.699114902178354</v>
       </c>
       <c r="J24">
-        <v>49.42315101939816</v>
+        <v>4.262045100469971</v>
       </c>
       <c r="K24">
-        <v>38.46015728889709</v>
+        <v>49.4080947912635</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>38.44898501954943</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.56416746776426</v>
+        <v>16.56570621090377</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.300901373704476</v>
+        <v>3.294207672469546</v>
       </c>
       <c r="E25">
-        <v>5.24717707799169</v>
+        <v>5.242418006661584</v>
       </c>
       <c r="F25">
-        <v>40.05493247521601</v>
+        <v>40.0209884008497</v>
       </c>
       <c r="G25">
-        <v>30.97417537785422</v>
+        <v>31.0207072612698</v>
       </c>
       <c r="H25">
-        <v>9.12237650545408</v>
+        <v>30.83285036686568</v>
       </c>
       <c r="I25">
-        <v>4.532938242268799</v>
+        <v>9.125957575169908</v>
       </c>
       <c r="J25">
-        <v>44.43476097548289</v>
+        <v>4.531676507467559</v>
       </c>
       <c r="K25">
-        <v>34.45370526705583</v>
+        <v>44.4222124117602</v>
       </c>
       <c r="L25">
+        <v>34.44448701999947</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_3/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_3/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.15229001285598</v>
+        <v>18.70497057419906</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.951020568562408</v>
+        <v>8.629831570695957</v>
       </c>
       <c r="E2">
-        <v>5.275807167191758</v>
+        <v>13.29547155869687</v>
       </c>
       <c r="F2">
-        <v>36.24352899695094</v>
+        <v>47.17363395061746</v>
       </c>
       <c r="G2">
-        <v>27.96185960602423</v>
+        <v>2.106253435147979</v>
       </c>
       <c r="H2">
-        <v>27.95300869611356</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>10.18337788041545</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>4.734531895897575</v>
+        <v>8.053725215378936</v>
       </c>
       <c r="K2">
-        <v>40.50401550012417</v>
+        <v>29.1273393620968</v>
       </c>
       <c r="L2">
-        <v>31.31568667005351</v>
+        <v>11.56266186977709</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>15.69227770585947</v>
+      </c>
+      <c r="N2">
+        <v>15.61171714336457</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.12669143414529</v>
+        <v>17.80647747677379</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.71644030033774</v>
+        <v>7.97736297277675</v>
       </c>
       <c r="E3">
-        <v>5.304204113230621</v>
+        <v>12.44551226080873</v>
       </c>
       <c r="F3">
-        <v>33.85891233373142</v>
+        <v>45.51807473694326</v>
       </c>
       <c r="G3">
-        <v>25.87233090127363</v>
+        <v>2.122053947971913</v>
       </c>
       <c r="H3">
-        <v>26.1817719720786</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>10.90896659021185</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>4.875504580954789</v>
+        <v>7.769033752571741</v>
       </c>
       <c r="K3">
-        <v>37.68137604253393</v>
+        <v>27.24185769649064</v>
       </c>
       <c r="L3">
-        <v>29.07040429009446</v>
+        <v>11.01553441276628</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>15.08545035652964</v>
+      </c>
+      <c r="N3">
+        <v>15.8722375422952</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.46274144498391</v>
+        <v>17.24883800354326</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.570574771839735</v>
+        <v>7.560909287619086</v>
       </c>
       <c r="E4">
-        <v>5.324270528061565</v>
+        <v>11.90480995731285</v>
       </c>
       <c r="F4">
-        <v>32.39032611391522</v>
+        <v>44.52936099437549</v>
       </c>
       <c r="G4">
-        <v>24.61590223424043</v>
+        <v>2.131914081739652</v>
       </c>
       <c r="H4">
-        <v>25.0986715761437</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>11.36038945880406</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>4.96401798625396</v>
+        <v>7.591502536951572</v>
       </c>
       <c r="K4">
-        <v>35.8621753653596</v>
+        <v>26.04977254792768</v>
       </c>
       <c r="L4">
-        <v>27.62677292198573</v>
+        <v>10.67797606230289</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>14.71489263664098</v>
+      </c>
+      <c r="N4">
+        <v>16.03564790551238</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.18346057959631</v>
+        <v>17.02030284660659</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.510564967043875</v>
+        <v>7.387048879999229</v>
       </c>
       <c r="E5">
-        <v>5.333082849900591</v>
+        <v>11.67960802308653</v>
       </c>
       <c r="F5">
-        <v>31.79085290267375</v>
+        <v>44.13342943393118</v>
       </c>
       <c r="G5">
-        <v>24.09986990270298</v>
+        <v>2.135977853317164</v>
       </c>
       <c r="H5">
-        <v>24.65850271038933</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>11.54603967549815</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>5.000610864148747</v>
+        <v>7.518444759233561</v>
       </c>
       <c r="K5">
-        <v>35.09871930376933</v>
+        <v>25.55544614450765</v>
       </c>
       <c r="L5">
-        <v>27.02167958741393</v>
+        <v>10.54010601695276</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>14.56450950076112</v>
+      </c>
+      <c r="N5">
+        <v>16.10313211422547</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.13655681618742</v>
+        <v>16.98228378711453</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.500563179557078</v>
+        <v>7.357924039857357</v>
       </c>
       <c r="E6">
-        <v>5.334583797261294</v>
+        <v>11.64191674906566</v>
       </c>
       <c r="F6">
-        <v>31.69125688595367</v>
+        <v>44.06810724200488</v>
       </c>
       <c r="G6">
-        <v>24.01394156631924</v>
+        <v>2.13665555769488</v>
       </c>
       <c r="H6">
-        <v>24.58549128828666</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>11.5769747005024</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>5.006719534976041</v>
+        <v>7.506270014628303</v>
       </c>
       <c r="K6">
-        <v>34.97059942469451</v>
+        <v>25.47285329809402</v>
       </c>
       <c r="L6">
-        <v>26.9201771041755</v>
+        <v>10.51719737547343</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>14.53957979830767</v>
+      </c>
+      <c r="N6">
+        <v>16.11439251365222</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.45901039191221</v>
+        <v>17.24576081895963</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.569767891952447</v>
+        <v>7.558581570678802</v>
       </c>
       <c r="E7">
-        <v>5.324386834351764</v>
+        <v>11.90179263184108</v>
       </c>
       <c r="F7">
-        <v>32.38224521348037</v>
+        <v>44.52399305375691</v>
       </c>
       <c r="G7">
-        <v>24.60895909931648</v>
+        <v>2.131968694941462</v>
       </c>
       <c r="H7">
-        <v>25.0927302014219</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>11.3628860899621</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>4.964509333698395</v>
+        <v>7.590520164194563</v>
       </c>
       <c r="K7">
-        <v>35.85196926544478</v>
+        <v>26.04314024196115</v>
       </c>
       <c r="L7">
-        <v>27.61868101860764</v>
+        <v>10.6761178124621</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>14.71286183305381</v>
+      </c>
+      <c r="N7">
+        <v>16.03655437068688</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.80569855654669</v>
+        <v>18.39651368160016</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.870447988638936</v>
+        <v>8.408039153808792</v>
       </c>
       <c r="E8">
-        <v>5.285035117789329</v>
+        <v>13.00622400633684</v>
       </c>
       <c r="F8">
-        <v>35.42221903914783</v>
+        <v>46.59699787738279</v>
       </c>
       <c r="G8">
-        <v>27.23638225738707</v>
+        <v>2.111672244051234</v>
       </c>
       <c r="H8">
-        <v>27.34136181225687</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>10.43246266877307</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>4.782752963606912</v>
+        <v>7.95611044630262</v>
       </c>
       <c r="K8">
-        <v>39.54833787360491</v>
+        <v>28.48438722898415</v>
       </c>
       <c r="L8">
-        <v>30.55472115982371</v>
+        <v>11.3743944668609</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>15.48267787832615</v>
+      </c>
+      <c r="N8">
+        <v>15.70084398875988</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.18052940879657</v>
+        <v>20.59986950416388</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.451305128539537</v>
+        <v>9.956873870216592</v>
       </c>
       <c r="E9">
-        <v>5.230219419055834</v>
+        <v>15.03048013812023</v>
       </c>
       <c r="F9">
-        <v>41.75299148301476</v>
+        <v>50.88767744644501</v>
       </c>
       <c r="G9">
-        <v>32.40225134506468</v>
+        <v>2.072829111714691</v>
       </c>
       <c r="H9">
-        <v>32.16767645015567</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>8.644883630370137</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>4.440293766597132</v>
+        <v>8.653313858023996</v>
       </c>
       <c r="K9">
-        <v>46.13813708949586</v>
+        <v>33.38565282948915</v>
       </c>
       <c r="L9">
-        <v>35.81956230575042</v>
+        <v>12.72870804163581</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>17.00534698161846</v>
+      </c>
+      <c r="N9">
+        <v>15.06875010389995</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.77204722504339</v>
+        <v>22.18303114906071</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.882477259102272</v>
+        <v>11.03758316133927</v>
       </c>
       <c r="E10">
-        <v>5.206250898933182</v>
+        <v>16.44569616524752</v>
       </c>
       <c r="F10">
-        <v>46.43144066843888</v>
+        <v>54.19315656539477</v>
       </c>
       <c r="G10">
-        <v>36.12835512842125</v>
+        <v>2.044386049310598</v>
       </c>
       <c r="H10">
-        <v>35.78467802608066</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>7.340082804888899</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>4.194789266060262</v>
+        <v>9.15758909226069</v>
       </c>
       <c r="K10">
-        <v>50.61787256387004</v>
+        <v>36.81966577511282</v>
       </c>
       <c r="L10">
-        <v>39.42497592456383</v>
+        <v>13.80587037845102</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>18.13097854562719</v>
+      </c>
+      <c r="N10">
+        <v>14.61885584779008</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.46516473857398</v>
+        <v>22.89631675701849</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.082410183568626</v>
+        <v>11.52065128492717</v>
       </c>
       <c r="E11">
-        <v>5.199733642547018</v>
+        <v>17.07816434162012</v>
       </c>
       <c r="F11">
-        <v>48.56066755199816</v>
+        <v>55.73683535459176</v>
       </c>
       <c r="G11">
-        <v>37.8223362736619</v>
+        <v>2.031332522666795</v>
       </c>
       <c r="H11">
-        <v>37.43578325787888</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>6.745695186881205</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>4.083811288197746</v>
+        <v>9.386633864328802</v>
       </c>
       <c r="K11">
-        <v>52.58831027309244</v>
+        <v>38.34071252102329</v>
       </c>
       <c r="L11">
-        <v>41.01856656464072</v>
+        <v>14.38012471309891</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>18.64539130470959</v>
+      </c>
+      <c r="N11">
+        <v>14.4170697363351</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.7234283093634</v>
+        <v>23.16560007809831</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.158966990370213</v>
+        <v>11.7027413251782</v>
       </c>
       <c r="E12">
-        <v>5.197994312380256</v>
+        <v>17.31649377834358</v>
       </c>
       <c r="F12">
-        <v>49.36898001901086</v>
+        <v>56.32798542850493</v>
       </c>
       <c r="G12">
-        <v>38.46522957382909</v>
+        <v>2.02635917192722</v>
       </c>
       <c r="H12">
-        <v>38.06333754183053</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>6.520395306917432</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>4.041829246578243</v>
+        <v>9.473471817809996</v>
       </c>
       <c r="K12">
-        <v>53.32591644149718</v>
+        <v>38.91164876816947</v>
       </c>
       <c r="L12">
-        <v>41.6164095765958</v>
+        <v>14.5955962669796</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>18.84067697691544</v>
+      </c>
+      <c r="N12">
+        <v>14.34105702441549</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.66798945927023</v>
+        <v>23.10763796876449</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.142435906212</v>
+        <v>11.66355514931635</v>
       </c>
       <c r="E13">
-        <v>5.198334628169564</v>
+        <v>17.2652090861646</v>
       </c>
       <c r="F13">
-        <v>49.19477012114579</v>
+        <v>56.20036100657612</v>
       </c>
       <c r="G13">
-        <v>38.32667846875945</v>
+        <v>2.027431866291607</v>
       </c>
       <c r="H13">
-        <v>37.92805115491709</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>6.568926747133036</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>4.050869928060749</v>
+        <v>9.454762199816136</v>
       </c>
       <c r="K13">
-        <v>53.16741956126286</v>
+        <v>38.78889648720141</v>
       </c>
       <c r="L13">
-        <v>41.48788355434077</v>
+        <v>14.54927283895174</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>18.7985937687001</v>
+      </c>
+      <c r="N13">
+        <v>14.35741010487727</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.48649501968445</v>
+        <v>22.9184860357039</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.088689616464046</v>
+        <v>11.53564620561828</v>
       </c>
       <c r="E14">
-        <v>5.199575279684635</v>
+        <v>17.0977923817014</v>
       </c>
       <c r="F14">
-        <v>48.62711481130854</v>
+        <v>55.78533166851663</v>
       </c>
       <c r="G14">
-        <v>37.87518859996297</v>
+        <v>2.03092405710073</v>
       </c>
       <c r="H14">
-        <v>37.48735604709502</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>6.72716386505095</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>4.080356900062844</v>
+        <v>9.393774967069602</v>
       </c>
       <c r="K14">
-        <v>52.64915767392952</v>
+        <v>38.38777946825788</v>
       </c>
       <c r="L14">
-        <v>41.06785703986048</v>
+        <v>14.39788931620377</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>18.66144664916198</v>
+      </c>
+      <c r="N14">
+        <v>14.41080817563268</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.37478448814059</v>
+        <v>22.80252453346009</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.055888832536729</v>
+        <v>11.45720216446518</v>
       </c>
       <c r="E15">
-        <v>5.200433497625274</v>
+        <v>16.99510732700133</v>
       </c>
       <c r="F15">
-        <v>48.2797371560585</v>
+        <v>55.53200254091606</v>
       </c>
       <c r="G15">
-        <v>37.59887635011921</v>
+        <v>2.033058729417212</v>
       </c>
       <c r="H15">
-        <v>37.21777068753753</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>6.824060556438893</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>4.098422257315185</v>
+        <v>9.356437301505368</v>
       </c>
       <c r="K15">
-        <v>52.3306309093522</v>
+        <v>38.14145440661698</v>
       </c>
       <c r="L15">
-        <v>40.80988314273753</v>
+        <v>14.30491506081818</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>18.57750946704416</v>
+      </c>
+      <c r="N15">
+        <v>14.44356774795756</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.72614826134003</v>
+        <v>22.13628983701148</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.869511707752883</v>
+        <v>11.00587332313555</v>
       </c>
       <c r="E16">
-        <v>5.206772819717214</v>
+        <v>16.4041718174149</v>
       </c>
       <c r="F16">
-        <v>46.292459815745</v>
+        <v>54.09314399488566</v>
       </c>
       <c r="G16">
-        <v>36.0177537355608</v>
+        <v>2.045235701659124</v>
       </c>
       <c r="H16">
-        <v>35.67700805167534</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>7.378898465443459</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>4.202051275666097</v>
+        <v>9.142625682946422</v>
       </c>
       <c r="K16">
-        <v>50.48783538296033</v>
+        <v>36.71950428649453</v>
       </c>
       <c r="L16">
-        <v>39.31998180307</v>
+        <v>13.76804367877446</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>18.09741900811552</v>
+      </c>
+      <c r="N16">
+        <v>14.63209952247832</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.32047833465571</v>
+        <v>21.72590135495138</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.756340454277703</v>
+        <v>10.72706423287915</v>
       </c>
       <c r="E17">
-        <v>5.211846481515127</v>
+        <v>16.039046943785</v>
       </c>
       <c r="F17">
-        <v>45.07476566709492</v>
+        <v>53.22120898248455</v>
       </c>
       <c r="G17">
-        <v>35.04851556177346</v>
+        <v>2.052667500754293</v>
       </c>
       <c r="H17">
-        <v>34.73420379602841</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>7.718942926658853</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>4.26576523997503</v>
+        <v>9.011466607920287</v>
       </c>
       <c r="K17">
-        <v>49.34081360604405</v>
+        <v>35.83721560110039</v>
       </c>
       <c r="L17">
-        <v>38.39475800287648</v>
+        <v>13.43477071912543</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>17.80358640764541</v>
+      </c>
+      <c r="N17">
+        <v>14.74848164737804</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.08422577566394</v>
+        <v>21.48919165555049</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.691582653182479</v>
+        <v>10.56586835571495</v>
       </c>
       <c r="E18">
-        <v>5.215170324354781</v>
+        <v>15.82793880037521</v>
       </c>
       <c r="F18">
-        <v>44.37433308416804</v>
+        <v>52.72339483004889</v>
       </c>
       <c r="G18">
-        <v>34.49082244882411</v>
+        <v>2.056932245164032</v>
       </c>
       <c r="H18">
-        <v>34.19235439815069</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>7.914450058232761</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>4.302481905603116</v>
+        <v>8.935982835726088</v>
       </c>
       <c r="K18">
-        <v>48.67465152790366</v>
+        <v>35.32581707168963</v>
       </c>
       <c r="L18">
-        <v>37.85813862042031</v>
+        <v>13.2814162338203</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>17.63479044329671</v>
+      </c>
+      <c r="N18">
+        <v>14.81569249515329</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.0037263723867</v>
+        <v>21.40892786593035</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.669706235332345</v>
+        <v>10.51113646493596</v>
       </c>
       <c r="E19">
-        <v>5.216362836854257</v>
+        <v>15.7562602964683</v>
       </c>
       <c r="F19">
-        <v>44.1371211599389</v>
+        <v>52.55545776266561</v>
       </c>
       <c r="G19">
-        <v>34.30191901067374</v>
+        <v>2.058374904972439</v>
       </c>
       <c r="H19">
-        <v>34.00892764009667</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>7.980637654259678</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>4.314927232178078</v>
+        <v>8.910413603939798</v>
       </c>
       <c r="K19">
-        <v>48.44796584340695</v>
+        <v>35.15196797454395</v>
       </c>
       <c r="L19">
-        <v>37.67565398362032</v>
+        <v>13.23139125834099</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>17.57767151786214</v>
+      </c>
+      <c r="N19">
+        <v>14.83849599284308</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.36396343170682</v>
+        <v>21.76965580049119</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.768351051752911</v>
+        <v>10.75682746196579</v>
       </c>
       <c r="E20">
-        <v>5.211263781307088</v>
+        <v>16.07802575372645</v>
       </c>
       <c r="F20">
-        <v>45.20438411585418</v>
+        <v>53.31363982780365</v>
       </c>
       <c r="G20">
-        <v>35.15170453852609</v>
+        <v>2.051877482054968</v>
       </c>
       <c r="H20">
-        <v>34.83451320512648</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>7.682753879119828</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>4.258975925729538</v>
+        <v>9.025432332403208</v>
       </c>
       <c r="K20">
-        <v>49.4635735235317</v>
+        <v>35.93153773367939</v>
       </c>
       <c r="L20">
-        <v>38.49370363498429</v>
+        <v>13.47040592880085</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>17.83484293353816</v>
+      </c>
+      <c r="N20">
+        <v>14.73606465313741</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.53991638111884</v>
+        <v>22.97406504736501</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.104450479992218</v>
+        <v>11.57323538372439</v>
       </c>
       <c r="E21">
-        <v>5.199190170846306</v>
+        <v>17.14699442116566</v>
       </c>
       <c r="F21">
-        <v>48.79377656331965</v>
+        <v>55.9070488053081</v>
       </c>
       <c r="G21">
-        <v>38.00774905857906</v>
+        <v>2.029899260469231</v>
       </c>
       <c r="H21">
-        <v>37.61672202138048</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>6.680691515783304</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>4.071695197563944</v>
+        <v>9.411684148198574</v>
       </c>
       <c r="K21">
-        <v>52.80160569307125</v>
+        <v>38.50572661709028</v>
       </c>
       <c r="L21">
-        <v>41.19137170872664</v>
+        <v>14.44240520067646</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>18.7017152449416</v>
+      </c>
+      <c r="N21">
+        <v>14.39511310522658</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.28410119202842</v>
+        <v>23.75657051622838</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.329239690855513</v>
+        <v>12.102165285617</v>
       </c>
       <c r="E22">
-        <v>5.195614837418315</v>
+        <v>17.83908116616605</v>
       </c>
       <c r="F22">
-        <v>51.15269715741307</v>
+        <v>57.64102697795552</v>
       </c>
       <c r="G22">
-        <v>39.88365642735893</v>
+        <v>2.015350361063621</v>
       </c>
       <c r="H22">
-        <v>39.44957433611756</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>6.02465473436866</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>3.949514007058187</v>
+        <v>9.664829405932721</v>
       </c>
       <c r="K22">
-        <v>54.93404788496215</v>
+        <v>40.15920065370616</v>
       </c>
       <c r="L22">
-        <v>42.92239951031775</v>
+        <v>15.06629387603639</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>19.39392936855194</v>
+      </c>
+      <c r="N22">
+        <v>14.17460840134606</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.88905644386845</v>
+        <v>23.33927657309924</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.208677276304021</v>
+        <v>11.82013946553814</v>
       </c>
       <c r="E23">
-        <v>5.197087715420546</v>
+        <v>17.47012257588947</v>
       </c>
       <c r="F23">
-        <v>49.8917413686765</v>
+        <v>56.71164256613794</v>
       </c>
       <c r="G23">
-        <v>38.88096631919702</v>
+        <v>2.023137583562483</v>
       </c>
       <c r="H23">
-        <v>38.4694099405522</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>6.374867383468478</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>4.014725706571476</v>
+        <v>9.529594102259873</v>
       </c>
       <c r="K23">
-        <v>53.79997880416347</v>
+        <v>39.27902316607885</v>
       </c>
       <c r="L23">
-        <v>42.00103265873568</v>
+        <v>14.73422310695623</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>18.97453192252124</v>
+      </c>
+      <c r="N23">
+        <v>14.29208555190312</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.34431326649907</v>
+        <v>21.74987683156569</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.762920129758438</v>
+        <v>10.74337435301528</v>
       </c>
       <c r="E24">
-        <v>5.211525959562921</v>
+        <v>16.06040718270518</v>
       </c>
       <c r="F24">
-        <v>45.14578488399739</v>
+        <v>53.27184108487727</v>
       </c>
       <c r="G24">
-        <v>35.10505436405725</v>
+        <v>2.05223467309803</v>
       </c>
       <c r="H24">
-        <v>34.78916286376224</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>7.699114902178354</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>4.262045100469971</v>
+        <v>9.019118684518638</v>
       </c>
       <c r="K24">
-        <v>49.4080947912635</v>
+        <v>35.8889077144991</v>
       </c>
       <c r="L24">
-        <v>38.44898501954943</v>
+        <v>13.45430036061995</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>17.820711456336</v>
+      </c>
+      <c r="N24">
+        <v>14.7416774368628</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.56570621090377</v>
+        <v>20.01008457922019</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.294207672469546</v>
+        <v>9.549065236834998</v>
       </c>
       <c r="E25">
-        <v>5.242418006661584</v>
+        <v>14.4967366415396</v>
       </c>
       <c r="F25">
-        <v>40.0209884008497</v>
+        <v>49.70167603814733</v>
       </c>
       <c r="G25">
-        <v>31.0207072612698</v>
+        <v>2.083280626491933</v>
       </c>
       <c r="H25">
-        <v>30.83285036686568</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>9.125957575169908</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>4.531676507467559</v>
+        <v>8.466470535244646</v>
       </c>
       <c r="K25">
-        <v>44.4222124117602</v>
+        <v>32.07975223033159</v>
       </c>
       <c r="L25">
-        <v>34.44448701999947</v>
+        <v>12.36406537145027</v>
       </c>
       <c r="M25">
+        <v>16.5923014533479</v>
+      </c>
+      <c r="N25">
+        <v>15.23709996664869</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_3/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_3/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.70497057419906</v>
+        <v>17.01392806855483</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>8.629831570695957</v>
+        <v>7.726329587615682</v>
       </c>
       <c r="E2">
-        <v>13.29547155869687</v>
+        <v>14.03336508155771</v>
       </c>
       <c r="F2">
-        <v>47.17363395061746</v>
+        <v>29.84051092335891</v>
       </c>
       <c r="G2">
-        <v>2.106253435147979</v>
+        <v>46.10481682680884</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>13.0491327406028</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>15.29012851643251</v>
       </c>
       <c r="J2">
-        <v>8.053725215378936</v>
+        <v>8.852441478906103</v>
       </c>
       <c r="K2">
-        <v>29.1273393620968</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>11.56266186977709</v>
+        <v>11.54349778026424</v>
       </c>
       <c r="M2">
-        <v>15.69227770585947</v>
+        <v>14.74230111393603</v>
       </c>
       <c r="N2">
-        <v>15.61171714336457</v>
+        <v>13.25023755229967</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.80647747677379</v>
+        <v>16.00314042282945</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>7.97736297277675</v>
+        <v>7.412965788878934</v>
       </c>
       <c r="E3">
-        <v>12.44551226080873</v>
+        <v>13.45786352771234</v>
       </c>
       <c r="F3">
-        <v>45.51807473694326</v>
+        <v>28.75341283784131</v>
       </c>
       <c r="G3">
-        <v>2.122053947971913</v>
+        <v>43.58108831891341</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>12.66471903155404</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>15.67588312115105</v>
       </c>
       <c r="J3">
-        <v>7.769033752571741</v>
+        <v>8.603424165185141</v>
       </c>
       <c r="K3">
-        <v>27.24185769649064</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>11.01553441276628</v>
+        <v>10.90647958875488</v>
       </c>
       <c r="M3">
-        <v>15.08545035652964</v>
+        <v>14.00686100358534</v>
       </c>
       <c r="N3">
-        <v>15.8722375422952</v>
+        <v>13.4006135577746</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.24883800354326</v>
+        <v>15.35473112931725</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>7.560909287619086</v>
+        <v>7.21544991893295</v>
       </c>
       <c r="E4">
-        <v>11.90480995731285</v>
+        <v>13.0936211481586</v>
       </c>
       <c r="F4">
-        <v>44.52936099437549</v>
+        <v>28.09990581429985</v>
       </c>
       <c r="G4">
-        <v>2.131914081739652</v>
+        <v>42.01222669116201</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>12.43642835202539</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>15.92290485136058</v>
       </c>
       <c r="J4">
-        <v>7.591502536951572</v>
+        <v>8.447438075084939</v>
       </c>
       <c r="K4">
-        <v>26.04977254792768</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>10.67797606230289</v>
+        <v>10.50173292736854</v>
       </c>
       <c r="M4">
-        <v>14.71489263664098</v>
+        <v>13.54133900793875</v>
       </c>
       <c r="N4">
-        <v>16.03564790551238</v>
+        <v>13.4966369351927</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.02030284660659</v>
+        <v>15.0836805354918</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7.387048879999229</v>
+        <v>7.133694683998434</v>
       </c>
       <c r="E5">
-        <v>11.67960802308653</v>
+        <v>12.94252674350534</v>
       </c>
       <c r="F5">
-        <v>44.13342943393118</v>
+        <v>27.83735384492405</v>
       </c>
       <c r="G5">
-        <v>2.135977853317164</v>
+        <v>41.36874465244324</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>12.34539238513414</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>16.02605513720143</v>
       </c>
       <c r="J5">
-        <v>7.518444759233561</v>
+        <v>8.38312631758884</v>
       </c>
       <c r="K5">
-        <v>25.55544614450765</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>10.54010601695276</v>
+        <v>10.33351396777965</v>
       </c>
       <c r="M5">
-        <v>14.56450950076112</v>
+        <v>13.34833369889602</v>
       </c>
       <c r="N5">
-        <v>16.10313211422547</v>
+        <v>13.53669478396761</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.98228378711453</v>
+        <v>15.03826679630371</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7.357924039857357</v>
+        <v>7.120043583247243</v>
       </c>
       <c r="E6">
-        <v>11.64191674906566</v>
+        <v>12.9172793548694</v>
       </c>
       <c r="F6">
-        <v>44.06810724200488</v>
+        <v>27.79399164501497</v>
       </c>
       <c r="G6">
-        <v>2.13665555769488</v>
+        <v>41.26166705270153</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>12.3303977815571</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>16.04333157026639</v>
       </c>
       <c r="J6">
-        <v>7.506270014628303</v>
+        <v>8.37240332744522</v>
       </c>
       <c r="K6">
-        <v>25.47285329809402</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>10.51719737547343</v>
+        <v>10.30538800582023</v>
       </c>
       <c r="M6">
-        <v>14.53957979830767</v>
+        <v>13.31609281309882</v>
       </c>
       <c r="N6">
-        <v>16.11439251365222</v>
+        <v>13.5434023708451</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.24576081895963</v>
+        <v>15.35110299840804</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>7.558581570678802</v>
+        <v>7.214352432424081</v>
       </c>
       <c r="E7">
-        <v>11.90179263184108</v>
+        <v>13.09159410535994</v>
       </c>
       <c r="F7">
-        <v>44.52399305375691</v>
+        <v>28.09634939928068</v>
       </c>
       <c r="G7">
-        <v>2.131968694941462</v>
+        <v>42.00356427579779</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>12.43519247076078</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>15.9242859854793</v>
       </c>
       <c r="J7">
-        <v>7.590520164194563</v>
+        <v>8.44657372122964</v>
       </c>
       <c r="K7">
-        <v>26.04314024196115</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>10.6761178124621</v>
+        <v>10.49947733992993</v>
       </c>
       <c r="M7">
-        <v>14.71286183305381</v>
+        <v>13.53874913242743</v>
       </c>
       <c r="N7">
-        <v>16.03655437068688</v>
+        <v>13.49717341426522</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.39651368160016</v>
+        <v>16.67126082316916</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>8.408039153808792</v>
+        <v>7.619350142836708</v>
       </c>
       <c r="E8">
-        <v>13.00622400633684</v>
+        <v>13.83722869187462</v>
       </c>
       <c r="F8">
-        <v>46.59699787738279</v>
+        <v>29.46291838851658</v>
       </c>
       <c r="G8">
-        <v>2.111672244051234</v>
+        <v>45.23900234013676</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>12.91500845153663</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>15.42098057429011</v>
       </c>
       <c r="J8">
-        <v>7.95611044630262</v>
+        <v>8.767237823697673</v>
       </c>
       <c r="K8">
-        <v>28.48438722898415</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>11.3743944668609</v>
+        <v>11.32675416698125</v>
       </c>
       <c r="M8">
-        <v>15.48267787832615</v>
+        <v>14.49173148665806</v>
       </c>
       <c r="N8">
-        <v>15.70084398875988</v>
+        <v>13.30132023914061</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.59986950416388</v>
+        <v>19.03452399779259</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>9.956873870216592</v>
+        <v>8.372776868179473</v>
       </c>
       <c r="E9">
-        <v>15.03048013812023</v>
+        <v>15.21091053471527</v>
       </c>
       <c r="F9">
-        <v>50.88767744644501</v>
+        <v>32.24437393547034</v>
       </c>
       <c r="G9">
-        <v>2.072829111714691</v>
+        <v>51.4086629037636</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>13.91546690044904</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>14.51857518229167</v>
       </c>
       <c r="J9">
-        <v>8.653313858023996</v>
+        <v>9.370538439281685</v>
       </c>
       <c r="K9">
-        <v>33.38565282948915</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>12.72870804163581</v>
+        <v>13.00188785062254</v>
       </c>
       <c r="M9">
-        <v>17.00534698161846</v>
+        <v>16.27911607151774</v>
       </c>
       <c r="N9">
-        <v>15.06875010389995</v>
+        <v>12.94661738154045</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.18303114906071</v>
+        <v>20.6498242335582</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>11.03758316133927</v>
+        <v>8.902061487627584</v>
       </c>
       <c r="E10">
-        <v>16.44569616524752</v>
+        <v>16.16486624119405</v>
       </c>
       <c r="F10">
-        <v>54.19315656539477</v>
+        <v>34.34039233019423</v>
       </c>
       <c r="G10">
-        <v>2.044386049310598</v>
+        <v>55.81690725484682</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>14.68497334449621</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>13.91403220754582</v>
       </c>
       <c r="J10">
-        <v>9.15758909226069</v>
+        <v>9.797383999163586</v>
       </c>
       <c r="K10">
-        <v>36.81966577511282</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>13.80587037845102</v>
+        <v>14.22010270710213</v>
       </c>
       <c r="M10">
-        <v>18.13097854562719</v>
+        <v>17.77102952258374</v>
       </c>
       <c r="N10">
-        <v>14.61885584779008</v>
+        <v>12.70407508970531</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.89631675701849</v>
+        <v>21.40099811480199</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>11.52065128492717</v>
+        <v>9.137972434262135</v>
       </c>
       <c r="E11">
-        <v>17.07816434162012</v>
+        <v>16.5869982305555</v>
       </c>
       <c r="F11">
-        <v>55.73683535459176</v>
+        <v>35.30434360137815</v>
       </c>
       <c r="G11">
-        <v>2.031332522666795</v>
+        <v>57.79464760577662</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>15.04241561439259</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>13.65376688938433</v>
       </c>
       <c r="J11">
-        <v>9.386633864328802</v>
+        <v>9.987985160285502</v>
       </c>
       <c r="K11">
-        <v>38.34071252102329</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>14.38012471309891</v>
+        <v>14.74911040570853</v>
       </c>
       <c r="M11">
-        <v>18.64539130470959</v>
+        <v>18.41741563733049</v>
       </c>
       <c r="N11">
-        <v>14.4170697363351</v>
+        <v>12.59771378244922</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.16560007809831</v>
+        <v>21.67998308602304</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>11.7027413251782</v>
+        <v>9.226656788185668</v>
       </c>
       <c r="E12">
-        <v>17.31649377834358</v>
+        <v>16.74518900767623</v>
       </c>
       <c r="F12">
-        <v>56.32798542850493</v>
+        <v>35.67086801347126</v>
       </c>
       <c r="G12">
-        <v>2.02635917192722</v>
+        <v>58.53973878804006</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>15.17884656175158</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>13.55755444696317</v>
       </c>
       <c r="J12">
-        <v>9.473471817809996</v>
+        <v>10.05965605125753</v>
       </c>
       <c r="K12">
-        <v>38.91164876816947</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>14.5955962669796</v>
+        <v>14.94592483023955</v>
       </c>
       <c r="M12">
-        <v>18.84067697691544</v>
+        <v>18.65765529532773</v>
       </c>
       <c r="N12">
-        <v>14.34105702441549</v>
+        <v>12.55801556768778</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.10763796876449</v>
+        <v>21.62014025821145</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>11.66355514931635</v>
+        <v>9.207584985744678</v>
       </c>
       <c r="E13">
-        <v>17.2652090861646</v>
+        <v>16.71119281430729</v>
       </c>
       <c r="F13">
-        <v>56.20036100657612</v>
+        <v>35.59186322323108</v>
       </c>
       <c r="G13">
-        <v>2.027431866291607</v>
+        <v>58.37943701768909</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>15.14941544335309</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>13.5781671761052</v>
       </c>
       <c r="J13">
-        <v>9.454762199816136</v>
+        <v>10.04424270012728</v>
       </c>
       <c r="K13">
-        <v>38.78889648720141</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>14.54927283895174</v>
+        <v>14.90369154786584</v>
       </c>
       <c r="M13">
-        <v>18.7985937687001</v>
+        <v>18.60611510536215</v>
       </c>
       <c r="N13">
-        <v>14.35741010487727</v>
+        <v>12.56653942820216</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.9184860357039</v>
+        <v>21.42405938714211</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>11.53564620561828</v>
+        <v>9.145281239510657</v>
       </c>
       <c r="E14">
-        <v>17.0977923817014</v>
+        <v>16.60004567165569</v>
       </c>
       <c r="F14">
-        <v>55.78533166851663</v>
+        <v>35.33446758019601</v>
       </c>
       <c r="G14">
-        <v>2.03092405710073</v>
+        <v>57.8560223100062</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>15.05361816541944</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>13.64580299753757</v>
       </c>
       <c r="J14">
-        <v>9.393774967069602</v>
+        <v>9.993891621060714</v>
       </c>
       <c r="K14">
-        <v>38.38777946825788</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>14.39788931620377</v>
+        <v>14.76537211564235</v>
       </c>
       <c r="M14">
-        <v>18.66144664916198</v>
+        <v>18.4372704697191</v>
       </c>
       <c r="N14">
-        <v>14.41080817563268</v>
+        <v>12.59443614555233</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.80252453346009</v>
+        <v>21.30324505864577</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>11.45720216446518</v>
+        <v>9.107035470358626</v>
       </c>
       <c r="E15">
-        <v>16.99510732700133</v>
+        <v>16.53175002734011</v>
       </c>
       <c r="F15">
-        <v>55.53200254091606</v>
+        <v>35.17700122255852</v>
       </c>
       <c r="G15">
-        <v>2.033058729417212</v>
+        <v>57.53492252698801</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>14.99508036935693</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>13.68754464840701</v>
       </c>
       <c r="J15">
-        <v>9.356437301505368</v>
+        <v>9.96298468502183</v>
       </c>
       <c r="K15">
-        <v>38.14145440661698</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>14.30491506081818</v>
+        <v>14.68019387365557</v>
       </c>
       <c r="M15">
-        <v>18.57750946704416</v>
+        <v>18.33326142408346</v>
       </c>
       <c r="N15">
-        <v>14.44356774795756</v>
+        <v>12.61159926914975</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.13628983701148</v>
+        <v>20.5999626436467</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>11.00587332313555</v>
+        <v>8.886550165499735</v>
       </c>
       <c r="E16">
-        <v>16.4041718174149</v>
+        <v>16.13704376732427</v>
       </c>
       <c r="F16">
-        <v>54.09314399488566</v>
+        <v>34.27760418705856</v>
       </c>
       <c r="G16">
-        <v>2.045235701659124</v>
+        <v>55.6871099362447</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>14.66176292943041</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>13.93135597836571</v>
       </c>
       <c r="J16">
-        <v>9.142625682946422</v>
+        <v>9.78485635402938</v>
       </c>
       <c r="K16">
-        <v>36.71950428649453</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>13.76804367877446</v>
+        <v>14.18503355151834</v>
       </c>
       <c r="M16">
-        <v>18.09741900811552</v>
+        <v>17.72814611295195</v>
       </c>
       <c r="N16">
-        <v>14.63209952247832</v>
+        <v>12.71110657596789</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.72590135495138</v>
+        <v>20.17646481753833</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>10.72706423287915</v>
+        <v>8.750074367742913</v>
       </c>
       <c r="E17">
-        <v>16.039046943785</v>
+        <v>15.8918958024037</v>
       </c>
       <c r="F17">
-        <v>53.22120898248455</v>
+        <v>33.72850629694928</v>
       </c>
       <c r="G17">
-        <v>2.052667500754293</v>
+        <v>54.5465167952473</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>14.459178301133</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>14.08484813998282</v>
       </c>
       <c r="J17">
-        <v>9.011466607920287</v>
+        <v>9.674668172922528</v>
       </c>
       <c r="K17">
-        <v>35.83721560110039</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>13.43477071912543</v>
+        <v>13.87489817208163</v>
       </c>
       <c r="M17">
-        <v>17.80358640764541</v>
+        <v>17.34873235870593</v>
       </c>
       <c r="N17">
-        <v>14.74848164737804</v>
+        <v>12.77317324696049</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.48919165555049</v>
+        <v>19.93966650303246</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>10.56586835571495</v>
+        <v>8.671115500749488</v>
       </c>
       <c r="E18">
-        <v>15.82793880037521</v>
+        <v>15.74977620055455</v>
       </c>
       <c r="F18">
-        <v>52.72339483004889</v>
+        <v>33.41366089587007</v>
       </c>
       <c r="G18">
-        <v>2.056932245164032</v>
+        <v>53.88786356886068</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>14.34335054359956</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>14.17450464673541</v>
       </c>
       <c r="J18">
-        <v>8.935982835726088</v>
+        <v>9.610953498603775</v>
       </c>
       <c r="K18">
-        <v>35.32581707168963</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>13.2814162338203</v>
+        <v>13.69414081262332</v>
       </c>
       <c r="M18">
-        <v>17.63479044329671</v>
+        <v>17.12745685342183</v>
       </c>
       <c r="N18">
-        <v>14.81569249515329</v>
+        <v>12.80924573588635</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.40892786593035</v>
+        <v>19.85898934984359</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>10.51113646493596</v>
+        <v>8.644300845528335</v>
       </c>
       <c r="E19">
-        <v>15.7562602964683</v>
+        <v>15.70146427720739</v>
       </c>
       <c r="F19">
-        <v>52.55545776266561</v>
+        <v>33.30722949912126</v>
       </c>
       <c r="G19">
-        <v>2.058374904972439</v>
+        <v>53.66440430208257</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>14.30425234952275</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>14.20509032159759</v>
       </c>
       <c r="J19">
-        <v>8.910413603939798</v>
+        <v>9.589322765983949</v>
       </c>
       <c r="K19">
-        <v>35.15196797454395</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>13.23139125834099</v>
+        <v>13.63252828179859</v>
       </c>
       <c r="M19">
-        <v>17.57767151786214</v>
+        <v>17.05201026731916</v>
       </c>
       <c r="N19">
-        <v>14.83849599284308</v>
+        <v>12.82152319067277</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.76965580049119</v>
+        <v>20.22005269677035</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>10.75682746196579</v>
+        <v>8.764649913407768</v>
       </c>
       <c r="E20">
-        <v>16.07802575372645</v>
+        <v>15.91810761238045</v>
       </c>
       <c r="F20">
-        <v>53.31363982780365</v>
+        <v>33.78685742622368</v>
       </c>
       <c r="G20">
-        <v>2.051877482054968</v>
+        <v>54.66820495763886</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>14.48067197912533</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>14.06836517474651</v>
       </c>
       <c r="J20">
-        <v>9.025432332403208</v>
+        <v>9.686432777261988</v>
       </c>
       <c r="K20">
-        <v>35.93153773367939</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>13.47040592880085</v>
+        <v>13.90815772818838</v>
       </c>
       <c r="M20">
-        <v>17.83484293353816</v>
+        <v>17.38943615544771</v>
       </c>
       <c r="N20">
-        <v>14.73606465313741</v>
+        <v>12.76652745211874</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.97406504736501</v>
+        <v>21.48180069017855</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>11.57323538372439</v>
+        <v>9.163598531944608</v>
       </c>
       <c r="E21">
-        <v>17.14699442116566</v>
+        <v>16.63273694517867</v>
       </c>
       <c r="F21">
-        <v>55.9070488053081</v>
+        <v>35.41003000845786</v>
       </c>
       <c r="G21">
-        <v>2.029899260469231</v>
+        <v>58.00986422963459</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>15.08172674955113</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>13.62587107147793</v>
       </c>
       <c r="J21">
-        <v>9.411684148198574</v>
+        <v>10.00869456455164</v>
       </c>
       <c r="K21">
-        <v>38.50572661709028</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>14.44240520067646</v>
+        <v>14.80609420481483</v>
       </c>
       <c r="M21">
-        <v>18.7017152449416</v>
+        <v>18.4869863145668</v>
       </c>
       <c r="N21">
-        <v>14.39511310522658</v>
+        <v>12.58622643788587</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.75657051622838</v>
+        <v>22.2837694206296</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>12.102165285617</v>
+        <v>9.420579888249447</v>
       </c>
       <c r="E22">
-        <v>17.83908116616605</v>
+        <v>17.09013929645297</v>
       </c>
       <c r="F22">
-        <v>57.64102697795552</v>
+        <v>36.47963990567366</v>
       </c>
       <c r="G22">
-        <v>2.015350361063621</v>
+        <v>60.17163785632004</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>15.48084156916594</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>13.35047990281591</v>
       </c>
       <c r="J22">
-        <v>9.664829405932721</v>
+        <v>10.21637472223683</v>
       </c>
       <c r="K22">
-        <v>40.15920065370616</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>15.06629387603639</v>
+        <v>15.37255116416838</v>
       </c>
       <c r="M22">
-        <v>19.39392936855194</v>
+        <v>19.17793761433086</v>
       </c>
       <c r="N22">
-        <v>14.17460840134606</v>
+        <v>12.47176568713675</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.33927657309924</v>
+        <v>21.85862108785738</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>11.82013946553814</v>
+        <v>9.283747309881898</v>
       </c>
       <c r="E23">
-        <v>17.47012257588947</v>
+        <v>16.84687891103211</v>
       </c>
       <c r="F23">
-        <v>56.71164256613794</v>
+        <v>35.90795043720291</v>
       </c>
       <c r="G23">
-        <v>2.023137583562483</v>
+        <v>59.01980747421911</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>15.26724054842663</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>13.49611153362685</v>
       </c>
       <c r="J23">
-        <v>9.529594102259873</v>
+        <v>10.1057954272934</v>
       </c>
       <c r="K23">
-        <v>39.27902316607885</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>14.73422310695623</v>
+        <v>15.07204979827112</v>
       </c>
       <c r="M23">
-        <v>18.97453192252124</v>
+        <v>18.81153657446387</v>
       </c>
       <c r="N23">
-        <v>14.29208555190312</v>
+        <v>12.5325438220104</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.74987683156569</v>
+        <v>20.20035604040103</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>10.74337435301528</v>
+        <v>8.758061861132884</v>
       </c>
       <c r="E24">
-        <v>16.06040718270518</v>
+        <v>15.90626093359455</v>
       </c>
       <c r="F24">
-        <v>53.27184108487727</v>
+        <v>33.76047426810347</v>
       </c>
       <c r="G24">
-        <v>2.05223467309803</v>
+        <v>54.61319881476145</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>14.47095269186095</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>14.07581274216045</v>
       </c>
       <c r="J24">
-        <v>9.019118684518638</v>
+        <v>9.681115140202484</v>
       </c>
       <c r="K24">
-        <v>35.8889077144991</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>13.45430036061995</v>
+        <v>13.89312874213402</v>
       </c>
       <c r="M24">
-        <v>17.820711456336</v>
+        <v>17.37104377467773</v>
       </c>
       <c r="N24">
-        <v>14.7416774368628</v>
+        <v>12.76953080319461</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.01008457922019</v>
+        <v>18.41990714417361</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>9.549065236834998</v>
+        <v>8.173303649419172</v>
       </c>
       <c r="E25">
-        <v>14.4967366415396</v>
+        <v>14.84898413588289</v>
       </c>
       <c r="F25">
-        <v>49.70167603814733</v>
+        <v>31.48217998878623</v>
       </c>
       <c r="G25">
-        <v>2.083280626491933</v>
+        <v>49.76077425749681</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>13.63867058232815</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>14.7530249676211</v>
       </c>
       <c r="J25">
-        <v>8.466470535244646</v>
+        <v>9.210175379751689</v>
       </c>
       <c r="K25">
-        <v>32.07975223033159</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>12.36406537145027</v>
+        <v>12.53028084556885</v>
       </c>
       <c r="M25">
-        <v>16.5923014533479</v>
+        <v>15.7824158506629</v>
       </c>
       <c r="N25">
-        <v>15.23709996664869</v>
+        <v>13.03941802886727</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_3/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_3/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.01392806855483</v>
+        <v>16.78387890987024</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.726329587615682</v>
+        <v>8.351231686943816</v>
       </c>
       <c r="E2">
-        <v>14.03336508155771</v>
+        <v>13.81062963640493</v>
       </c>
       <c r="F2">
-        <v>29.84051092335891</v>
+        <v>37.64517756577851</v>
       </c>
       <c r="G2">
-        <v>46.10481682680884</v>
+        <v>45.48490528368133</v>
       </c>
       <c r="H2">
-        <v>13.0491327406028</v>
+        <v>17.93919805581172</v>
       </c>
       <c r="I2">
-        <v>15.29012851643251</v>
+        <v>26.52254716885239</v>
       </c>
       <c r="J2">
-        <v>8.852441478906103</v>
+        <v>10.37556985123617</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>11.54349778026424</v>
+        <v>12.50625070224778</v>
       </c>
       <c r="M2">
-        <v>14.74230111393603</v>
+        <v>17.54293314813208</v>
       </c>
       <c r="N2">
-        <v>13.25023755229967</v>
+        <v>19.36827236398478</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.00314042282945</v>
+        <v>16.53086131401737</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>7.412965788878934</v>
+        <v>8.258831802346183</v>
       </c>
       <c r="E3">
-        <v>13.45786352771234</v>
+        <v>13.62527057450888</v>
       </c>
       <c r="F3">
-        <v>28.75341283784131</v>
+        <v>37.59297653878034</v>
       </c>
       <c r="G3">
-        <v>43.58108831891341</v>
+        <v>45.06117045509102</v>
       </c>
       <c r="H3">
-        <v>12.66471903155404</v>
+        <v>17.93776617674463</v>
       </c>
       <c r="I3">
-        <v>15.67588312115105</v>
+        <v>26.66993717242959</v>
       </c>
       <c r="J3">
-        <v>8.603424165185141</v>
+        <v>10.30693997531794</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.90647958875488</v>
+        <v>12.37854090831665</v>
       </c>
       <c r="M3">
-        <v>14.00686100358534</v>
+        <v>17.41233244829314</v>
       </c>
       <c r="N3">
-        <v>13.4006135577746</v>
+        <v>19.42071891221026</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.35473112931725</v>
+        <v>16.37622787236128</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>7.21544991893295</v>
+        <v>8.200702558340438</v>
       </c>
       <c r="E4">
-        <v>13.0936211481586</v>
+        <v>13.50884790899317</v>
       </c>
       <c r="F4">
-        <v>28.09990581429985</v>
+        <v>37.57207838993381</v>
       </c>
       <c r="G4">
-        <v>42.01222669116201</v>
+        <v>44.8159784091018</v>
       </c>
       <c r="H4">
-        <v>12.43642835202539</v>
+        <v>17.94140507822029</v>
       </c>
       <c r="I4">
-        <v>15.92290485136058</v>
+        <v>26.76534760970285</v>
       </c>
       <c r="J4">
-        <v>8.447438075084939</v>
+        <v>10.26409087708235</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.50173292736854</v>
+        <v>12.30168215020788</v>
       </c>
       <c r="M4">
-        <v>13.54133900793875</v>
+        <v>17.33438754171001</v>
       </c>
       <c r="N4">
-        <v>13.4966369351927</v>
+        <v>19.45493262601634</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.0836805354918</v>
+        <v>16.3134689353842</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7.133694683998434</v>
+        <v>8.176672179884285</v>
       </c>
       <c r="E5">
-        <v>12.94252674350534</v>
+        <v>13.46077359841006</v>
       </c>
       <c r="F5">
-        <v>27.83735384492405</v>
+        <v>37.56636783107985</v>
       </c>
       <c r="G5">
-        <v>41.36874465244324</v>
+        <v>44.71993324305627</v>
       </c>
       <c r="H5">
-        <v>12.34539238513414</v>
+        <v>17.94402264911372</v>
       </c>
       <c r="I5">
-        <v>16.02605513720143</v>
+        <v>26.80546489280177</v>
       </c>
       <c r="J5">
-        <v>8.38312631758884</v>
+        <v>10.24645628822381</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.33351396777965</v>
+        <v>12.27078293902196</v>
       </c>
       <c r="M5">
-        <v>13.34833369889602</v>
+        <v>17.30321506575067</v>
       </c>
       <c r="N5">
-        <v>13.53669478396761</v>
+        <v>19.46938188608613</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.03826679630371</v>
+        <v>16.30306546397866</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7.120043583247243</v>
+        <v>8.172661538532511</v>
       </c>
       <c r="E6">
-        <v>12.9172793548694</v>
+        <v>13.45275353552049</v>
       </c>
       <c r="F6">
-        <v>27.79399164501497</v>
+        <v>37.56558902342875</v>
       </c>
       <c r="G6">
-        <v>41.26166705270153</v>
+        <v>44.70422179662227</v>
       </c>
       <c r="H6">
-        <v>12.3303977815571</v>
+        <v>17.94452577192962</v>
       </c>
       <c r="I6">
-        <v>16.04333157026639</v>
+        <v>26.81220107918368</v>
       </c>
       <c r="J6">
-        <v>8.37240332744522</v>
+        <v>10.2435177706049</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.30538800582023</v>
+        <v>12.26567846400776</v>
       </c>
       <c r="M6">
-        <v>13.31609281309882</v>
+        <v>17.29807532706604</v>
       </c>
       <c r="N6">
-        <v>13.5434023708451</v>
+        <v>19.47181182341295</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.35110299840804</v>
+        <v>16.37538035087907</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>7.214352432424081</v>
+        <v>8.200379850412343</v>
       </c>
       <c r="E7">
-        <v>13.09159410535994</v>
+        <v>13.50820208319081</v>
       </c>
       <c r="F7">
-        <v>28.09634939928068</v>
+        <v>37.57199001645373</v>
       </c>
       <c r="G7">
-        <v>42.00356427579779</v>
+        <v>44.81466729877246</v>
       </c>
       <c r="H7">
-        <v>12.43519247076078</v>
+        <v>17.94143578786979</v>
       </c>
       <c r="I7">
-        <v>15.9242859854793</v>
+        <v>26.76588363586892</v>
       </c>
       <c r="J7">
-        <v>8.44657372122964</v>
+        <v>10.26385374521963</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.49947733992993</v>
+        <v>12.30126368732581</v>
       </c>
       <c r="M7">
-        <v>13.53874913242743</v>
+        <v>17.33396471305281</v>
       </c>
       <c r="N7">
-        <v>13.49717341426522</v>
+        <v>19.45512543990625</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.67126082316916</v>
+        <v>16.69653341465763</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>7.619350142836708</v>
+        <v>8.319666930278077</v>
       </c>
       <c r="E8">
-        <v>13.83722869187462</v>
+        <v>13.74727495297786</v>
       </c>
       <c r="F8">
-        <v>29.46291838851658</v>
+        <v>37.62486513789883</v>
       </c>
       <c r="G8">
-        <v>45.23900234013676</v>
+        <v>45.33575763652028</v>
       </c>
       <c r="H8">
-        <v>12.91500845153663</v>
+        <v>17.93776596676181</v>
       </c>
       <c r="I8">
-        <v>15.42098057429011</v>
+        <v>26.57234857335912</v>
       </c>
       <c r="J8">
-        <v>8.767237823697673</v>
+        <v>10.35205683254005</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>11.32675416698125</v>
+        <v>12.46191185203251</v>
       </c>
       <c r="M8">
-        <v>14.49173148665806</v>
+        <v>17.49745226514803</v>
       </c>
       <c r="N8">
-        <v>13.30132023914061</v>
+        <v>19.3859391608195</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.03452399779259</v>
+        <v>17.32878993875579</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.372776868179473</v>
+        <v>8.542150169640204</v>
       </c>
       <c r="E9">
-        <v>15.21091053471527</v>
+        <v>14.19429245788914</v>
       </c>
       <c r="F9">
-        <v>32.24437393547034</v>
+        <v>37.81688829896886</v>
       </c>
       <c r="G9">
-        <v>51.4086629037636</v>
+        <v>46.47144718025129</v>
       </c>
       <c r="H9">
-        <v>13.91546690044904</v>
+        <v>17.96645303432089</v>
       </c>
       <c r="I9">
-        <v>14.51857518229167</v>
+        <v>26.23173567459775</v>
       </c>
       <c r="J9">
-        <v>9.370538439281685</v>
+        <v>10.51915841022514</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>13.00188785062254</v>
+        <v>12.78792610209617</v>
       </c>
       <c r="M9">
-        <v>16.27911607151774</v>
+        <v>17.83466228359238</v>
       </c>
       <c r="N9">
-        <v>12.94661738154045</v>
+        <v>19.2661735627803</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.6498242335582</v>
+        <v>17.7905522609755</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>8.902061487627584</v>
+        <v>8.69816277654245</v>
       </c>
       <c r="E10">
-        <v>16.16486624119405</v>
+        <v>14.50803382731119</v>
       </c>
       <c r="F10">
-        <v>34.34039233019423</v>
+        <v>38.0114259838528</v>
       </c>
       <c r="G10">
-        <v>55.81690725484682</v>
+        <v>47.36793444938738</v>
       </c>
       <c r="H10">
-        <v>14.68497334449621</v>
+        <v>18.009410246683</v>
       </c>
       <c r="I10">
-        <v>13.91403220754582</v>
+        <v>26.00511067449754</v>
       </c>
       <c r="J10">
-        <v>9.797383999163586</v>
+        <v>10.63804997106031</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>14.22010270710213</v>
+        <v>13.0322923825122</v>
       </c>
       <c r="M10">
-        <v>17.77102952258374</v>
+        <v>18.09088410939408</v>
       </c>
       <c r="N10">
-        <v>12.70407508970531</v>
+        <v>19.1878110572166</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.40099811480199</v>
+        <v>17.99914928116917</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>9.137972434262135</v>
+        <v>8.767424409012472</v>
       </c>
       <c r="E11">
-        <v>16.5869982305555</v>
+        <v>14.64729686135653</v>
       </c>
       <c r="F11">
-        <v>35.30434360137815</v>
+        <v>38.11139189473069</v>
       </c>
       <c r="G11">
-        <v>57.79464760577662</v>
+        <v>47.78757567774488</v>
       </c>
       <c r="H11">
-        <v>15.04241561439259</v>
+        <v>18.03368949171342</v>
       </c>
       <c r="I11">
-        <v>13.65376688938433</v>
+        <v>25.90712346229374</v>
       </c>
       <c r="J11">
-        <v>9.987985160285502</v>
+        <v>10.69123100113982</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>14.74911040570853</v>
+        <v>13.1441145578654</v>
       </c>
       <c r="M11">
-        <v>18.41741563733049</v>
+        <v>18.2089226721334</v>
       </c>
       <c r="N11">
-        <v>12.59771378244922</v>
+        <v>19.15423856230283</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.67998308602304</v>
+        <v>18.0778596284761</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>9.226656788185668</v>
+        <v>8.793398339795486</v>
       </c>
       <c r="E12">
-        <v>16.74518900767623</v>
+        <v>14.6995124217843</v>
       </c>
       <c r="F12">
-        <v>35.67086801347126</v>
+        <v>38.15087914466042</v>
       </c>
       <c r="G12">
-        <v>58.53973878804006</v>
+        <v>47.94803671281062</v>
       </c>
       <c r="H12">
-        <v>15.17884656175158</v>
+        <v>18.04356213403139</v>
       </c>
       <c r="I12">
-        <v>13.55755444696317</v>
+        <v>25.87075128018335</v>
       </c>
       <c r="J12">
-        <v>10.05965605125753</v>
+        <v>10.7112339262313</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>14.94592483023955</v>
+        <v>13.18652011841671</v>
       </c>
       <c r="M12">
-        <v>18.65765529532773</v>
+        <v>18.25380280041183</v>
       </c>
       <c r="N12">
-        <v>12.55801556768778</v>
+        <v>19.14182286222885</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.62014025821145</v>
+        <v>18.0609215334428</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>9.207584985744678</v>
+        <v>8.787815810315998</v>
       </c>
       <c r="E13">
-        <v>16.71119281430729</v>
+        <v>14.68829036179025</v>
       </c>
       <c r="F13">
-        <v>35.59186322323108</v>
+        <v>38.14230256029521</v>
       </c>
       <c r="G13">
-        <v>58.37943701768909</v>
+        <v>47.91341191947339</v>
       </c>
       <c r="H13">
-        <v>15.14941544335309</v>
+        <v>18.04140575285368</v>
       </c>
       <c r="I13">
-        <v>13.5781671761052</v>
+        <v>25.87855207077853</v>
       </c>
       <c r="J13">
-        <v>10.04424270012728</v>
+        <v>10.7069320580386</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>14.90369154786584</v>
+        <v>13.17738514671868</v>
       </c>
       <c r="M13">
-        <v>18.60611510536215</v>
+        <v>18.24412949492239</v>
       </c>
       <c r="N13">
-        <v>12.56653942820216</v>
+        <v>19.14448358928464</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.42405938714211</v>
+        <v>18.00563085226976</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>9.145281239510657</v>
+        <v>8.76956643511676</v>
       </c>
       <c r="E14">
-        <v>16.60004567165569</v>
+        <v>14.65160322250445</v>
       </c>
       <c r="F14">
-        <v>35.33446758019601</v>
+        <v>38.11460792734118</v>
       </c>
       <c r="G14">
-        <v>57.8560223100062</v>
+        <v>47.80074665752141</v>
       </c>
       <c r="H14">
-        <v>15.05361816541944</v>
+        <v>18.03448813746111</v>
       </c>
       <c r="I14">
-        <v>13.64580299753757</v>
+        <v>25.90411640546961</v>
       </c>
       <c r="J14">
-        <v>9.993891621060714</v>
+        <v>10.69287940330659</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>14.76537211564235</v>
+        <v>13.14760226008148</v>
       </c>
       <c r="M14">
-        <v>18.4372704697191</v>
+        <v>18.21261153162333</v>
       </c>
       <c r="N14">
-        <v>12.59443614555233</v>
+        <v>19.15321115845358</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.30324505864577</v>
+        <v>17.97172508996147</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>9.107035470358626</v>
+        <v>8.758354857256306</v>
       </c>
       <c r="E15">
-        <v>16.53175002734011</v>
+        <v>14.62906286672711</v>
       </c>
       <c r="F15">
-        <v>35.17700122255852</v>
+        <v>38.09785619111543</v>
       </c>
       <c r="G15">
-        <v>57.53492252698801</v>
+        <v>47.73193360333558</v>
       </c>
       <c r="H15">
-        <v>14.99508036935693</v>
+        <v>18.03033918201132</v>
       </c>
       <c r="I15">
-        <v>13.68754464840701</v>
+        <v>25.91987079500162</v>
       </c>
       <c r="J15">
-        <v>9.96298468502183</v>
+        <v>10.68425392286585</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>14.68019387365557</v>
+        <v>13.12936631965753</v>
       </c>
       <c r="M15">
-        <v>18.33326142408346</v>
+        <v>18.19332856313653</v>
       </c>
       <c r="N15">
-        <v>12.61159926914975</v>
+        <v>19.15859576009452</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.5999626436467</v>
+        <v>17.77688444931362</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>8.886550165499735</v>
+        <v>8.693601267665208</v>
       </c>
       <c r="E16">
-        <v>16.13704376732427</v>
+        <v>14.49886107043505</v>
       </c>
       <c r="F16">
-        <v>34.27760418705856</v>
+        <v>38.00512238587882</v>
       </c>
       <c r="G16">
-        <v>55.6871099362447</v>
+        <v>47.34073522875143</v>
       </c>
       <c r="H16">
-        <v>14.66176292943041</v>
+        <v>18.00791866699815</v>
       </c>
       <c r="I16">
-        <v>13.93135597836571</v>
+        <v>26.01161704272715</v>
       </c>
       <c r="J16">
-        <v>9.78485635402938</v>
+        <v>10.63455580160519</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>14.18503355151834</v>
+        <v>13.02499489966264</v>
       </c>
       <c r="M16">
-        <v>17.72814611295195</v>
+        <v>18.08319713349371</v>
       </c>
       <c r="N16">
-        <v>12.71110657596789</v>
+        <v>19.19004677491019</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.17646481753833</v>
+        <v>17.65693067363656</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>8.750074367742913</v>
+        <v>8.653433362821266</v>
       </c>
       <c r="E17">
-        <v>15.8918958024037</v>
+        <v>14.41808385461622</v>
       </c>
       <c r="F17">
-        <v>33.72850629694928</v>
+        <v>37.95115964941117</v>
       </c>
       <c r="G17">
-        <v>54.5465167952473</v>
+        <v>47.10367160470723</v>
       </c>
       <c r="H17">
-        <v>14.459178301133</v>
+        <v>17.99537621760916</v>
       </c>
       <c r="I17">
-        <v>14.08484813998282</v>
+        <v>26.0692075174494</v>
       </c>
       <c r="J17">
-        <v>9.674668172922528</v>
+        <v>10.60383219088784</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>13.87489817208163</v>
+        <v>12.96111099249963</v>
       </c>
       <c r="M17">
-        <v>17.34873235870593</v>
+        <v>18.01599219572167</v>
       </c>
       <c r="N17">
-        <v>12.77317324696049</v>
+        <v>19.20987175793717</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.93966650303246</v>
+        <v>17.5878029919137</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>8.671115500749488</v>
+        <v>8.630169431347175</v>
       </c>
       <c r="E18">
-        <v>15.74977620055455</v>
+        <v>14.37129861915059</v>
       </c>
       <c r="F18">
-        <v>33.41366089587007</v>
+        <v>37.92120249201211</v>
       </c>
       <c r="G18">
-        <v>53.88786356886068</v>
+        <v>46.96844096387509</v>
       </c>
       <c r="H18">
-        <v>14.34335054359956</v>
+        <v>17.98860828555306</v>
       </c>
       <c r="I18">
-        <v>14.17450464673541</v>
+        <v>26.10281264047707</v>
       </c>
       <c r="J18">
-        <v>9.610953498603775</v>
+        <v>10.58607609277945</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>13.69414081262332</v>
+        <v>12.92443066966655</v>
       </c>
       <c r="M18">
-        <v>17.12745685342183</v>
+        <v>17.97747909007292</v>
       </c>
       <c r="N18">
-        <v>12.80924573588635</v>
+        <v>19.22146992558961</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.85898934984359</v>
+        <v>17.56437682637731</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>8.644300845528335</v>
+        <v>8.622265365314931</v>
       </c>
       <c r="E19">
-        <v>15.70146427720739</v>
+        <v>14.35540295301718</v>
       </c>
       <c r="F19">
-        <v>33.30722949912126</v>
+        <v>37.91124561152969</v>
       </c>
       <c r="G19">
-        <v>53.66440430208257</v>
+        <v>46.92285138756924</v>
       </c>
       <c r="H19">
-        <v>14.30425234952275</v>
+        <v>17.98639347578924</v>
       </c>
       <c r="I19">
-        <v>14.20509032159759</v>
+        <v>26.11427332597083</v>
       </c>
       <c r="J19">
-        <v>9.589322765983949</v>
+        <v>10.58004981139627</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>13.63252828179859</v>
+        <v>12.91202337118631</v>
       </c>
       <c r="M19">
-        <v>17.05201026731916</v>
+        <v>17.96446445994302</v>
       </c>
       <c r="N19">
-        <v>12.82152319067277</v>
+        <v>19.22543044747353</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.22005269677035</v>
+        <v>17.66971428960499</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>8.764649913407768</v>
+        <v>8.65772596703294</v>
       </c>
       <c r="E20">
-        <v>15.91810761238045</v>
+        <v>14.42671646131316</v>
       </c>
       <c r="F20">
-        <v>33.78685742622368</v>
+        <v>37.95679233288013</v>
       </c>
       <c r="G20">
-        <v>54.66820495763886</v>
+        <v>47.12879236737304</v>
       </c>
       <c r="H20">
-        <v>14.48067197912533</v>
+        <v>17.99666522465241</v>
       </c>
       <c r="I20">
-        <v>14.06836517474651</v>
+        <v>26.06302717808281</v>
       </c>
       <c r="J20">
-        <v>9.686432777261988</v>
+        <v>10.6071115780237</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>13.90815772818838</v>
+        <v>12.96790516447349</v>
       </c>
       <c r="M20">
-        <v>17.38943615544771</v>
+        <v>18.02313187065858</v>
       </c>
       <c r="N20">
-        <v>12.76652745211874</v>
+        <v>19.20774114216728</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.48180069017855</v>
+        <v>18.02187923707956</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>9.163598531944608</v>
+        <v>8.774933674636417</v>
       </c>
       <c r="E21">
-        <v>16.63273694517867</v>
+        <v>14.66239342345456</v>
       </c>
       <c r="F21">
-        <v>35.41003000845786</v>
+        <v>38.12269836045456</v>
       </c>
       <c r="G21">
-        <v>58.00986422963459</v>
+        <v>47.83379824930921</v>
       </c>
       <c r="H21">
-        <v>15.08172674955113</v>
+        <v>18.03650161638575</v>
       </c>
       <c r="I21">
-        <v>13.62587107147793</v>
+        <v>25.89658764050199</v>
       </c>
       <c r="J21">
-        <v>10.00869456455164</v>
+        <v>10.69701073312978</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>14.80609420481483</v>
+        <v>13.15634882983817</v>
       </c>
       <c r="M21">
-        <v>18.4869863145668</v>
+        <v>18.2218644486038</v>
       </c>
       <c r="N21">
-        <v>12.58622643788587</v>
+        <v>19.15063959355022</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.2837694206296</v>
+        <v>18.25037173573821</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>9.420579888249447</v>
+        <v>8.850051907871261</v>
       </c>
       <c r="E22">
-        <v>17.09013929645297</v>
+        <v>14.81337917134987</v>
       </c>
       <c r="F22">
-        <v>36.47963990567366</v>
+        <v>38.24063221061692</v>
       </c>
       <c r="G22">
-        <v>60.17163785632004</v>
+        <v>48.30353637585419</v>
       </c>
       <c r="H22">
-        <v>15.48084156916594</v>
+        <v>18.06649072713049</v>
       </c>
       <c r="I22">
-        <v>13.35047990281591</v>
+        <v>25.79208460528974</v>
       </c>
       <c r="J22">
-        <v>10.21637472223683</v>
+        <v>10.75497219094687</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>15.37255116416838</v>
+        <v>13.27984740571888</v>
       </c>
       <c r="M22">
-        <v>19.17793761433086</v>
+        <v>18.35279078819172</v>
       </c>
       <c r="N22">
-        <v>12.47176568713675</v>
+        <v>19.11505393951012</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.85862108785738</v>
+        <v>18.12859623139618</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>9.283747309881898</v>
+        <v>8.810098281228329</v>
       </c>
       <c r="E23">
-        <v>16.84687891103211</v>
+        <v>14.73308094497749</v>
       </c>
       <c r="F23">
-        <v>35.90795043720291</v>
+        <v>38.17682533489498</v>
       </c>
       <c r="G23">
-        <v>59.01980747421911</v>
+        <v>48.05205657292347</v>
       </c>
       <c r="H23">
-        <v>15.26724054842663</v>
+        <v>18.050124290664</v>
       </c>
       <c r="I23">
-        <v>13.49611153362685</v>
+        <v>25.84746891417258</v>
       </c>
       <c r="J23">
-        <v>10.1057954272934</v>
+        <v>10.72411147535934</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>15.07204979827112</v>
+        <v>13.21391387233589</v>
       </c>
       <c r="M23">
-        <v>18.81153657446387</v>
+        <v>18.28282796511532</v>
       </c>
       <c r="N23">
-        <v>12.5325438220104</v>
+        <v>19.13388835010226</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.20035604040103</v>
+        <v>17.66393532426023</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>8.758061861132884</v>
+        <v>8.655785812311839</v>
       </c>
       <c r="E24">
-        <v>15.90626093359455</v>
+        <v>14.42281473380205</v>
       </c>
       <c r="F24">
-        <v>33.76047426810347</v>
+        <v>37.95424247261219</v>
       </c>
       <c r="G24">
-        <v>54.61319881476145</v>
+        <v>47.11743195630623</v>
       </c>
       <c r="H24">
-        <v>14.47095269186095</v>
+        <v>17.99608108478332</v>
       </c>
       <c r="I24">
-        <v>14.07581274216045</v>
+        <v>26.06581976571147</v>
       </c>
       <c r="J24">
-        <v>9.681115140202484</v>
+        <v>10.6056292553896</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>13.89312874213402</v>
+        <v>12.96483336912689</v>
       </c>
       <c r="M24">
-        <v>17.37104377467773</v>
+        <v>18.01990363523135</v>
       </c>
       <c r="N24">
-        <v>12.76953080319461</v>
+        <v>19.20870376887816</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.41990714417361</v>
+        <v>17.15792886925303</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>8.173303649419172</v>
+        <v>8.483236712919377</v>
       </c>
       <c r="E25">
-        <v>14.84898413588289</v>
+        <v>14.07584327693268</v>
       </c>
       <c r="F25">
-        <v>31.48217998878623</v>
+        <v>37.7555134434437</v>
       </c>
       <c r="G25">
-        <v>49.76077425749681</v>
+        <v>46.15275432677034</v>
       </c>
       <c r="H25">
-        <v>13.63867058232815</v>
+        <v>17.95484731071731</v>
       </c>
       <c r="I25">
-        <v>14.7530249676211</v>
+        <v>26.31972532628962</v>
       </c>
       <c r="J25">
-        <v>9.210175379751689</v>
+        <v>10.47461215058003</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>12.53028084556885</v>
+        <v>12.69874479545073</v>
       </c>
       <c r="M25">
-        <v>15.7824158506629</v>
+        <v>17.74182783894807</v>
       </c>
       <c r="N25">
-        <v>13.03941802886727</v>
+        <v>19.29687743837015</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_3/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_3/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.78387890987024</v>
+        <v>17.01392806855483</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>8.351231686943816</v>
+        <v>7.726329587615563</v>
       </c>
       <c r="E2">
-        <v>13.81062963640493</v>
+        <v>14.03336508155782</v>
       </c>
       <c r="F2">
-        <v>37.64517756577851</v>
+        <v>29.84051092335881</v>
       </c>
       <c r="G2">
-        <v>45.48490528368133</v>
+        <v>46.10481682680881</v>
       </c>
       <c r="H2">
-        <v>17.93919805581172</v>
+        <v>13.04913274060271</v>
       </c>
       <c r="I2">
-        <v>26.52254716885239</v>
+        <v>15.29012851643236</v>
       </c>
       <c r="J2">
-        <v>10.37556985123617</v>
+        <v>8.852441478906194</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>12.50625070224778</v>
+        <v>11.54349778026425</v>
       </c>
       <c r="M2">
-        <v>17.54293314813208</v>
+        <v>14.74230111393605</v>
       </c>
       <c r="N2">
-        <v>19.36827236398478</v>
+        <v>13.2502375522996</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.53086131401737</v>
+        <v>16.00314042282943</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>8.258831802346183</v>
+        <v>7.412965788879211</v>
       </c>
       <c r="E3">
-        <v>13.62527057450888</v>
+        <v>13.45786352771239</v>
       </c>
       <c r="F3">
-        <v>37.59297653878034</v>
+        <v>28.75341283784124</v>
       </c>
       <c r="G3">
-        <v>45.06117045509102</v>
+        <v>43.58108831891337</v>
       </c>
       <c r="H3">
-        <v>17.93776617674463</v>
+        <v>12.66471903155398</v>
       </c>
       <c r="I3">
-        <v>26.66993717242959</v>
+        <v>15.67588312115094</v>
       </c>
       <c r="J3">
-        <v>10.30693997531794</v>
+        <v>8.60342416518511</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>12.37854090831665</v>
+        <v>10.90647958875486</v>
       </c>
       <c r="M3">
-        <v>17.41233244829314</v>
+        <v>14.0068610035853</v>
       </c>
       <c r="N3">
-        <v>19.42071891221026</v>
+        <v>13.40061355777456</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.37622787236128</v>
+        <v>15.35473112931723</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>8.200702558340438</v>
+        <v>7.215449918933081</v>
       </c>
       <c r="E4">
-        <v>13.50884790899317</v>
+        <v>13.0936211481586</v>
       </c>
       <c r="F4">
-        <v>37.57207838993381</v>
+        <v>28.09990581429978</v>
       </c>
       <c r="G4">
-        <v>44.8159784091018</v>
+        <v>42.01222669116194</v>
       </c>
       <c r="H4">
-        <v>17.94140507822029</v>
+        <v>12.43642835202535</v>
       </c>
       <c r="I4">
-        <v>26.76534760970285</v>
+        <v>15.92290485136042</v>
       </c>
       <c r="J4">
-        <v>10.26409087708235</v>
+        <v>8.44743807508487</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>12.30168215020788</v>
+        <v>10.50173292736855</v>
       </c>
       <c r="M4">
-        <v>17.33438754171001</v>
+        <v>13.54133900793873</v>
       </c>
       <c r="N4">
-        <v>19.45493262601634</v>
+        <v>13.49663693519267</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.3134689353842</v>
+        <v>15.08368053549183</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>8.176672179884285</v>
+        <v>7.133694683998493</v>
       </c>
       <c r="E5">
-        <v>13.46077359841006</v>
+        <v>12.94252674350539</v>
       </c>
       <c r="F5">
-        <v>37.56636783107985</v>
+        <v>27.83735384492415</v>
       </c>
       <c r="G5">
-        <v>44.71993324305627</v>
+        <v>41.36874465244325</v>
       </c>
       <c r="H5">
-        <v>17.94402264911372</v>
+        <v>12.34539238513414</v>
       </c>
       <c r="I5">
-        <v>26.80546489280177</v>
+        <v>16.02605513720158</v>
       </c>
       <c r="J5">
-        <v>10.24645628822381</v>
+        <v>8.383126317588838</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>12.27078293902196</v>
+        <v>10.33351396777962</v>
       </c>
       <c r="M5">
-        <v>17.30321506575067</v>
+        <v>13.34833369889602</v>
       </c>
       <c r="N5">
-        <v>19.46938188608613</v>
+        <v>13.53669478396764</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.30306546397866</v>
+        <v>15.03826679630376</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>8.172661538532511</v>
+        <v>7.120043583247249</v>
       </c>
       <c r="E6">
-        <v>13.45275353552049</v>
+        <v>12.9172793548694</v>
       </c>
       <c r="F6">
-        <v>37.56558902342875</v>
+        <v>27.79399164501511</v>
       </c>
       <c r="G6">
-        <v>44.70422179662227</v>
+        <v>41.2616670527016</v>
       </c>
       <c r="H6">
-        <v>17.94452577192962</v>
+        <v>12.33039778155712</v>
       </c>
       <c r="I6">
-        <v>26.81220107918368</v>
+        <v>16.04333157026655</v>
       </c>
       <c r="J6">
-        <v>10.2435177706049</v>
+        <v>8.372403327445275</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>12.26567846400776</v>
+        <v>10.30538800582022</v>
       </c>
       <c r="M6">
-        <v>17.29807532706604</v>
+        <v>13.31609281309885</v>
       </c>
       <c r="N6">
-        <v>19.47181182341295</v>
+        <v>13.54340237084513</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.37538035087907</v>
+        <v>15.35110299840803</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>8.200379850412343</v>
+        <v>7.214352432424197</v>
       </c>
       <c r="E7">
-        <v>13.50820208319081</v>
+        <v>13.09159410535994</v>
       </c>
       <c r="F7">
-        <v>37.57199001645373</v>
+        <v>28.09634939928067</v>
       </c>
       <c r="G7">
-        <v>44.81466729877246</v>
+        <v>42.00356427579779</v>
       </c>
       <c r="H7">
-        <v>17.94143578786979</v>
+        <v>12.43519247076076</v>
       </c>
       <c r="I7">
-        <v>26.76588363586892</v>
+        <v>15.92428598547931</v>
       </c>
       <c r="J7">
-        <v>10.26385374521963</v>
+        <v>8.446573721229573</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>12.30126368732581</v>
+        <v>10.49947733992987</v>
       </c>
       <c r="M7">
-        <v>17.33396471305281</v>
+        <v>13.5387491324274</v>
       </c>
       <c r="N7">
-        <v>19.45512543990625</v>
+        <v>13.49717341426521</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.69653341465763</v>
+        <v>16.67126082316918</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>8.319666930278077</v>
+        <v>7.619350142836713</v>
       </c>
       <c r="E8">
-        <v>13.74727495297786</v>
+        <v>13.83722869187467</v>
       </c>
       <c r="F8">
-        <v>37.62486513789883</v>
+        <v>29.46291838851653</v>
       </c>
       <c r="G8">
-        <v>45.33575763652028</v>
+        <v>45.23900234013669</v>
       </c>
       <c r="H8">
-        <v>17.93776596676181</v>
+        <v>12.91500845153663</v>
       </c>
       <c r="I8">
-        <v>26.57234857335912</v>
+        <v>15.42098057429005</v>
       </c>
       <c r="J8">
-        <v>10.35205683254005</v>
+        <v>8.767237823697727</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>12.46191185203251</v>
+        <v>11.32675416698127</v>
       </c>
       <c r="M8">
-        <v>17.49745226514803</v>
+        <v>14.49173148665808</v>
       </c>
       <c r="N8">
-        <v>19.3859391608195</v>
+        <v>13.30132023914048</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.32878993875579</v>
+        <v>19.03452399779259</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.542150169640204</v>
+        <v>8.372776868179473</v>
       </c>
       <c r="E9">
-        <v>14.19429245788914</v>
+        <v>15.21091053471533</v>
       </c>
       <c r="F9">
-        <v>37.81688829896886</v>
+        <v>32.24437393547034</v>
       </c>
       <c r="G9">
-        <v>46.47144718025129</v>
+        <v>51.4086629037636</v>
       </c>
       <c r="H9">
-        <v>17.96645303432089</v>
+        <v>13.91546690044904</v>
       </c>
       <c r="I9">
-        <v>26.23173567459775</v>
+        <v>14.51857518229162</v>
       </c>
       <c r="J9">
-        <v>10.51915841022514</v>
+        <v>9.370538439281754</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>12.78792610209617</v>
+        <v>13.00188785062251</v>
       </c>
       <c r="M9">
-        <v>17.83466228359238</v>
+        <v>16.27911607151773</v>
       </c>
       <c r="N9">
-        <v>19.2661735627803</v>
+        <v>12.94661738154048</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.7905522609755</v>
+        <v>20.64982423355825</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>8.69816277654245</v>
+        <v>8.90206148762749</v>
       </c>
       <c r="E10">
-        <v>14.50803382731119</v>
+        <v>16.16486624119403</v>
       </c>
       <c r="F10">
-        <v>38.0114259838528</v>
+        <v>34.34039233019418</v>
       </c>
       <c r="G10">
-        <v>47.36793444938738</v>
+        <v>55.81690725484683</v>
       </c>
       <c r="H10">
-        <v>18.009410246683</v>
+        <v>14.68497334449617</v>
       </c>
       <c r="I10">
-        <v>26.00511067449754</v>
+        <v>13.91403220754567</v>
       </c>
       <c r="J10">
-        <v>10.63804997106031</v>
+        <v>9.797383999163628</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>13.0322923825122</v>
+        <v>14.22010270710214</v>
       </c>
       <c r="M10">
-        <v>18.09088410939408</v>
+        <v>17.77102952258378</v>
       </c>
       <c r="N10">
-        <v>19.1878110572166</v>
+        <v>12.70407508970525</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.99914928116917</v>
+        <v>21.400998114802</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>8.767424409012472</v>
+        <v>9.137972434262128</v>
       </c>
       <c r="E11">
-        <v>14.64729686135653</v>
+        <v>16.58699823055549</v>
       </c>
       <c r="F11">
-        <v>38.11139189473069</v>
+        <v>35.30434360137812</v>
       </c>
       <c r="G11">
-        <v>47.78757567774488</v>
+        <v>57.79464760577658</v>
       </c>
       <c r="H11">
-        <v>18.03368949171342</v>
+        <v>15.04241561439259</v>
       </c>
       <c r="I11">
-        <v>25.90712346229374</v>
+        <v>13.65376688938427</v>
       </c>
       <c r="J11">
-        <v>10.69123100113982</v>
+        <v>9.987985160285502</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>13.1441145578654</v>
+        <v>14.7491104057085</v>
       </c>
       <c r="M11">
-        <v>18.2089226721334</v>
+        <v>18.41741563733046</v>
       </c>
       <c r="N11">
-        <v>19.15423856230283</v>
+        <v>12.59771378244919</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.0778596284761</v>
+        <v>21.67998308602311</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>8.793398339795486</v>
+        <v>9.226656788185673</v>
       </c>
       <c r="E12">
-        <v>14.6995124217843</v>
+        <v>16.74518900767619</v>
       </c>
       <c r="F12">
-        <v>38.15087914466042</v>
+        <v>35.67086801347124</v>
       </c>
       <c r="G12">
-        <v>47.94803671281062</v>
+        <v>58.53973878804008</v>
       </c>
       <c r="H12">
-        <v>18.04356213403139</v>
+        <v>15.17884656175158</v>
       </c>
       <c r="I12">
-        <v>25.87075128018335</v>
+        <v>13.55755444696308</v>
       </c>
       <c r="J12">
-        <v>10.7112339262313</v>
+        <v>10.05965605125753</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>13.18652011841671</v>
+        <v>14.94592483023953</v>
       </c>
       <c r="M12">
-        <v>18.25380280041183</v>
+        <v>18.65765529532775</v>
       </c>
       <c r="N12">
-        <v>19.14182286222885</v>
+        <v>12.55801556768778</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.0609215334428</v>
+        <v>21.62014025821145</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>8.787815810315998</v>
+        <v>9.207584985744679</v>
       </c>
       <c r="E13">
-        <v>14.68829036179025</v>
+        <v>16.71119281430738</v>
       </c>
       <c r="F13">
-        <v>38.14230256029521</v>
+        <v>35.59186322323109</v>
       </c>
       <c r="G13">
-        <v>47.91341191947339</v>
+        <v>58.37943701768906</v>
       </c>
       <c r="H13">
-        <v>18.04140575285368</v>
+        <v>15.14941544335311</v>
       </c>
       <c r="I13">
-        <v>25.87855207077853</v>
+        <v>13.57816717610523</v>
       </c>
       <c r="J13">
-        <v>10.7069320580386</v>
+        <v>10.04424270012738</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>13.17738514671868</v>
+        <v>14.90369154786579</v>
       </c>
       <c r="M13">
-        <v>18.24412949492239</v>
+        <v>18.60611510536212</v>
       </c>
       <c r="N13">
-        <v>19.14448358928464</v>
+        <v>12.56653942820216</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.00563085226976</v>
+        <v>21.4240593871421</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>8.76956643511676</v>
+        <v>9.145281239510608</v>
       </c>
       <c r="E14">
-        <v>14.65160322250445</v>
+        <v>16.60004567165568</v>
       </c>
       <c r="F14">
-        <v>38.11460792734118</v>
+        <v>35.33446758019603</v>
       </c>
       <c r="G14">
-        <v>47.80074665752141</v>
+        <v>57.85602231000618</v>
       </c>
       <c r="H14">
-        <v>18.03448813746111</v>
+        <v>15.05361816541944</v>
       </c>
       <c r="I14">
-        <v>25.90411640546961</v>
+        <v>13.64580299753769</v>
       </c>
       <c r="J14">
-        <v>10.69287940330659</v>
+        <v>9.993891621060733</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>13.14760226008148</v>
+        <v>14.76537211564237</v>
       </c>
       <c r="M14">
-        <v>18.21261153162333</v>
+        <v>18.4372704697191</v>
       </c>
       <c r="N14">
-        <v>19.15321115845358</v>
+        <v>12.59443614555243</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.97172508996147</v>
+        <v>21.30324505864578</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>8.758354857256306</v>
+        <v>9.107035470358445</v>
       </c>
       <c r="E15">
-        <v>14.62906286672711</v>
+        <v>16.53175002734005</v>
       </c>
       <c r="F15">
-        <v>38.09785619111543</v>
+        <v>35.17700122255846</v>
       </c>
       <c r="G15">
-        <v>47.73193360333558</v>
+        <v>57.53492252698801</v>
       </c>
       <c r="H15">
-        <v>18.03033918201132</v>
+        <v>14.9950803693569</v>
       </c>
       <c r="I15">
-        <v>25.91987079500162</v>
+        <v>13.68754464840699</v>
       </c>
       <c r="J15">
-        <v>10.68425392286585</v>
+        <v>9.962984685021818</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>13.12936631965753</v>
+        <v>14.68019387365565</v>
       </c>
       <c r="M15">
-        <v>18.19332856313653</v>
+        <v>18.33326142408351</v>
       </c>
       <c r="N15">
-        <v>19.15859576009452</v>
+        <v>12.61159926914974</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.77688444931362</v>
+        <v>20.59996264364668</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>8.693601267665208</v>
+        <v>8.886550165499672</v>
       </c>
       <c r="E16">
-        <v>14.49886107043505</v>
+        <v>16.13704376732436</v>
       </c>
       <c r="F16">
-        <v>38.00512238587882</v>
+        <v>34.27760418705852</v>
       </c>
       <c r="G16">
-        <v>47.34073522875143</v>
+        <v>55.68710993624474</v>
       </c>
       <c r="H16">
-        <v>18.00791866699815</v>
+        <v>14.66176292943041</v>
       </c>
       <c r="I16">
-        <v>26.01161704272715</v>
+        <v>13.93135597836577</v>
       </c>
       <c r="J16">
-        <v>10.63455580160519</v>
+        <v>9.784856354029442</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>13.02499489966264</v>
+        <v>14.18503355151839</v>
       </c>
       <c r="M16">
-        <v>18.08319713349371</v>
+        <v>17.72814611295196</v>
       </c>
       <c r="N16">
-        <v>19.19004677491019</v>
+        <v>12.71110657596789</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.65693067363656</v>
+        <v>20.17646481753833</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>8.653433362821266</v>
+        <v>8.750074367742902</v>
       </c>
       <c r="E17">
-        <v>14.41808385461622</v>
+        <v>15.89189580240374</v>
       </c>
       <c r="F17">
-        <v>37.95115964941117</v>
+        <v>33.72850629694928</v>
       </c>
       <c r="G17">
-        <v>47.10367160470723</v>
+        <v>54.54651679524729</v>
       </c>
       <c r="H17">
-        <v>17.99537621760916</v>
+        <v>14.45917830113299</v>
       </c>
       <c r="I17">
-        <v>26.0692075174494</v>
+        <v>14.08484813998282</v>
       </c>
       <c r="J17">
-        <v>10.60383219088784</v>
+        <v>9.674668172922557</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>12.96111099249963</v>
+        <v>13.87489817208161</v>
       </c>
       <c r="M17">
-        <v>18.01599219572167</v>
+        <v>17.34873235870592</v>
       </c>
       <c r="N17">
-        <v>19.20987175793717</v>
+        <v>12.77317324696049</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.5878029919137</v>
+        <v>19.93966650303246</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>8.630169431347175</v>
+        <v>8.671115500749533</v>
       </c>
       <c r="E18">
-        <v>14.37129861915059</v>
+        <v>15.74977620055454</v>
       </c>
       <c r="F18">
-        <v>37.92120249201211</v>
+        <v>33.41366089587007</v>
       </c>
       <c r="G18">
-        <v>46.96844096387509</v>
+        <v>53.88786356886066</v>
       </c>
       <c r="H18">
-        <v>17.98860828555306</v>
+        <v>14.34335054359956</v>
       </c>
       <c r="I18">
-        <v>26.10281264047707</v>
+        <v>14.17450464673545</v>
       </c>
       <c r="J18">
-        <v>10.58607609277945</v>
+        <v>9.610953498603712</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>12.92443066966655</v>
+        <v>13.69414081262334</v>
       </c>
       <c r="M18">
-        <v>17.97747909007292</v>
+        <v>17.12745685342183</v>
       </c>
       <c r="N18">
-        <v>19.22146992558961</v>
+        <v>12.80924573588635</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.56437682637731</v>
+        <v>19.85898934984359</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>8.622265365314931</v>
+        <v>8.644300845528393</v>
       </c>
       <c r="E19">
-        <v>14.35540295301718</v>
+        <v>15.70146427720734</v>
       </c>
       <c r="F19">
-        <v>37.91124561152969</v>
+        <v>33.30722949912126</v>
       </c>
       <c r="G19">
-        <v>46.92285138756924</v>
+        <v>53.66440430208257</v>
       </c>
       <c r="H19">
-        <v>17.98639347578924</v>
+        <v>14.30425234952274</v>
       </c>
       <c r="I19">
-        <v>26.11427332597083</v>
+        <v>14.2050903215976</v>
       </c>
       <c r="J19">
-        <v>10.58004981139627</v>
+        <v>9.589322765983894</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>12.91202337118631</v>
+        <v>13.63252828179858</v>
       </c>
       <c r="M19">
-        <v>17.96446445994302</v>
+        <v>17.05201026731915</v>
       </c>
       <c r="N19">
-        <v>19.22543044747353</v>
+        <v>12.82152319067276</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.66971428960499</v>
+        <v>20.22005269677035</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>8.65772596703294</v>
+        <v>8.764649913407768</v>
       </c>
       <c r="E20">
-        <v>14.42671646131316</v>
+        <v>15.91810761238037</v>
       </c>
       <c r="F20">
-        <v>37.95679233288013</v>
+        <v>33.78685742622367</v>
       </c>
       <c r="G20">
-        <v>47.12879236737304</v>
+        <v>54.66820495763886</v>
       </c>
       <c r="H20">
-        <v>17.99666522465241</v>
+        <v>14.48067197912531</v>
       </c>
       <c r="I20">
-        <v>26.06302717808281</v>
+        <v>14.06836517474656</v>
       </c>
       <c r="J20">
-        <v>10.6071115780237</v>
+        <v>9.686432777261917</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>12.96790516447349</v>
+        <v>13.90815772818838</v>
       </c>
       <c r="M20">
-        <v>18.02313187065858</v>
+        <v>17.38943615544771</v>
       </c>
       <c r="N20">
-        <v>19.20774114216728</v>
+        <v>12.76652745211873</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.02187923707956</v>
+        <v>21.48180069017855</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>8.774933674636417</v>
+        <v>9.163598531944553</v>
       </c>
       <c r="E21">
-        <v>14.66239342345456</v>
+        <v>16.63273694517872</v>
       </c>
       <c r="F21">
-        <v>38.12269836045456</v>
+        <v>35.41003000845788</v>
       </c>
       <c r="G21">
-        <v>47.83379824930921</v>
+        <v>58.00986422963461</v>
       </c>
       <c r="H21">
-        <v>18.03650161638575</v>
+        <v>15.08172674955115</v>
       </c>
       <c r="I21">
-        <v>25.89658764050199</v>
+        <v>13.62587107147794</v>
       </c>
       <c r="J21">
-        <v>10.69701073312978</v>
+        <v>10.00869456455169</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>13.15634882983817</v>
+        <v>14.80609420481479</v>
       </c>
       <c r="M21">
-        <v>18.2218644486038</v>
+        <v>18.48698631456679</v>
       </c>
       <c r="N21">
-        <v>19.15063959355022</v>
+        <v>12.58622643788586</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.25037173573821</v>
+        <v>22.2837694206296</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>8.850051907871261</v>
+        <v>9.420579888249428</v>
       </c>
       <c r="E22">
-        <v>14.81337917134987</v>
+        <v>17.0901392964529</v>
       </c>
       <c r="F22">
-        <v>38.24063221061692</v>
+        <v>36.47963990567368</v>
       </c>
       <c r="G22">
-        <v>48.30353637585419</v>
+        <v>60.17163785632003</v>
       </c>
       <c r="H22">
-        <v>18.06649072713049</v>
+        <v>15.48084156916592</v>
       </c>
       <c r="I22">
-        <v>25.79208460528974</v>
+        <v>13.35047990281592</v>
       </c>
       <c r="J22">
-        <v>10.75497219094687</v>
+        <v>10.21637472223682</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>13.27984740571888</v>
+        <v>15.37255116416834</v>
       </c>
       <c r="M22">
-        <v>18.35279078819172</v>
+        <v>19.17793761433084</v>
       </c>
       <c r="N22">
-        <v>19.11505393951012</v>
+        <v>12.47176568713674</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.12859623139618</v>
+        <v>21.85862108785738</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>8.810098281228329</v>
+        <v>9.283747309882006</v>
       </c>
       <c r="E23">
-        <v>14.73308094497749</v>
+        <v>16.84687891103211</v>
       </c>
       <c r="F23">
-        <v>38.17682533489498</v>
+        <v>35.90795043720295</v>
       </c>
       <c r="G23">
-        <v>48.05205657292347</v>
+        <v>59.0198074742191</v>
       </c>
       <c r="H23">
-        <v>18.050124290664</v>
+        <v>15.26724054842669</v>
       </c>
       <c r="I23">
-        <v>25.84746891417258</v>
+        <v>13.49611153362694</v>
       </c>
       <c r="J23">
-        <v>10.72411147535934</v>
+        <v>10.10579542729337</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>13.21391387233589</v>
+        <v>15.07204979827109</v>
       </c>
       <c r="M23">
-        <v>18.28282796511532</v>
+        <v>18.81153657446385</v>
       </c>
       <c r="N23">
-        <v>19.13388835010226</v>
+        <v>12.53254382201044</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.66393532426023</v>
+        <v>20.20035604040104</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>8.655785812311839</v>
+        <v>8.758061861132875</v>
       </c>
       <c r="E24">
-        <v>14.42281473380205</v>
+        <v>15.9062609335945</v>
       </c>
       <c r="F24">
-        <v>37.95424247261219</v>
+        <v>33.7604742681036</v>
       </c>
       <c r="G24">
-        <v>47.11743195630623</v>
+        <v>54.61319881476145</v>
       </c>
       <c r="H24">
-        <v>17.99608108478332</v>
+        <v>14.47095269186099</v>
       </c>
       <c r="I24">
-        <v>26.06581976571147</v>
+        <v>14.07581274216067</v>
       </c>
       <c r="J24">
-        <v>10.6056292553896</v>
+        <v>9.681115140202515</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>12.96483336912689</v>
+        <v>13.89312874213393</v>
       </c>
       <c r="M24">
-        <v>18.01990363523135</v>
+        <v>17.37104377467763</v>
       </c>
       <c r="N24">
-        <v>19.20870376887816</v>
+        <v>12.76953080319463</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.15792886925303</v>
+        <v>18.4199071441736</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>8.483236712919377</v>
+        <v>8.173303649419111</v>
       </c>
       <c r="E25">
-        <v>14.07584327693268</v>
+        <v>14.84898413588279</v>
       </c>
       <c r="F25">
-        <v>37.7555134434437</v>
+        <v>31.48217998878629</v>
       </c>
       <c r="G25">
-        <v>46.15275432677034</v>
+        <v>49.76077425749678</v>
       </c>
       <c r="H25">
-        <v>17.95484731071731</v>
+        <v>13.63867058232822</v>
       </c>
       <c r="I25">
-        <v>26.31972532628962</v>
+        <v>14.75302496762113</v>
       </c>
       <c r="J25">
-        <v>10.47461215058003</v>
+        <v>9.210175379751638</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>12.69874479545073</v>
+        <v>12.53028084556879</v>
       </c>
       <c r="M25">
-        <v>17.74182783894807</v>
+        <v>15.78241585066289</v>
       </c>
       <c r="N25">
-        <v>19.29687743837015</v>
+        <v>13.03941802886733</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_3/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_3/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.01392806855483</v>
+        <v>11.40207796614678</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.726329587615563</v>
+        <v>4.189862239119916</v>
       </c>
       <c r="E2">
-        <v>14.03336508155782</v>
+        <v>7.968127347315026</v>
       </c>
       <c r="F2">
-        <v>29.84051092335881</v>
+        <v>27.22408507118463</v>
       </c>
       <c r="G2">
-        <v>46.10481682680881</v>
+        <v>35.02060442746738</v>
       </c>
       <c r="H2">
-        <v>13.04913274060271</v>
+        <v>3.500029485822634</v>
       </c>
       <c r="I2">
-        <v>15.29012851643236</v>
+        <v>4.465791528662323</v>
       </c>
       <c r="J2">
-        <v>8.852441478906194</v>
+        <v>11.86260790225294</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>19.07717006172122</v>
       </c>
       <c r="L2">
-        <v>11.54349778026425</v>
+        <v>6.566983465608899</v>
       </c>
       <c r="M2">
-        <v>14.74230111393605</v>
+        <v>13.4451545243204</v>
       </c>
       <c r="N2">
-        <v>13.2502375522996</v>
+        <v>7.219964139707289</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>10.25792513240105</v>
+      </c>
+      <c r="P2">
+        <v>14.44190378614108</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.00314042282943</v>
+        <v>10.79910593396506</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>7.412965788879211</v>
+        <v>4.110594281312781</v>
       </c>
       <c r="E3">
-        <v>13.45786352771239</v>
+        <v>7.813168733452977</v>
       </c>
       <c r="F3">
-        <v>28.75341283784124</v>
+        <v>26.77912321271966</v>
       </c>
       <c r="G3">
-        <v>43.58108831891337</v>
+        <v>34.1935995061312</v>
       </c>
       <c r="H3">
-        <v>12.66471903155398</v>
+        <v>3.71041977885804</v>
       </c>
       <c r="I3">
-        <v>15.67588312115094</v>
+        <v>4.601763951656467</v>
       </c>
       <c r="J3">
-        <v>8.60342416518511</v>
+        <v>11.79795108126355</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>19.08922343549976</v>
       </c>
       <c r="L3">
-        <v>10.90647958875486</v>
+        <v>6.472526477134401</v>
       </c>
       <c r="M3">
-        <v>14.0068610035853</v>
+        <v>12.58308429954962</v>
       </c>
       <c r="N3">
-        <v>13.40061355777456</v>
+        <v>6.967580747834728</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>9.909987623760815</v>
+      </c>
+      <c r="P3">
+        <v>14.58521945284749</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.35473112931723</v>
+        <v>10.40851967179449</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>7.215449918933081</v>
+        <v>4.06116221968986</v>
       </c>
       <c r="E4">
-        <v>13.0936211481586</v>
+        <v>7.715520712476468</v>
       </c>
       <c r="F4">
-        <v>28.09990581429978</v>
+        <v>26.51107490446151</v>
       </c>
       <c r="G4">
-        <v>42.01222669116194</v>
+        <v>33.69069388703343</v>
       </c>
       <c r="H4">
-        <v>12.43642835202535</v>
+        <v>3.844244034374651</v>
       </c>
       <c r="I4">
-        <v>15.92290485136042</v>
+        <v>4.688945090445852</v>
       </c>
       <c r="J4">
-        <v>8.44743807508487</v>
+        <v>11.76196981777873</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>19.0982438735528</v>
       </c>
       <c r="L4">
-        <v>10.50173292736855</v>
+        <v>6.412855928430441</v>
       </c>
       <c r="M4">
-        <v>13.54133900793873</v>
+        <v>12.02422321986847</v>
       </c>
       <c r="N4">
-        <v>13.49663693519267</v>
+        <v>6.810958453045715</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>9.691024261053261</v>
+      </c>
+      <c r="P4">
+        <v>14.67440334467661</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.08368053549183</v>
+        <v>10.23594847464188</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7.133694683998493</v>
+        <v>4.040608280928058</v>
       </c>
       <c r="E5">
-        <v>12.94252674350539</v>
+        <v>7.674746194985619</v>
       </c>
       <c r="F5">
-        <v>27.83735384492415</v>
+        <v>26.3953145139998</v>
       </c>
       <c r="G5">
-        <v>41.36874465244325</v>
+        <v>33.47424411377732</v>
       </c>
       <c r="H5">
-        <v>12.34539238513414</v>
+        <v>3.900290047395046</v>
       </c>
       <c r="I5">
-        <v>16.02605513720158</v>
+        <v>4.727790446191104</v>
       </c>
       <c r="J5">
-        <v>8.383126317588838</v>
+        <v>11.74584505973418</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>19.09584594469512</v>
       </c>
       <c r="L5">
-        <v>10.33351396777962</v>
+        <v>6.3881098599611</v>
       </c>
       <c r="M5">
-        <v>13.34833369889602</v>
+        <v>11.79090782097129</v>
       </c>
       <c r="N5">
-        <v>13.53669478396764</v>
+        <v>6.750570678520451</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>9.599790601248499</v>
+      </c>
+      <c r="P5">
+        <v>14.7097525470084</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.03826679630376</v>
+        <v>10.19670707477324</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7.120043583247249</v>
+        <v>4.036918371979739</v>
       </c>
       <c r="E6">
-        <v>12.9172793548694</v>
+        <v>7.667537030273854</v>
       </c>
       <c r="F6">
-        <v>27.79399164501511</v>
+        <v>26.36651233131902</v>
       </c>
       <c r="G6">
-        <v>41.2616670527016</v>
+        <v>33.42256347996399</v>
       </c>
       <c r="H6">
-        <v>12.33039778155712</v>
+        <v>3.910065784760982</v>
       </c>
       <c r="I6">
-        <v>16.04333157026655</v>
+        <v>4.737322278096332</v>
       </c>
       <c r="J6">
-        <v>8.372403327445275</v>
+        <v>11.740308681701</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>19.087561135982</v>
       </c>
       <c r="L6">
-        <v>10.30538800582022</v>
+        <v>6.383980600852687</v>
       </c>
       <c r="M6">
-        <v>13.31609281309885</v>
+        <v>11.75399558608324</v>
       </c>
       <c r="N6">
-        <v>13.54340237084513</v>
+        <v>6.745148005432609</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>9.583618757624594</v>
+      </c>
+      <c r="P6">
+        <v>14.71405038698519</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.35110299840803</v>
+        <v>10.37863713137258</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>7.214352432424197</v>
+        <v>4.060168601558237</v>
       </c>
       <c r="E7">
-        <v>13.09159410535994</v>
+        <v>7.713918572732038</v>
       </c>
       <c r="F7">
-        <v>28.09634939928067</v>
+        <v>26.48328749244671</v>
       </c>
       <c r="G7">
-        <v>42.00356427579779</v>
+        <v>33.64491200059454</v>
       </c>
       <c r="H7">
-        <v>12.43519247076076</v>
+        <v>3.846060105572314</v>
       </c>
       <c r="I7">
-        <v>15.92428598547931</v>
+        <v>4.697462067893879</v>
       </c>
       <c r="J7">
-        <v>8.446573721229573</v>
+        <v>11.75382311319186</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>19.0766502403995</v>
       </c>
       <c r="L7">
-        <v>10.49947733992987</v>
+        <v>6.41256596283201</v>
       </c>
       <c r="M7">
-        <v>13.5387491324274</v>
+        <v>12.02718273910067</v>
       </c>
       <c r="N7">
-        <v>13.49717341426521</v>
+        <v>6.822613696412866</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>9.687225928445226</v>
+      </c>
+      <c r="P7">
+        <v>14.67059019092135</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.67126082316918</v>
+        <v>11.16426295350906</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>7.619350142836713</v>
+        <v>4.16177024728496</v>
       </c>
       <c r="E8">
-        <v>13.83722869187467</v>
+        <v>7.913963930999586</v>
       </c>
       <c r="F8">
-        <v>29.46291838851653</v>
+        <v>27.03579265483558</v>
       </c>
       <c r="G8">
-        <v>45.23900234013669</v>
+        <v>34.67968322530512</v>
       </c>
       <c r="H8">
-        <v>12.91500845153663</v>
+        <v>3.572942763912293</v>
       </c>
       <c r="I8">
-        <v>15.42098057429005</v>
+        <v>4.521958554261161</v>
       </c>
       <c r="J8">
-        <v>8.767237823697727</v>
+        <v>11.82920250689882</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>19.05271010974922</v>
       </c>
       <c r="L8">
-        <v>11.32675416698127</v>
+        <v>6.534922236453592</v>
       </c>
       <c r="M8">
-        <v>14.49173148665808</v>
+        <v>13.16145467634244</v>
       </c>
       <c r="N8">
-        <v>13.30132023914048</v>
+        <v>7.14912938876517</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>10.13584780494113</v>
+      </c>
+      <c r="P8">
+        <v>14.48565738155702</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.03452399779259</v>
+        <v>12.58394296748446</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.372776868179473</v>
+        <v>4.356329956735188</v>
       </c>
       <c r="E9">
-        <v>15.21091053471533</v>
+        <v>8.289068970308971</v>
       </c>
       <c r="F9">
-        <v>32.24437393547034</v>
+        <v>28.20225594014106</v>
       </c>
       <c r="G9">
-        <v>51.4086629037636</v>
+        <v>36.8123165990174</v>
       </c>
       <c r="H9">
-        <v>13.91546690044904</v>
+        <v>3.07161014991711</v>
       </c>
       <c r="I9">
-        <v>14.51857518229162</v>
+        <v>4.193626987908187</v>
       </c>
       <c r="J9">
-        <v>9.370538439281754</v>
+        <v>12.02107583008549</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>19.05701554783602</v>
       </c>
       <c r="L9">
-        <v>13.00188785062251</v>
+        <v>6.761833522210938</v>
       </c>
       <c r="M9">
-        <v>16.27911607151773</v>
+        <v>15.14245650155983</v>
       </c>
       <c r="N9">
-        <v>12.94661738154048</v>
+        <v>7.752180177777427</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>10.97325466493002</v>
+      </c>
+      <c r="P9">
+        <v>14.13900723631826</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.64982423355825</v>
+        <v>13.4626427165953</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>8.90206148762749</v>
+        <v>4.481608121406873</v>
       </c>
       <c r="E10">
-        <v>16.16486624119403</v>
+        <v>8.554548152147616</v>
       </c>
       <c r="F10">
-        <v>34.34039233019418</v>
+        <v>28.91730194075171</v>
       </c>
       <c r="G10">
-        <v>55.81690725484683</v>
+        <v>38.15219009749029</v>
       </c>
       <c r="H10">
-        <v>14.68497334449617</v>
+        <v>2.750184934052178</v>
       </c>
       <c r="I10">
-        <v>13.91403220754567</v>
+        <v>3.979216486682906</v>
       </c>
       <c r="J10">
-        <v>9.797383999163628</v>
+        <v>12.13552734245054</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>18.98597388137393</v>
       </c>
       <c r="L10">
-        <v>14.22010270710214</v>
+        <v>6.929148063357142</v>
       </c>
       <c r="M10">
-        <v>17.77102952258378</v>
+        <v>16.44746028808498</v>
       </c>
       <c r="N10">
-        <v>12.70407508970525</v>
+        <v>8.115064873062677</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>11.49373010455411</v>
+      </c>
+      <c r="P10">
+        <v>13.87288594833486</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.400998114802</v>
+        <v>13.39694300495091</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>9.137972434262128</v>
+        <v>4.423827507992946</v>
       </c>
       <c r="E11">
-        <v>16.58699823055549</v>
+        <v>8.754128575627588</v>
       </c>
       <c r="F11">
-        <v>35.30434360137812</v>
+        <v>27.92213614972339</v>
       </c>
       <c r="G11">
-        <v>57.79464760577658</v>
+        <v>36.83976839538802</v>
       </c>
       <c r="H11">
-        <v>15.04241561439259</v>
+        <v>3.466909719275991</v>
       </c>
       <c r="I11">
-        <v>13.65376688938427</v>
+        <v>3.943780710823812</v>
       </c>
       <c r="J11">
-        <v>9.987985160285502</v>
+        <v>11.81456411267066</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>18.31111967808853</v>
       </c>
       <c r="L11">
-        <v>14.7491104057085</v>
+        <v>7.109824739520702</v>
       </c>
       <c r="M11">
-        <v>18.41741563733046</v>
+        <v>16.91656258141087</v>
       </c>
       <c r="N11">
-        <v>12.59771378244919</v>
+        <v>7.672996044216442</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>11.20102899728556</v>
+      </c>
+      <c r="P11">
+        <v>13.64280001252924</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.67998308602311</v>
+        <v>13.19096527151853</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>9.226656788185673</v>
+        <v>4.359364923336116</v>
       </c>
       <c r="E12">
-        <v>16.74518900767619</v>
+        <v>8.967409220961024</v>
       </c>
       <c r="F12">
-        <v>35.67086801347124</v>
+        <v>26.94985252472587</v>
       </c>
       <c r="G12">
-        <v>58.53973878804008</v>
+        <v>35.47812698890092</v>
       </c>
       <c r="H12">
-        <v>15.17884656175158</v>
+        <v>4.650744289209179</v>
       </c>
       <c r="I12">
-        <v>13.55755444696308</v>
+        <v>3.941513242090921</v>
       </c>
       <c r="J12">
-        <v>10.05965605125753</v>
+        <v>11.52481260192416</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>17.80388571766504</v>
       </c>
       <c r="L12">
-        <v>14.94592483023953</v>
+        <v>7.276598751491177</v>
       </c>
       <c r="M12">
-        <v>18.65765529532775</v>
+        <v>17.03944473196707</v>
       </c>
       <c r="N12">
-        <v>12.55801556768778</v>
+        <v>7.201892454988913</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>10.84231547669894</v>
+      </c>
+      <c r="P12">
+        <v>13.53022965282369</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.62014025821145</v>
+        <v>12.8251640651343</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>9.207584985744679</v>
+        <v>4.283878873318341</v>
       </c>
       <c r="E13">
-        <v>16.71119281430738</v>
+        <v>9.194404598158044</v>
       </c>
       <c r="F13">
-        <v>35.59186322323109</v>
+        <v>25.88701739118937</v>
       </c>
       <c r="G13">
-        <v>58.37943701768906</v>
+        <v>33.90919060549498</v>
       </c>
       <c r="H13">
-        <v>15.14941544335311</v>
+        <v>5.969622590066156</v>
       </c>
       <c r="I13">
-        <v>13.57816717610523</v>
+        <v>3.977269990471153</v>
       </c>
       <c r="J13">
-        <v>10.04424270012738</v>
+        <v>11.22799759973358</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>17.36532811158499</v>
       </c>
       <c r="L13">
-        <v>14.90369154786579</v>
+        <v>7.438476115767381</v>
       </c>
       <c r="M13">
-        <v>18.60611510536212</v>
+        <v>16.91429863113995</v>
       </c>
       <c r="N13">
-        <v>12.56653942820216</v>
+        <v>6.688233964478584</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>10.4011195271931</v>
+      </c>
+      <c r="P13">
+        <v>13.4938047844259</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.4240593871421</v>
+        <v>12.48537039172221</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>9.145281239510608</v>
+        <v>4.227304809380353</v>
       </c>
       <c r="E14">
-        <v>16.60004567165568</v>
+        <v>9.369102126065751</v>
       </c>
       <c r="F14">
-        <v>35.33446758019603</v>
+        <v>25.09337510371309</v>
       </c>
       <c r="G14">
-        <v>57.85602231000618</v>
+        <v>32.69672883491063</v>
       </c>
       <c r="H14">
-        <v>15.05361816541944</v>
+        <v>6.932726580323536</v>
       </c>
       <c r="I14">
-        <v>13.64580299753769</v>
+        <v>4.021830346824562</v>
       </c>
       <c r="J14">
-        <v>9.993891621060733</v>
+        <v>11.01546622133887</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>17.09070815656179</v>
       </c>
       <c r="L14">
-        <v>14.76537211564237</v>
+        <v>7.554405226701536</v>
       </c>
       <c r="M14">
-        <v>18.4372704697191</v>
+        <v>16.71427721572554</v>
       </c>
       <c r="N14">
-        <v>12.59443614555243</v>
+        <v>6.310160338922116</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>10.05108945726677</v>
+      </c>
+      <c r="P14">
+        <v>13.50411994311854</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.30324505864578</v>
+        <v>12.35901001423567</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>9.107035470358445</v>
+        <v>4.209750722862755</v>
       </c>
       <c r="E15">
-        <v>16.53175002734005</v>
+        <v>9.403492169325599</v>
       </c>
       <c r="F15">
-        <v>35.17700122255846</v>
+        <v>24.87448946510704</v>
       </c>
       <c r="G15">
-        <v>57.53492252698801</v>
+        <v>32.34529047779283</v>
       </c>
       <c r="H15">
-        <v>14.9950803693569</v>
+        <v>7.161158089708286</v>
       </c>
       <c r="I15">
-        <v>13.68754464840699</v>
+        <v>4.044839801639044</v>
       </c>
       <c r="J15">
-        <v>9.962984685021818</v>
+        <v>10.9605515053869</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>17.03124762115495</v>
       </c>
       <c r="L15">
-        <v>14.68019387365565</v>
+        <v>7.576297592343549</v>
       </c>
       <c r="M15">
-        <v>18.33326142408351</v>
+        <v>16.61352340401178</v>
       </c>
       <c r="N15">
-        <v>12.61159926914974</v>
+        <v>6.213200346635501</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>9.947706962545592</v>
+      </c>
+      <c r="P15">
+        <v>13.51960920483387</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.59996264364668</v>
+        <v>12.03126783754065</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>8.886550165499672</v>
+        <v>4.16850702955841</v>
       </c>
       <c r="E16">
-        <v>16.13704376732436</v>
+        <v>9.24378301565336</v>
       </c>
       <c r="F16">
-        <v>34.27760418705852</v>
+        <v>24.74229419459815</v>
       </c>
       <c r="G16">
-        <v>55.68710993624474</v>
+        <v>32.00065414311985</v>
       </c>
       <c r="H16">
-        <v>14.66176292943041</v>
+        <v>6.995619799030618</v>
       </c>
       <c r="I16">
-        <v>13.93135597836577</v>
+        <v>4.134418875535202</v>
       </c>
       <c r="J16">
-        <v>9.784856354029442</v>
+        <v>10.9630743624316</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>17.14303917841822</v>
       </c>
       <c r="L16">
-        <v>14.18503355151839</v>
+        <v>7.470593057089571</v>
       </c>
       <c r="M16">
-        <v>17.72814611295196</v>
+        <v>16.09937720979688</v>
       </c>
       <c r="N16">
-        <v>12.71110657596789</v>
+        <v>6.149969413558868</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>9.799227263531488</v>
+      </c>
+      <c r="P16">
+        <v>13.63313898169874</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.17646481753833</v>
+        <v>11.96367885299938</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>8.750074367742902</v>
+        <v>4.166398949787188</v>
       </c>
       <c r="E17">
-        <v>15.89189580240374</v>
+        <v>9.018119532258487</v>
       </c>
       <c r="F17">
-        <v>33.72850629694928</v>
+        <v>25.06938695513135</v>
       </c>
       <c r="G17">
-        <v>54.54651679524729</v>
+        <v>32.39863862263634</v>
       </c>
       <c r="H17">
-        <v>14.45917830113299</v>
+        <v>6.333014367544311</v>
       </c>
       <c r="I17">
-        <v>14.08484813998282</v>
+        <v>4.180083696303863</v>
       </c>
       <c r="J17">
-        <v>9.674668172922557</v>
+        <v>11.07893177550388</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>17.37026802691381</v>
       </c>
       <c r="L17">
-        <v>13.87489817208161</v>
+        <v>7.323108928198545</v>
       </c>
       <c r="M17">
-        <v>17.34873235870592</v>
+        <v>15.80836390780819</v>
       </c>
       <c r="N17">
-        <v>12.77317324696049</v>
+        <v>6.307471460823829</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>9.875748782720848</v>
+      </c>
+      <c r="P17">
+        <v>13.71443733242096</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.93966650303246</v>
+        <v>12.13522831946112</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>8.671115500749533</v>
+        <v>4.203700932215025</v>
       </c>
       <c r="E18">
-        <v>15.74977620055454</v>
+        <v>8.748616301865487</v>
       </c>
       <c r="F18">
-        <v>33.41366089587007</v>
+        <v>25.84379528225767</v>
       </c>
       <c r="G18">
-        <v>53.88786356886066</v>
+        <v>33.50254289453425</v>
       </c>
       <c r="H18">
-        <v>14.34335054359956</v>
+        <v>5.218524404589448</v>
       </c>
       <c r="I18">
-        <v>14.17450464673545</v>
+        <v>4.182905729837192</v>
       </c>
       <c r="J18">
-        <v>9.610953498603712</v>
+        <v>11.30950291876237</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>17.74907080410863</v>
       </c>
       <c r="L18">
-        <v>13.69414081262334</v>
+        <v>7.141722716031026</v>
       </c>
       <c r="M18">
-        <v>17.12745685342183</v>
+        <v>15.67959471718875</v>
       </c>
       <c r="N18">
-        <v>12.80924573588635</v>
+        <v>6.665903634618821</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>10.15634688971795</v>
+      </c>
+      <c r="P18">
+        <v>13.78863977377427</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.85898934984359</v>
+        <v>12.44010133793818</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>8.644300845528393</v>
+        <v>4.277258347053856</v>
       </c>
       <c r="E19">
-        <v>15.70146427720734</v>
+        <v>8.537139363064385</v>
       </c>
       <c r="F19">
-        <v>33.30722949912126</v>
+        <v>26.8746518171377</v>
       </c>
       <c r="G19">
-        <v>53.66440430208257</v>
+        <v>35.00817802019681</v>
       </c>
       <c r="H19">
-        <v>14.30425234952274</v>
+        <v>3.977025338700034</v>
       </c>
       <c r="I19">
-        <v>14.2050903215976</v>
+        <v>4.164586254322803</v>
       </c>
       <c r="J19">
-        <v>9.589322765983894</v>
+        <v>11.60168658025515</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>18.21024056940144</v>
       </c>
       <c r="L19">
-        <v>13.63252828179858</v>
+        <v>6.98388715771496</v>
       </c>
       <c r="M19">
-        <v>17.05201026731915</v>
+        <v>15.70213024228598</v>
       </c>
       <c r="N19">
-        <v>12.82152319067276</v>
+        <v>7.178460278281105</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>10.57289260221422</v>
+      </c>
+      <c r="P19">
+        <v>13.86256650066688</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.22005269677035</v>
+        <v>13.16752603909019</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>8.764649913407768</v>
+        <v>4.446277899398337</v>
       </c>
       <c r="E20">
-        <v>15.91810761238037</v>
+        <v>8.483502848787388</v>
       </c>
       <c r="F20">
-        <v>33.78685742622367</v>
+        <v>28.64732547934399</v>
       </c>
       <c r="G20">
-        <v>54.66820495763886</v>
+        <v>37.67204056237</v>
       </c>
       <c r="H20">
-        <v>14.48067197912531</v>
+        <v>2.835842207597573</v>
       </c>
       <c r="I20">
-        <v>14.06836517474656</v>
+        <v>4.059911842850231</v>
       </c>
       <c r="J20">
-        <v>9.686432777261917</v>
+        <v>12.07896049021284</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>18.93618534653302</v>
       </c>
       <c r="L20">
-        <v>13.90815772818838</v>
+        <v>6.886997935574405</v>
       </c>
       <c r="M20">
-        <v>17.38943615544771</v>
+        <v>16.12809423865241</v>
       </c>
       <c r="N20">
-        <v>12.76652745211873</v>
+        <v>8.050476806952283</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>11.3495577882174</v>
+      </c>
+      <c r="P20">
+        <v>13.93045894429545</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.48180069017855</v>
+        <v>13.89993678667867</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>9.163598531944553</v>
+        <v>4.563704603491155</v>
       </c>
       <c r="E21">
-        <v>16.63273694517872</v>
+        <v>8.684908825474027</v>
       </c>
       <c r="F21">
-        <v>35.41003000845788</v>
+        <v>29.44894022435694</v>
       </c>
       <c r="G21">
-        <v>58.00986422963461</v>
+        <v>39.06362447290231</v>
       </c>
       <c r="H21">
-        <v>15.08172674955115</v>
+        <v>2.556013915784022</v>
       </c>
       <c r="I21">
-        <v>13.62587107147794</v>
+        <v>3.886903191672269</v>
       </c>
       <c r="J21">
-        <v>10.00869456455169</v>
+        <v>12.24357306836364</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>19.0105596348869</v>
       </c>
       <c r="L21">
-        <v>14.80609420481479</v>
+        <v>7.001714675968884</v>
       </c>
       <c r="M21">
-        <v>18.48698631456679</v>
+        <v>17.10013271366236</v>
       </c>
       <c r="N21">
-        <v>12.58622643788586</v>
+        <v>8.427358104506263</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>11.83199199023207</v>
+      </c>
+      <c r="P21">
+        <v>13.75180961567289</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.2837694206296</v>
+        <v>14.36035596826944</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>9.420579888249428</v>
+        <v>4.633562620138576</v>
       </c>
       <c r="E22">
-        <v>17.0901392964529</v>
+        <v>8.816189815674408</v>
       </c>
       <c r="F22">
-        <v>36.47963990567368</v>
+        <v>29.92827278934598</v>
       </c>
       <c r="G22">
-        <v>60.17163785632003</v>
+        <v>39.90703331003915</v>
       </c>
       <c r="H22">
-        <v>15.48084156916592</v>
+        <v>2.387804173190732</v>
       </c>
       <c r="I22">
-        <v>13.35047990281592</v>
+        <v>3.769188478309547</v>
       </c>
       <c r="J22">
-        <v>10.21637472223682</v>
+        <v>12.34284401136134</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>19.05084227104302</v>
       </c>
       <c r="L22">
-        <v>15.37255116416834</v>
+        <v>7.079079304520897</v>
       </c>
       <c r="M22">
-        <v>19.17793761433084</v>
+        <v>17.69882253316452</v>
       </c>
       <c r="N22">
-        <v>12.47176568713674</v>
+        <v>8.620436642445112</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>12.1119155009061</v>
+      </c>
+      <c r="P22">
+        <v>13.63305779031152</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.85862108785738</v>
+        <v>14.14115034432308</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>9.283747309882006</v>
+        <v>4.597043323835267</v>
       </c>
       <c r="E23">
-        <v>16.84687891103211</v>
+        <v>8.746946517324927</v>
       </c>
       <c r="F23">
-        <v>35.90795043720295</v>
+        <v>29.6995048526183</v>
       </c>
       <c r="G23">
-        <v>59.0198074742191</v>
+        <v>39.49987044980615</v>
       </c>
       <c r="H23">
-        <v>15.26724054842669</v>
+        <v>2.476305859305097</v>
       </c>
       <c r="I23">
-        <v>13.49611153362694</v>
+        <v>3.821954691436376</v>
       </c>
       <c r="J23">
-        <v>10.10579542729337</v>
+        <v>12.29818120638794</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>19.05358164009373</v>
       </c>
       <c r="L23">
-        <v>15.07204979827109</v>
+        <v>7.037476412101687</v>
       </c>
       <c r="M23">
-        <v>18.81153657446385</v>
+        <v>17.37642730736891</v>
       </c>
       <c r="N23">
-        <v>12.53254382201044</v>
+        <v>8.50565584871269</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>11.96574789585348</v>
+      </c>
+      <c r="P23">
+        <v>13.7006403723317</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.20035604040104</v>
+        <v>13.23356703719393</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>8.758061861132875</v>
+        <v>4.456683128958876</v>
       </c>
       <c r="E24">
-        <v>15.9062609335945</v>
+        <v>8.481126127816907</v>
       </c>
       <c r="F24">
-        <v>33.7604742681036</v>
+        <v>28.79581546517041</v>
       </c>
       <c r="G24">
-        <v>54.61319881476145</v>
+        <v>37.88993100157526</v>
       </c>
       <c r="H24">
-        <v>14.47095269186099</v>
+        <v>2.819705778100451</v>
       </c>
       <c r="I24">
-        <v>14.07581274216067</v>
+        <v>4.043009125346869</v>
       </c>
       <c r="J24">
-        <v>9.681115140202515</v>
+        <v>12.1232712827032</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>19.02978136513354</v>
       </c>
       <c r="L24">
-        <v>13.89312874213393</v>
+        <v>6.878541277124888</v>
       </c>
       <c r="M24">
-        <v>17.37104377467763</v>
+        <v>16.11296571980682</v>
       </c>
       <c r="N24">
-        <v>12.76953080319463</v>
+        <v>8.082656357219028</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>11.39362908042766</v>
+      </c>
+      <c r="P24">
+        <v>13.95109653804312</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.4199071441736</v>
+        <v>12.17530856544881</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>8.173303649419111</v>
+        <v>4.303108879434061</v>
       </c>
       <c r="E25">
-        <v>14.84898413588279</v>
+        <v>8.188027500699148</v>
       </c>
       <c r="F25">
-        <v>31.48217998878629</v>
+        <v>27.83858872426951</v>
       </c>
       <c r="G25">
-        <v>49.76077425749678</v>
+        <v>36.16196064899265</v>
       </c>
       <c r="H25">
-        <v>13.63867058232822</v>
+        <v>3.205170958243475</v>
       </c>
       <c r="I25">
-        <v>14.75302496762113</v>
+        <v>4.293442517900019</v>
       </c>
       <c r="J25">
-        <v>9.210175379751638</v>
+        <v>11.95204271909682</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>19.01628806361061</v>
       </c>
       <c r="L25">
-        <v>12.53028084556879</v>
+        <v>6.702147958182987</v>
       </c>
       <c r="M25">
-        <v>15.78241585066289</v>
+        <v>14.64053525950504</v>
       </c>
       <c r="N25">
-        <v>13.03941802886733</v>
+        <v>7.611490493850992</v>
       </c>
       <c r="O25">
+        <v>10.74804043784823</v>
+      </c>
+      <c r="P25">
+        <v>14.22494981705874</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_3/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_3/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.40207796614678</v>
+        <v>10.5695862227253</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.189862239119916</v>
+        <v>4.102015634985835</v>
       </c>
       <c r="E2">
-        <v>7.968127347315026</v>
+        <v>7.688894891445019</v>
       </c>
       <c r="F2">
-        <v>27.22408507118463</v>
+        <v>26.42852397320403</v>
       </c>
       <c r="G2">
-        <v>35.02060442746738</v>
+        <v>33.57705179946065</v>
       </c>
       <c r="H2">
-        <v>3.500029485822634</v>
+        <v>3.3065084449403</v>
       </c>
       <c r="I2">
-        <v>4.465791528662323</v>
+        <v>4.143543118839407</v>
       </c>
       <c r="J2">
-        <v>11.86260790225294</v>
+        <v>11.79651352574252</v>
       </c>
       <c r="K2">
-        <v>19.07717006172122</v>
+        <v>17.89785220709191</v>
       </c>
       <c r="L2">
-        <v>6.566983465608899</v>
+        <v>13.75647009826443</v>
       </c>
       <c r="M2">
-        <v>13.4451545243204</v>
+        <v>12.68605854977684</v>
       </c>
       <c r="N2">
-        <v>7.219964139707289</v>
+        <v>6.403387845708022</v>
       </c>
       <c r="O2">
-        <v>10.25792513240105</v>
+        <v>13.54280691475844</v>
       </c>
       <c r="P2">
-        <v>14.44190378614108</v>
+        <v>7.726642539689081</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>10.16543974571085</v>
+      </c>
+      <c r="R2">
+        <v>14.11227604163029</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.79910593396506</v>
+        <v>10.01491702428465</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.110594281312781</v>
+        <v>4.030530493892655</v>
       </c>
       <c r="E3">
-        <v>7.813168733452977</v>
+        <v>7.537397998360122</v>
       </c>
       <c r="F3">
-        <v>26.77912321271966</v>
+        <v>26.04113906099439</v>
       </c>
       <c r="G3">
-        <v>34.1935995061312</v>
+        <v>32.89870187263454</v>
       </c>
       <c r="H3">
-        <v>3.71041977885804</v>
+        <v>3.503022308133756</v>
       </c>
       <c r="I3">
-        <v>4.601763951656467</v>
+        <v>4.260770357825225</v>
       </c>
       <c r="J3">
-        <v>11.79795108126355</v>
+        <v>11.70182340130167</v>
       </c>
       <c r="K3">
-        <v>19.08922343549976</v>
+        <v>17.95267339222772</v>
       </c>
       <c r="L3">
-        <v>6.472526477134401</v>
+        <v>13.87262338178563</v>
       </c>
       <c r="M3">
-        <v>12.58308429954962</v>
+        <v>12.69376511555191</v>
       </c>
       <c r="N3">
-        <v>6.967580747834728</v>
+        <v>6.305244738222711</v>
       </c>
       <c r="O3">
-        <v>9.909987623760815</v>
+        <v>12.66676861456837</v>
       </c>
       <c r="P3">
-        <v>14.58521945284749</v>
+        <v>7.455047613596768</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>9.819982669648549</v>
+      </c>
+      <c r="R3">
+        <v>14.25573245671086</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.40851967179449</v>
+        <v>9.653645349895216</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.06116221968986</v>
+        <v>3.986035470528836</v>
       </c>
       <c r="E4">
-        <v>7.715520712476468</v>
+        <v>7.442172018545619</v>
       </c>
       <c r="F4">
-        <v>26.51107490446151</v>
+        <v>25.80763507631013</v>
       </c>
       <c r="G4">
-        <v>33.69069388703343</v>
+        <v>32.49191942081863</v>
       </c>
       <c r="H4">
-        <v>3.844244034374651</v>
+        <v>3.628061139491115</v>
       </c>
       <c r="I4">
-        <v>4.688945090445852</v>
+        <v>4.336220816744434</v>
       </c>
       <c r="J4">
-        <v>11.76196981777873</v>
+        <v>11.64463249248456</v>
       </c>
       <c r="K4">
-        <v>19.0982438735528</v>
+        <v>17.98699637074691</v>
       </c>
       <c r="L4">
-        <v>6.412855928430441</v>
+        <v>13.94407320039892</v>
       </c>
       <c r="M4">
-        <v>12.02422321986847</v>
+        <v>12.71101537427944</v>
       </c>
       <c r="N4">
-        <v>6.810958453045715</v>
+        <v>6.243467392931749</v>
       </c>
       <c r="O4">
-        <v>9.691024261053261</v>
+        <v>12.09857766454234</v>
       </c>
       <c r="P4">
-        <v>14.67440334467661</v>
+        <v>7.286952047799476</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>9.602269085369272</v>
+      </c>
+      <c r="R4">
+        <v>14.34510078257635</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.23594847464188</v>
+        <v>9.49304294112784</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.040608280928058</v>
+        <v>3.967554690167589</v>
       </c>
       <c r="E5">
-        <v>7.674746194985619</v>
+        <v>7.402629258442114</v>
       </c>
       <c r="F5">
-        <v>26.3953145139998</v>
+        <v>25.70609113258066</v>
       </c>
       <c r="G5">
-        <v>33.47424411377732</v>
+        <v>32.31639139273069</v>
       </c>
       <c r="H5">
-        <v>3.900290047395046</v>
+        <v>3.680435409773081</v>
       </c>
       <c r="I5">
-        <v>4.727790446191104</v>
+        <v>4.370613361074176</v>
       </c>
       <c r="J5">
-        <v>11.74584505973418</v>
+        <v>11.6192477969879</v>
       </c>
       <c r="K5">
-        <v>19.09584594469512</v>
+        <v>17.99518709637256</v>
       </c>
       <c r="L5">
-        <v>6.3881098599611</v>
+        <v>13.96731743502218</v>
       </c>
       <c r="M5">
-        <v>11.79090782097129</v>
+        <v>12.71804465415091</v>
       </c>
       <c r="N5">
-        <v>6.750570678520451</v>
+        <v>6.218000972611426</v>
       </c>
       <c r="O5">
-        <v>9.599790601248499</v>
+        <v>11.86120739666593</v>
       </c>
       <c r="P5">
-        <v>14.7097525470084</v>
+        <v>7.221725106641541</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>9.511504793524693</v>
+      </c>
+      <c r="R5">
+        <v>14.38075235872878</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.19670707477324</v>
+        <v>9.455981587035597</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.036918371979739</v>
+        <v>3.964237759902535</v>
       </c>
       <c r="E6">
-        <v>7.667537030273854</v>
+        <v>7.395835073715341</v>
       </c>
       <c r="F6">
-        <v>26.36651233131902</v>
+        <v>25.68008846085532</v>
       </c>
       <c r="G6">
-        <v>33.42256347996399</v>
+        <v>32.27235211911249</v>
       </c>
       <c r="H6">
-        <v>3.910065784760982</v>
+        <v>3.689569152020058</v>
       </c>
       <c r="I6">
-        <v>4.737322278096332</v>
+        <v>4.379909879876856</v>
       </c>
       <c r="J6">
-        <v>11.740308681701</v>
+        <v>11.61220660007068</v>
       </c>
       <c r="K6">
-        <v>19.087561135982</v>
+        <v>17.98928078183317</v>
       </c>
       <c r="L6">
-        <v>6.383980600852687</v>
+        <v>13.96397568076548</v>
       </c>
       <c r="M6">
-        <v>11.75399558608324</v>
+        <v>12.71554806186067</v>
       </c>
       <c r="N6">
-        <v>6.745148005432609</v>
+        <v>6.213872983329956</v>
       </c>
       <c r="O6">
-        <v>9.583618757624594</v>
+        <v>11.82352791514584</v>
       </c>
       <c r="P6">
-        <v>14.71405038698519</v>
+        <v>7.215183093383443</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>9.495444761811012</v>
+      </c>
+      <c r="R6">
+        <v>14.38535141928652</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.37863713137258</v>
+        <v>9.625465965652792</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.060168601558237</v>
+        <v>3.988243429254276</v>
       </c>
       <c r="E7">
-        <v>7.713918572732038</v>
+        <v>7.440302562187314</v>
       </c>
       <c r="F7">
-        <v>26.48328749244671</v>
+        <v>25.76264189645994</v>
       </c>
       <c r="G7">
-        <v>33.64491200059454</v>
+        <v>32.51701912349083</v>
       </c>
       <c r="H7">
-        <v>3.846060105572314</v>
+        <v>3.630460824866919</v>
       </c>
       <c r="I7">
-        <v>4.697462067893879</v>
+        <v>4.346424699801689</v>
       </c>
       <c r="J7">
-        <v>11.75382311319186</v>
+        <v>11.59012898270982</v>
       </c>
       <c r="K7">
-        <v>19.0766502403995</v>
+        <v>17.96174124937552</v>
       </c>
       <c r="L7">
-        <v>6.41256596283201</v>
+        <v>13.91981414991645</v>
       </c>
       <c r="M7">
-        <v>12.02718273910067</v>
+        <v>12.69708285122353</v>
       </c>
       <c r="N7">
-        <v>6.822613696412866</v>
+        <v>6.242806221945837</v>
       </c>
       <c r="O7">
-        <v>9.687225928445226</v>
+        <v>12.09100317717132</v>
       </c>
       <c r="P7">
-        <v>14.67059019092135</v>
+        <v>7.294150068530342</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>9.596819229988879</v>
+      </c>
+      <c r="R7">
+        <v>14.34055307182769</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.16426295350906</v>
+        <v>10.35230855370295</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.16177024728496</v>
+        <v>4.086809627977271</v>
       </c>
       <c r="E8">
-        <v>7.913963930999586</v>
+        <v>7.633824978450118</v>
       </c>
       <c r="F8">
-        <v>27.03579265483558</v>
+        <v>26.20129139532935</v>
       </c>
       <c r="G8">
-        <v>34.67968322530512</v>
+        <v>33.51127148040952</v>
       </c>
       <c r="H8">
-        <v>3.572942763912293</v>
+        <v>3.376796077456679</v>
       </c>
       <c r="I8">
-        <v>4.521958554261161</v>
+        <v>4.196282614338519</v>
       </c>
       <c r="J8">
-        <v>11.82920250689882</v>
+        <v>11.60207079171908</v>
       </c>
       <c r="K8">
-        <v>19.05271010974922</v>
+        <v>17.87278519511661</v>
       </c>
       <c r="L8">
-        <v>6.534922236453592</v>
+        <v>13.75692715827985</v>
       </c>
       <c r="M8">
-        <v>13.16145467634244</v>
+        <v>12.65881382084868</v>
       </c>
       <c r="N8">
-        <v>7.14912938876517</v>
+        <v>6.368241762293906</v>
       </c>
       <c r="O8">
-        <v>10.13584780494113</v>
+        <v>13.22267536400044</v>
       </c>
       <c r="P8">
-        <v>14.48565738155702</v>
+        <v>7.636759399849192</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>10.03876732770382</v>
+      </c>
+      <c r="R8">
+        <v>14.15269578907312</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.58394296748446</v>
+        <v>11.65114958998019</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.356329956735188</v>
+        <v>4.264985927900655</v>
       </c>
       <c r="E9">
-        <v>8.289068970308971</v>
+        <v>8.000318848887156</v>
       </c>
       <c r="F9">
-        <v>28.20225594014106</v>
+        <v>27.20567566402277</v>
       </c>
       <c r="G9">
-        <v>36.8123165990174</v>
+        <v>35.35014507708036</v>
       </c>
       <c r="H9">
-        <v>3.07161014991711</v>
+        <v>2.909170060601459</v>
       </c>
       <c r="I9">
-        <v>4.193626987908187</v>
+        <v>3.912381592234798</v>
       </c>
       <c r="J9">
-        <v>12.02107583008549</v>
+        <v>11.81418338183909</v>
       </c>
       <c r="K9">
-        <v>19.05701554783602</v>
+        <v>17.75858473571848</v>
       </c>
       <c r="L9">
-        <v>6.761833522210938</v>
+        <v>13.48853077346405</v>
       </c>
       <c r="M9">
-        <v>15.14245650155983</v>
+        <v>12.71636112028031</v>
       </c>
       <c r="N9">
-        <v>7.752180177777427</v>
+        <v>6.604190085329248</v>
       </c>
       <c r="O9">
-        <v>10.97325466493002</v>
+        <v>15.23040037022894</v>
       </c>
       <c r="P9">
-        <v>14.13900723631826</v>
+        <v>8.287570925086643</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>10.86735305634287</v>
+      </c>
+      <c r="R9">
+        <v>13.80493083987769</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.4626427165953</v>
+        <v>12.45749426650373</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.481608121406873</v>
+        <v>4.396019456422322</v>
       </c>
       <c r="E10">
-        <v>8.554548152147616</v>
+        <v>8.262220057480258</v>
       </c>
       <c r="F10">
-        <v>28.91730194075171</v>
+        <v>27.71387602429663</v>
       </c>
       <c r="G10">
-        <v>38.15219009749029</v>
+        <v>36.88425951427272</v>
       </c>
       <c r="H10">
-        <v>2.750184934052178</v>
+        <v>2.614514393587207</v>
       </c>
       <c r="I10">
-        <v>3.979216486682906</v>
+        <v>3.731824773165185</v>
       </c>
       <c r="J10">
-        <v>12.13552734245054</v>
+        <v>11.68059364698757</v>
       </c>
       <c r="K10">
-        <v>18.98597388137393</v>
+        <v>17.58120221919723</v>
       </c>
       <c r="L10">
-        <v>6.929148063357142</v>
+        <v>13.21823085821046</v>
       </c>
       <c r="M10">
-        <v>16.44746028808498</v>
+        <v>12.74346116635376</v>
       </c>
       <c r="N10">
-        <v>8.115064873062677</v>
+        <v>6.778686581948495</v>
       </c>
       <c r="O10">
-        <v>11.49373010455411</v>
+        <v>16.503399518674</v>
       </c>
       <c r="P10">
-        <v>13.87288594833486</v>
+        <v>8.663066860322569</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>11.37232193552183</v>
+      </c>
+      <c r="R10">
+        <v>13.53820015788376</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.39694300495091</v>
+        <v>12.45505884863095</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.423827507992946</v>
+        <v>4.365462107677235</v>
       </c>
       <c r="E11">
-        <v>8.754128575627588</v>
+        <v>8.49045817642164</v>
       </c>
       <c r="F11">
-        <v>27.92213614972339</v>
+        <v>26.56668523962485</v>
       </c>
       <c r="G11">
-        <v>36.83976839538802</v>
+        <v>36.43914405725845</v>
       </c>
       <c r="H11">
-        <v>3.466909719275991</v>
+        <v>3.370218386913514</v>
       </c>
       <c r="I11">
-        <v>3.943780710823812</v>
+        <v>3.710949169842396</v>
       </c>
       <c r="J11">
-        <v>11.81456411267066</v>
+        <v>10.88748656643151</v>
       </c>
       <c r="K11">
-        <v>18.31111967808853</v>
+        <v>16.94238612609887</v>
       </c>
       <c r="L11">
-        <v>7.109824739520702</v>
+        <v>12.68965467890294</v>
       </c>
       <c r="M11">
-        <v>16.91656258141087</v>
+        <v>12.32331339420543</v>
       </c>
       <c r="N11">
-        <v>7.672996044216442</v>
+        <v>6.982149655625785</v>
       </c>
       <c r="O11">
-        <v>11.20102899728556</v>
+        <v>16.86258926765014</v>
       </c>
       <c r="P11">
-        <v>13.64280001252924</v>
+        <v>8.157591247091037</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>11.06584342501309</v>
+      </c>
+      <c r="R11">
+        <v>13.349768004866</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.19096527151853</v>
+        <v>12.31516149003747</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.359364923336116</v>
+        <v>4.307111142368282</v>
       </c>
       <c r="E12">
-        <v>8.967409220961024</v>
+        <v>8.716698181292916</v>
       </c>
       <c r="F12">
-        <v>26.94985252472587</v>
+        <v>25.57269344087399</v>
       </c>
       <c r="G12">
-        <v>35.47812698890092</v>
+        <v>35.5411895773003</v>
       </c>
       <c r="H12">
-        <v>4.650744289209179</v>
+        <v>4.580262646665146</v>
       </c>
       <c r="I12">
-        <v>3.941513242090921</v>
+        <v>3.710598388240041</v>
       </c>
       <c r="J12">
-        <v>11.52481260192416</v>
+        <v>10.426672465057</v>
       </c>
       <c r="K12">
-        <v>17.80388571766504</v>
+        <v>16.50668236820979</v>
       </c>
       <c r="L12">
-        <v>7.276598751491177</v>
+        <v>12.36155025213235</v>
       </c>
       <c r="M12">
-        <v>17.03944473196707</v>
+        <v>12.00042010779474</v>
       </c>
       <c r="N12">
-        <v>7.201892454988913</v>
+        <v>7.16241486372048</v>
       </c>
       <c r="O12">
-        <v>10.84231547669894</v>
+        <v>16.92677246223365</v>
       </c>
       <c r="P12">
-        <v>13.53022965282369</v>
+        <v>7.642985754735837</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>10.70444512583178</v>
+      </c>
+      <c r="R12">
+        <v>13.27561963552292</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.8251640651343</v>
+        <v>12.02277572237151</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.283878873318341</v>
+        <v>4.220748070231483</v>
       </c>
       <c r="E13">
-        <v>9.194404598158044</v>
+        <v>8.962109851623275</v>
       </c>
       <c r="F13">
-        <v>25.88701739118937</v>
+        <v>24.62944222631614</v>
       </c>
       <c r="G13">
-        <v>33.90919060549498</v>
+        <v>33.99673420083737</v>
       </c>
       <c r="H13">
-        <v>5.969622590066156</v>
+        <v>5.91147751661192</v>
       </c>
       <c r="I13">
-        <v>3.977269990471153</v>
+        <v>3.74026459142461</v>
       </c>
       <c r="J13">
-        <v>11.22799759973358</v>
+        <v>10.24804887543797</v>
       </c>
       <c r="K13">
-        <v>17.36532811158499</v>
+        <v>16.17921943791807</v>
       </c>
       <c r="L13">
-        <v>7.438476115767381</v>
+        <v>12.13552357793559</v>
       </c>
       <c r="M13">
-        <v>16.91429863113995</v>
+        <v>11.72627379129692</v>
       </c>
       <c r="N13">
-        <v>6.688233964478584</v>
+        <v>7.336475988890248</v>
       </c>
       <c r="O13">
-        <v>10.4011195271931</v>
+        <v>16.79656112513586</v>
       </c>
       <c r="P13">
-        <v>13.4938047844259</v>
+        <v>7.104567600603989</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>10.27254230381958</v>
+      </c>
+      <c r="R13">
+        <v>13.27289369162641</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.48537039172221</v>
+        <v>11.73875865577808</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.227304809380353</v>
+        <v>4.15261068835102</v>
       </c>
       <c r="E14">
-        <v>9.369102126065751</v>
+        <v>9.156242545380508</v>
       </c>
       <c r="F14">
-        <v>25.09337510371309</v>
+        <v>23.97957561625481</v>
       </c>
       <c r="G14">
-        <v>32.69672883491063</v>
+        <v>32.61264179223527</v>
       </c>
       <c r="H14">
-        <v>6.932726580323536</v>
+        <v>6.878965004482937</v>
       </c>
       <c r="I14">
-        <v>4.021830346824562</v>
+        <v>3.777497136778964</v>
       </c>
       <c r="J14">
-        <v>11.01546622133887</v>
+        <v>10.23336751383138</v>
       </c>
       <c r="K14">
-        <v>17.09070815656179</v>
+        <v>15.99513524922403</v>
       </c>
       <c r="L14">
-        <v>7.554405226701536</v>
+        <v>12.01526051415481</v>
       </c>
       <c r="M14">
-        <v>16.71427721572554</v>
+        <v>11.55824192970702</v>
       </c>
       <c r="N14">
-        <v>6.310160338922116</v>
+        <v>7.46082344938824</v>
       </c>
       <c r="O14">
-        <v>10.05108945726677</v>
+        <v>16.61633726070105</v>
       </c>
       <c r="P14">
-        <v>13.50411994311854</v>
+        <v>6.717025542037007</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>9.934048451571661</v>
+      </c>
+      <c r="R14">
+        <v>13.30131073309179</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.35901001423567</v>
+        <v>11.62796340918824</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.209750722862755</v>
+        <v>4.131083934695889</v>
       </c>
       <c r="E15">
-        <v>9.403492169325599</v>
+        <v>9.199457995494424</v>
       </c>
       <c r="F15">
-        <v>24.87448946510704</v>
+        <v>23.82134136776054</v>
       </c>
       <c r="G15">
-        <v>32.34529047779283</v>
+        <v>32.14066842651575</v>
       </c>
       <c r="H15">
-        <v>7.161158089708286</v>
+        <v>7.107332414502256</v>
       </c>
       <c r="I15">
-        <v>4.044839801639044</v>
+        <v>3.797681125588372</v>
       </c>
       <c r="J15">
-        <v>10.9605515053869</v>
+        <v>10.27552838696612</v>
       </c>
       <c r="K15">
-        <v>17.03124762115495</v>
+        <v>15.96400599408452</v>
       </c>
       <c r="L15">
-        <v>7.576297592343549</v>
+        <v>11.99728903559345</v>
       </c>
       <c r="M15">
-        <v>16.61352340401178</v>
+        <v>11.52373558561965</v>
       </c>
       <c r="N15">
-        <v>6.213200346635501</v>
+        <v>7.485427767634258</v>
       </c>
       <c r="O15">
-        <v>9.947706962545592</v>
+        <v>16.53045497955378</v>
       </c>
       <c r="P15">
-        <v>13.51960920483387</v>
+        <v>6.620668145440817</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>9.835621755421933</v>
+      </c>
+      <c r="R15">
+        <v>13.31944107213943</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.03126783754065</v>
+        <v>11.31412869419053</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.16850702955841</v>
+        <v>4.07932015615861</v>
       </c>
       <c r="E16">
-        <v>9.24378301565336</v>
+        <v>9.072052385897543</v>
       </c>
       <c r="F16">
-        <v>24.74229419459815</v>
+        <v>23.89862120510854</v>
       </c>
       <c r="G16">
-        <v>32.00065414311985</v>
+        <v>31.15430626362905</v>
       </c>
       <c r="H16">
-        <v>6.995619799030618</v>
+        <v>6.931499711205828</v>
       </c>
       <c r="I16">
-        <v>4.134418875535202</v>
+        <v>3.872050762056947</v>
       </c>
       <c r="J16">
-        <v>10.9630743624316</v>
+        <v>10.69031539107751</v>
       </c>
       <c r="K16">
-        <v>17.14303917841822</v>
+        <v>16.12598938030064</v>
       </c>
       <c r="L16">
-        <v>7.470593057089571</v>
+        <v>12.13158375833012</v>
       </c>
       <c r="M16">
-        <v>16.09937720979688</v>
+        <v>11.60977477389686</v>
       </c>
       <c r="N16">
-        <v>6.149969413558868</v>
+        <v>7.38535004783729</v>
       </c>
       <c r="O16">
-        <v>9.799227263531488</v>
+        <v>16.10036380028411</v>
       </c>
       <c r="P16">
-        <v>13.63313898169874</v>
+        <v>6.582351666657983</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>9.704674065250018</v>
+      </c>
+      <c r="R16">
+        <v>13.41932452121826</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.96367885299938</v>
+        <v>11.22749878777921</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.166398949787188</v>
+        <v>4.073689967075497</v>
       </c>
       <c r="E17">
-        <v>9.018119532258487</v>
+        <v>8.850747755142844</v>
       </c>
       <c r="F17">
-        <v>25.06938695513135</v>
+        <v>24.28711501121295</v>
       </c>
       <c r="G17">
-        <v>32.39863862263634</v>
+        <v>31.24746552871263</v>
       </c>
       <c r="H17">
-        <v>6.333014367544311</v>
+        <v>6.256869461728651</v>
       </c>
       <c r="I17">
-        <v>4.180083696303863</v>
+        <v>3.910461434954835</v>
       </c>
       <c r="J17">
-        <v>11.07893177550388</v>
+        <v>10.97278477665831</v>
       </c>
       <c r="K17">
-        <v>17.37026802691381</v>
+        <v>16.34351729876029</v>
       </c>
       <c r="L17">
-        <v>7.323108928198545</v>
+        <v>12.30535958954153</v>
       </c>
       <c r="M17">
-        <v>15.80836390780819</v>
+        <v>11.75501566828077</v>
       </c>
       <c r="N17">
-        <v>6.307471460823829</v>
+        <v>7.235075146097068</v>
       </c>
       <c r="O17">
-        <v>9.875748782720848</v>
+        <v>15.85145684124029</v>
       </c>
       <c r="P17">
-        <v>13.71443733242096</v>
+        <v>6.759971783906472</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>9.786506679058652</v>
+      </c>
+      <c r="R17">
+        <v>13.48506379835687</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.13522831946112</v>
+        <v>11.34769127571646</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.203700932215025</v>
+        <v>4.108068069449399</v>
       </c>
       <c r="E18">
-        <v>8.748616301865487</v>
+        <v>8.564527724505531</v>
       </c>
       <c r="F18">
-        <v>25.84379528225767</v>
+        <v>25.03905022227373</v>
       </c>
       <c r="G18">
-        <v>33.50254289453425</v>
+        <v>32.15471308552839</v>
       </c>
       <c r="H18">
-        <v>5.218524404589448</v>
+        <v>5.124227272529816</v>
       </c>
       <c r="I18">
-        <v>4.182905729837192</v>
+        <v>3.910137490660109</v>
       </c>
       <c r="J18">
-        <v>11.30950291876237</v>
+        <v>11.25712476111104</v>
       </c>
       <c r="K18">
-        <v>17.74907080410863</v>
+        <v>16.66608214071972</v>
       </c>
       <c r="L18">
-        <v>7.141722716031026</v>
+        <v>12.56122216152431</v>
       </c>
       <c r="M18">
-        <v>15.67959471718875</v>
+        <v>11.98558357960352</v>
       </c>
       <c r="N18">
-        <v>6.665903634618821</v>
+        <v>7.043537370511707</v>
       </c>
       <c r="O18">
-        <v>10.15634688971795</v>
+        <v>15.74991062740425</v>
       </c>
       <c r="P18">
-        <v>13.78863977377427</v>
+        <v>7.144096225840831</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>10.06579432560579</v>
+      </c>
+      <c r="R18">
+        <v>13.53755121755216</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.44010133793818</v>
+        <v>11.5808213894278</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.277258347053856</v>
+        <v>4.178445260703652</v>
       </c>
       <c r="E19">
-        <v>8.537139363064385</v>
+        <v>8.319516539703637</v>
       </c>
       <c r="F19">
-        <v>26.8746518171377</v>
+        <v>25.9983151537658</v>
       </c>
       <c r="G19">
-        <v>35.00817802019681</v>
+        <v>33.50946860475625</v>
       </c>
       <c r="H19">
-        <v>3.977025338700034</v>
+        <v>3.85622235941802</v>
       </c>
       <c r="I19">
-        <v>4.164586254322803</v>
+        <v>3.895443050005352</v>
       </c>
       <c r="J19">
-        <v>11.60168658025515</v>
+        <v>11.54366839038735</v>
       </c>
       <c r="K19">
-        <v>18.21024056940144</v>
+        <v>17.04082381038815</v>
       </c>
       <c r="L19">
-        <v>6.98388715771496</v>
+        <v>12.85710294344719</v>
       </c>
       <c r="M19">
-        <v>15.70213024228598</v>
+        <v>12.2603753031491</v>
       </c>
       <c r="N19">
-        <v>7.178460278281105</v>
+        <v>6.868712868790902</v>
       </c>
       <c r="O19">
-        <v>10.57289260221422</v>
+        <v>15.7922037531344</v>
       </c>
       <c r="P19">
-        <v>13.86256650066688</v>
+        <v>7.687107321946547</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>10.47723907780664</v>
+      </c>
+      <c r="R19">
+        <v>13.58428256977289</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.16752603909019</v>
+        <v>12.18168464576127</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.446277899398337</v>
+        <v>4.34894862661496</v>
       </c>
       <c r="E20">
-        <v>8.483502848787388</v>
+        <v>8.197581398860624</v>
       </c>
       <c r="F20">
-        <v>28.64732547934399</v>
+        <v>27.5641374903461</v>
       </c>
       <c r="G20">
-        <v>37.67204056237</v>
+        <v>36.1334494488842</v>
       </c>
       <c r="H20">
-        <v>2.835842207597573</v>
+        <v>2.69084805311723</v>
       </c>
       <c r="I20">
-        <v>4.059911842850231</v>
+        <v>3.807118061423577</v>
       </c>
       <c r="J20">
-        <v>12.07896049021284</v>
+        <v>11.84767369554956</v>
       </c>
       <c r="K20">
-        <v>18.93618534653302</v>
+        <v>17.58629927614873</v>
       </c>
       <c r="L20">
-        <v>6.886997935574405</v>
+        <v>13.25663723198738</v>
       </c>
       <c r="M20">
-        <v>16.12809423865241</v>
+        <v>12.70203957376434</v>
       </c>
       <c r="N20">
-        <v>8.050476806952283</v>
+        <v>6.738324283008798</v>
       </c>
       <c r="O20">
-        <v>11.3495577882174</v>
+        <v>16.22013076810071</v>
       </c>
       <c r="P20">
-        <v>13.93045894429545</v>
+        <v>8.604138085700894</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>11.23813263762916</v>
+      </c>
+      <c r="R20">
+        <v>13.60281996563891</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.89993678667867</v>
+        <v>12.85660323357656</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.563704603491155</v>
+        <v>4.528380927929946</v>
       </c>
       <c r="E21">
-        <v>8.684908825474027</v>
+        <v>8.372483266317051</v>
       </c>
       <c r="F21">
-        <v>29.44894022435694</v>
+        <v>27.86616596496342</v>
       </c>
       <c r="G21">
-        <v>39.06362447290231</v>
+        <v>38.82928853979484</v>
       </c>
       <c r="H21">
-        <v>2.556013915784022</v>
+        <v>2.441753243728334</v>
       </c>
       <c r="I21">
-        <v>3.886903191672269</v>
+        <v>3.666362188605598</v>
       </c>
       <c r="J21">
-        <v>12.24357306836364</v>
+        <v>11.02086928990615</v>
       </c>
       <c r="K21">
-        <v>19.0105596348869</v>
+        <v>17.4556892732577</v>
       </c>
       <c r="L21">
-        <v>7.001714675968884</v>
+        <v>13.05993155859311</v>
       </c>
       <c r="M21">
-        <v>17.10013271366236</v>
+        <v>12.73795831187468</v>
       </c>
       <c r="N21">
-        <v>8.427358104506263</v>
+        <v>6.841327038533213</v>
       </c>
       <c r="O21">
-        <v>11.83199199023207</v>
+        <v>17.02687747861579</v>
       </c>
       <c r="P21">
-        <v>13.75180961567289</v>
+        <v>8.940410405622931</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>11.67826042905213</v>
+      </c>
+      <c r="R21">
+        <v>13.39706965631747</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.36035596826944</v>
+        <v>13.28477617325153</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.633562620138576</v>
+        <v>4.646786092762776</v>
       </c>
       <c r="E22">
-        <v>8.816189815674408</v>
+        <v>8.491559002447016</v>
       </c>
       <c r="F22">
-        <v>29.92827278934598</v>
+        <v>28.00099176129472</v>
       </c>
       <c r="G22">
-        <v>39.90703331003915</v>
+        <v>40.62028565074781</v>
       </c>
       <c r="H22">
-        <v>2.387804173190732</v>
+        <v>2.293329567603853</v>
       </c>
       <c r="I22">
-        <v>3.769188478309547</v>
+        <v>3.567278412510154</v>
       </c>
       <c r="J22">
-        <v>12.34284401136134</v>
+        <v>10.44991956857834</v>
       </c>
       <c r="K22">
-        <v>19.05084227104302</v>
+        <v>17.35661362691374</v>
       </c>
       <c r="L22">
-        <v>7.079079304520897</v>
+        <v>12.92365015822509</v>
       </c>
       <c r="M22">
-        <v>17.69882253316452</v>
+        <v>12.75805313298</v>
       </c>
       <c r="N22">
-        <v>8.620436642445112</v>
+        <v>6.9124668576218</v>
       </c>
       <c r="O22">
-        <v>12.1119155009061</v>
+        <v>17.51180099363344</v>
       </c>
       <c r="P22">
-        <v>13.63305779031152</v>
+        <v>9.101842973240881</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>11.92895605380675</v>
+      </c>
+      <c r="R22">
+        <v>13.26157532004565</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.14115034432308</v>
+        <v>13.07991081480165</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.597043323835267</v>
+        <v>4.575450853269123</v>
       </c>
       <c r="E23">
-        <v>8.746946517324927</v>
+        <v>8.429475755011511</v>
       </c>
       <c r="F23">
-        <v>29.6995048526183</v>
+        <v>27.99923636893243</v>
       </c>
       <c r="G23">
-        <v>39.49987044980615</v>
+        <v>39.54052954667609</v>
       </c>
       <c r="H23">
-        <v>2.476305859305097</v>
+        <v>2.370145918903153</v>
       </c>
       <c r="I23">
-        <v>3.821954691436376</v>
+        <v>3.607500073906564</v>
       </c>
       <c r="J23">
-        <v>12.29818120638794</v>
+        <v>10.86126782985544</v>
       </c>
       <c r="K23">
-        <v>19.05358164009373</v>
+        <v>17.44429643014931</v>
       </c>
       <c r="L23">
-        <v>7.037476412101687</v>
+        <v>13.02093749054697</v>
       </c>
       <c r="M23">
-        <v>17.37642730736891</v>
+        <v>12.77469453449708</v>
       </c>
       <c r="N23">
-        <v>8.50565584871269</v>
+        <v>6.875195461264911</v>
       </c>
       <c r="O23">
-        <v>11.96574789585348</v>
+        <v>17.2695930784947</v>
       </c>
       <c r="P23">
-        <v>13.7006403723317</v>
+        <v>9.012632946795012</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>11.80224925134162</v>
+      </c>
+      <c r="R23">
+        <v>13.33891297601835</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.23356703719393</v>
+        <v>12.23921316213823</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.456683128958876</v>
+        <v>4.358606154586734</v>
       </c>
       <c r="E24">
-        <v>8.481126127816907</v>
+        <v>8.189210001992359</v>
       </c>
       <c r="F24">
-        <v>28.79581546517041</v>
+        <v>27.70562596799546</v>
       </c>
       <c r="G24">
-        <v>37.88993100157526</v>
+        <v>36.32433552767297</v>
       </c>
       <c r="H24">
-        <v>2.819705778100451</v>
+        <v>2.674657651926069</v>
       </c>
       <c r="I24">
-        <v>4.043009125346869</v>
+        <v>3.787443770111468</v>
       </c>
       <c r="J24">
-        <v>12.1232712827032</v>
+        <v>11.89638063319132</v>
       </c>
       <c r="K24">
-        <v>19.02978136513354</v>
+        <v>17.66648366608423</v>
       </c>
       <c r="L24">
-        <v>6.878541277124888</v>
+        <v>13.32009238037932</v>
       </c>
       <c r="M24">
-        <v>16.11296571980682</v>
+        <v>12.76051938279233</v>
       </c>
       <c r="N24">
-        <v>8.082656357219028</v>
+        <v>6.72640278946014</v>
       </c>
       <c r="O24">
-        <v>11.39362908042766</v>
+        <v>16.20833246229174</v>
       </c>
       <c r="P24">
-        <v>13.95109653804312</v>
+        <v>8.641088467978749</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>11.28170389715065</v>
+      </c>
+      <c r="R24">
+        <v>13.61794921739818</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.17530856544881</v>
+        <v>11.27534072880526</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.303108879434061</v>
+        <v>4.211930649001377</v>
       </c>
       <c r="E25">
-        <v>8.188027500699148</v>
+        <v>7.903740243044126</v>
       </c>
       <c r="F25">
-        <v>27.83858872426951</v>
+        <v>26.91376625110868</v>
       </c>
       <c r="G25">
-        <v>36.16196064899265</v>
+        <v>34.68546247277941</v>
       </c>
       <c r="H25">
-        <v>3.205170958243475</v>
+        <v>3.032789868767884</v>
       </c>
       <c r="I25">
-        <v>4.293442517900019</v>
+        <v>4.002301037604632</v>
       </c>
       <c r="J25">
-        <v>11.95204271909682</v>
+        <v>11.80673694419594</v>
       </c>
       <c r="K25">
-        <v>19.01628806361061</v>
+        <v>17.7624182270345</v>
       </c>
       <c r="L25">
-        <v>6.702147958182987</v>
+        <v>13.53924611489432</v>
       </c>
       <c r="M25">
-        <v>14.64053525950504</v>
+        <v>12.67165408448772</v>
       </c>
       <c r="N25">
-        <v>7.611490493850992</v>
+        <v>6.543576564163048</v>
       </c>
       <c r="O25">
-        <v>10.74804043784823</v>
+        <v>14.73389583833772</v>
       </c>
       <c r="P25">
-        <v>14.22494981705874</v>
+        <v>8.137285900544567</v>
       </c>
       <c r="Q25">
+        <v>10.64721772949934</v>
+      </c>
+      <c r="R25">
+        <v>13.89441772055412</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
